--- a/东兴馆店铺运营/沉香线香2017/利润统计表/利润表.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/利润统计表/利润表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="188">
   <si>
     <t>商品名称</t>
   </si>
@@ -523,6 +523,75 @@
   </si>
   <si>
     <t>10131142144</t>
+  </si>
+  <si>
+    <t>10898213920</t>
+  </si>
+  <si>
+    <t>东兴馆 红木纸巾盒 家用木质抽纸盒 复古实木收纳盒抽纸盒 办公室纸巾盒 支持LO</t>
+  </si>
+  <si>
+    <t>11172959643</t>
+  </si>
+  <si>
+    <t>11093682103</t>
+  </si>
+  <si>
+    <t>东起 土沉沉香线香  室内香佛香线香盘香 净化除味香味持久 办公居家礼佛安神香薰</t>
+  </si>
+  <si>
+    <t>10678871823</t>
+  </si>
+  <si>
+    <t>东兴馆 莲花荷叶香炉香座 陶瓷香炉 沉香线香盘香香插香器 含底座</t>
+  </si>
+  <si>
+    <t>10679382252</t>
+  </si>
+  <si>
+    <t>东兴馆 新新 越南进口腰果150克装 椰子芥末腰果 进口休闲零食</t>
+  </si>
+  <si>
+    <t>11095561402</t>
+  </si>
+  <si>
+    <t>东起 古琴香薰炉点香器 黑檀木薰香炉沉香炉线香炉 木质卧香炉</t>
+  </si>
+  <si>
+    <t>11052878444</t>
+  </si>
+  <si>
+    <t>东起 红木名片夹楠木名片手实木商务名片座创意办公摆件</t>
+  </si>
+  <si>
+    <t>11052845362</t>
+  </si>
+  <si>
+    <t>东兴馆 红木纸巾盒 龙凤木雕镂空抽纸盒180 抽 家用复古实木收纳盒  个性定制餐巾盒</t>
+  </si>
+  <si>
+    <t>东兴馆 中原g7咖啡 越南原装正品进口特浓 三合一速溶咖啡G7</t>
+  </si>
+  <si>
+    <t>11052909929</t>
+  </si>
+  <si>
+    <t>东兴馆 红木纸巾盒 家用木质抽纸盒 复古实木收纳盒抽纸盒  支持LOGO定制</t>
+  </si>
+  <si>
+    <t>11168935624</t>
+  </si>
+  <si>
+    <t>11172201419</t>
+  </si>
+  <si>
+    <t>东兴馆 天新发 越南芋头干230g袋装 进口休闲零食 越南特产 干果蜜饯零食</t>
+  </si>
+  <si>
+    <t>11095512330</t>
+  </si>
+  <si>
+    <t>东起 花梨木线香盒 木质熏香炉 莲花雕纹沉香盘香炉 家用香炉 带防火棉</t>
   </si>
 </sst>
 </file>
@@ -639,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,6 +889,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,17 +928,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,17 +1258,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA143"/>
+  <dimension ref="A1:AA204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X146" sqref="X146"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X211" sqref="X211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="3" style="15" customWidth="1"/>
     <col min="4" max="4" width="4.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="4.875" style="15" customWidth="1"/>
@@ -1326,7 +1428,7 @@
       <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="62">
+      <c r="Q2" s="72">
         <v>20170227</v>
       </c>
       <c r="R2" s="15">
@@ -1361,7 +1463,7 @@
         <f>(Y2/V2)</f>
         <v>0.27666666666666667</v>
       </c>
-      <c r="AA2" s="64">
+      <c r="AA2" s="74">
         <f>SUM(Y2:Y6)</f>
         <v>206.12</v>
       </c>
@@ -1415,7 +1517,7 @@
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="62"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="15">
         <f>I3/H3</f>
         <v>9.9</v>
@@ -1448,7 +1550,7 @@
         <f>(Y3/V3)</f>
         <v>-0.29666666666666658</v>
       </c>
-      <c r="AA3" s="64"/>
+      <c r="AA3" s="74"/>
     </row>
     <row r="4" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
@@ -1499,7 +1601,7 @@
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="72"/>
       <c r="R4" s="15">
         <f>I4/H4</f>
         <v>65</v>
@@ -1532,7 +1634,7 @@
         <f>(Y4/V4)</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="AA4" s="64"/>
+      <c r="AA4" s="74"/>
     </row>
     <row r="5" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
@@ -1583,7 +1685,7 @@
       <c r="P5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="62"/>
+      <c r="Q5" s="72"/>
       <c r="R5" s="15">
         <f>I5/H5</f>
         <v>39</v>
@@ -1616,7 +1718,7 @@
         <f>(Y5/V5)</f>
         <v>0.6100000000000001</v>
       </c>
-      <c r="AA5" s="64"/>
+      <c r="AA5" s="74"/>
     </row>
     <row r="6" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
@@ -1667,7 +1769,7 @@
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="62"/>
+      <c r="Q6" s="72"/>
       <c r="R6" s="15">
         <f>I6/H6</f>
         <v>328</v>
@@ -1700,7 +1802,7 @@
         <f>(Y6/V6)</f>
         <v>1.3853846153846154</v>
       </c>
-      <c r="AA6" s="64"/>
+      <c r="AA6" s="74"/>
     </row>
     <row r="7" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I7" s="19"/>
@@ -1759,7 +1861,7 @@
       <c r="P8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="65">
+      <c r="Q8" s="78">
         <v>20170301</v>
       </c>
       <c r="R8" s="15">
@@ -1773,7 +1875,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="38">
-        <f>V8*T8</f>
+        <f t="shared" ref="U8:U19" si="2">V8*T8</f>
         <v>0.45</v>
       </c>
       <c r="V8" s="28">
@@ -1787,14 +1889,14 @@
         <v>0.9</v>
       </c>
       <c r="Y8" s="4">
-        <f>(I8-V8-W8-X8-U8)</f>
+        <f t="shared" ref="Y8:Y19" si="3">(I8-V8-W8-X8-U8)</f>
         <v>9.65</v>
       </c>
       <c r="Z8" s="5">
-        <f>(Y8/V8)</f>
+        <f t="shared" ref="Z8:Z19" si="4">(Y8/V8)</f>
         <v>1.0722222222222222</v>
       </c>
-      <c r="AA8" s="66">
+      <c r="AA8" s="77">
         <f>SUM(Y8:Y13)</f>
         <v>149.70000000000002</v>
       </c>
@@ -1848,7 +1950,7 @@
       <c r="P9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="65"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="15">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1860,7 +1962,7 @@
         <v>0.08</v>
       </c>
       <c r="U9" s="38">
-        <f>V9*T9</f>
+        <f t="shared" si="2"/>
         <v>2.88</v>
       </c>
       <c r="V9" s="28">
@@ -1874,14 +1976,14 @@
         <v>0.9</v>
       </c>
       <c r="Y9" s="4">
-        <f>(I9-V9-W9-X9-U9)</f>
+        <f t="shared" si="3"/>
         <v>74.22</v>
       </c>
       <c r="Z9" s="5">
-        <f>(Y9/V9)</f>
+        <f t="shared" si="4"/>
         <v>2.0616666666666665</v>
       </c>
-      <c r="AA9" s="66"/>
+      <c r="AA9" s="77"/>
     </row>
     <row r="10" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
@@ -1932,7 +2034,7 @@
       <c r="P10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="65"/>
+      <c r="Q10" s="78"/>
       <c r="R10" s="15">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1944,7 +2046,7 @@
         <v>0.08</v>
       </c>
       <c r="U10" s="38">
-        <f>V10*T10</f>
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
       <c r="V10" s="28">
@@ -1958,14 +2060,14 @@
         <v>1.2</v>
       </c>
       <c r="Y10" s="4">
-        <f>(I10-V10-W10-X10-U10)</f>
+        <f t="shared" si="3"/>
         <v>17.28</v>
       </c>
       <c r="Z10" s="5">
-        <f>(Y10/V10)</f>
+        <f t="shared" si="4"/>
         <v>0.90947368421052632</v>
       </c>
-      <c r="AA10" s="66"/>
+      <c r="AA10" s="77"/>
     </row>
     <row r="11" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
@@ -2016,7 +2118,7 @@
       <c r="P11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="78"/>
       <c r="R11" s="15">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2028,7 +2130,7 @@
         <v>0.08</v>
       </c>
       <c r="U11" s="38">
-        <f>V11*T11</f>
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
       <c r="V11" s="28">
@@ -2039,14 +2141,14 @@
         <v>4</v>
       </c>
       <c r="Y11" s="4">
-        <f>(I11-V11-W11-X11-U11)</f>
+        <f t="shared" si="3"/>
         <v>6.48</v>
       </c>
       <c r="Z11" s="5">
-        <f>(Y11/V11)</f>
+        <f t="shared" si="4"/>
         <v>0.34105263157894739</v>
       </c>
-      <c r="AA11" s="66"/>
+      <c r="AA11" s="77"/>
     </row>
     <row r="12" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
@@ -2097,7 +2199,7 @@
       <c r="P12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="65"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2109,7 +2211,7 @@
         <v>0.08</v>
       </c>
       <c r="U12" s="38">
-        <f>V12*T12</f>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="V12" s="28">
@@ -2123,14 +2225,14 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="4">
-        <f>(I12-V12-W12-X12-U12)</f>
+        <f t="shared" si="3"/>
         <v>10.41</v>
       </c>
       <c r="Z12" s="5">
-        <f>(Y12/V12)</f>
+        <f t="shared" si="4"/>
         <v>3.47</v>
       </c>
-      <c r="AA12" s="66"/>
+      <c r="AA12" s="77"/>
     </row>
     <row r="13" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
@@ -2181,7 +2283,7 @@
       <c r="P13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="65"/>
+      <c r="Q13" s="78"/>
       <c r="R13" s="15">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2193,7 +2295,7 @@
         <v>0.08</v>
       </c>
       <c r="U13" s="38">
-        <f>V13*T13</f>
+        <f t="shared" si="2"/>
         <v>1.44</v>
       </c>
       <c r="V13" s="28">
@@ -2207,14 +2309,14 @@
         <v>0.9</v>
       </c>
       <c r="Y13" s="4">
-        <f>(I13-V13-W13-X13-U13)</f>
+        <f t="shared" si="3"/>
         <v>31.66</v>
       </c>
       <c r="Z13" s="5">
-        <f>(Y13/V13)</f>
+        <f t="shared" si="4"/>
         <v>1.7588888888888889</v>
       </c>
-      <c r="AA13" s="66"/>
+      <c r="AA13" s="77"/>
     </row>
     <row r="14" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I14" s="19"/>
@@ -2224,7 +2326,7 @@
         <v>0.08</v>
       </c>
       <c r="U14" s="11">
-        <f>V14*T14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="11">
@@ -2233,14 +2335,14 @@
       </c>
       <c r="W14" s="29"/>
       <c r="Y14" s="35">
-        <f>(I14-V14-W14-X14-U14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="14" t="e">
-        <f>(Y14/V14)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA14" s="66">
+      <c r="AA14" s="77">
         <f>SUM(Y14:Y19)</f>
         <v>113.616</v>
       </c>
@@ -2294,7 +2396,7 @@
       <c r="P15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="79">
         <v>20170302</v>
       </c>
       <c r="R15" s="15">
@@ -2308,7 +2410,7 @@
         <v>0.05</v>
       </c>
       <c r="U15" s="38">
-        <f>V15*T15</f>
+        <f t="shared" si="2"/>
         <v>3.7200000000000006</v>
       </c>
       <c r="V15" s="28">
@@ -2322,14 +2424,14 @@
         <v>1</v>
       </c>
       <c r="Y15" s="4">
-        <f>(I15-V15-W15-X15-U15)</f>
+        <f t="shared" si="3"/>
         <v>24.879999999999995</v>
       </c>
       <c r="Z15" s="5">
-        <f>(Y15/V15)</f>
+        <f t="shared" si="4"/>
         <v>0.33440860215053753</v>
       </c>
-      <c r="AA15" s="66"/>
+      <c r="AA15" s="77"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
@@ -2380,7 +2482,7 @@
       <c r="P16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="67"/>
+      <c r="Q16" s="79"/>
       <c r="R16" s="15">
         <f t="shared" si="1"/>
         <v>9.9</v>
@@ -2392,7 +2494,7 @@
         <v>0.08</v>
       </c>
       <c r="U16" s="38">
-        <f>V16*T16</f>
+        <f t="shared" si="2"/>
         <v>1.92</v>
       </c>
       <c r="V16" s="28">
@@ -2406,14 +2508,14 @@
         <v>1</v>
       </c>
       <c r="Y16" s="4">
-        <f>(I16-V16-W16-X16-U16)</f>
+        <f t="shared" si="3"/>
         <v>48.28</v>
       </c>
       <c r="Z16" s="5">
-        <f>(Y16/V16)</f>
+        <f t="shared" si="4"/>
         <v>2.0116666666666667</v>
       </c>
-      <c r="AA16" s="66"/>
+      <c r="AA16" s="77"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
@@ -2464,7 +2566,7 @@
       <c r="P17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="67"/>
+      <c r="Q17" s="79"/>
       <c r="R17" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2476,7 +2578,7 @@
         <v>0.08</v>
       </c>
       <c r="U17" s="38">
-        <f>V17*T17</f>
+        <f t="shared" si="2"/>
         <v>2.1839999999999997</v>
       </c>
       <c r="V17" s="28">
@@ -2490,14 +2592,14 @@
         <v>1</v>
       </c>
       <c r="Y17" s="4">
-        <f>(I17-V17-W17-X17-U17)</f>
+        <f t="shared" si="3"/>
         <v>10.516000000000004</v>
       </c>
       <c r="Z17" s="5">
-        <f>(Y17/V17)</f>
+        <f t="shared" si="4"/>
         <v>0.38520146520146537</v>
       </c>
-      <c r="AA17" s="66"/>
+      <c r="AA17" s="77"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
@@ -2548,7 +2650,7 @@
       <c r="P18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="67"/>
+      <c r="Q18" s="79"/>
       <c r="R18" s="15">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2560,7 +2662,7 @@
         <v>0.05</v>
       </c>
       <c r="U18" s="38">
-        <f>V18*T18</f>
+        <f t="shared" si="2"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="V18" s="28">
@@ -2574,14 +2676,14 @@
         <v>1</v>
       </c>
       <c r="Y18" s="4">
-        <f>(I18-V18-W18-X18-U18)</f>
+        <f t="shared" si="3"/>
         <v>23.815000000000001</v>
       </c>
       <c r="Z18" s="5">
-        <f>(Y18/V18)</f>
+        <f t="shared" si="4"/>
         <v>2.4551546391752579</v>
       </c>
-      <c r="AA18" s="66"/>
+      <c r="AA18" s="77"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
@@ -2632,7 +2734,7 @@
       <c r="P19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="67"/>
+      <c r="Q19" s="79"/>
       <c r="R19" s="15">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2644,7 +2746,7 @@
         <v>0.05</v>
       </c>
       <c r="U19" s="38">
-        <f>V19*T19</f>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="V19" s="28">
@@ -2658,14 +2760,14 @@
         <v>1</v>
       </c>
       <c r="Y19" s="4">
-        <f>(I19-V19-W19-X19-U19)</f>
+        <f t="shared" si="3"/>
         <v>6.125</v>
       </c>
       <c r="Z19" s="5">
-        <f>(Y19/V19)</f>
+        <f t="shared" si="4"/>
         <v>0.81666666666666665</v>
       </c>
-      <c r="AA19" s="66"/>
+      <c r="AA19" s="77"/>
     </row>
     <row r="20" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I20" s="19"/>
@@ -2726,7 +2828,7 @@
       <c r="P21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="65">
+      <c r="Q21" s="78">
         <v>20170303</v>
       </c>
       <c r="R21" s="20">
@@ -2740,7 +2842,7 @@
         <v>0.08</v>
       </c>
       <c r="U21" s="38">
-        <f>V21*T21</f>
+        <f t="shared" ref="U21:U27" si="5">V21*T21</f>
         <v>0.84</v>
       </c>
       <c r="V21" s="28">
@@ -2754,14 +2856,14 @@
         <v>1.2</v>
       </c>
       <c r="Y21" s="4">
-        <f>(I21-V21-W21-X21-U21)</f>
+        <f t="shared" ref="Y21:Y27" si="6">(I21-V21-W21-X21-U21)</f>
         <v>25.46</v>
       </c>
       <c r="Z21" s="5">
-        <f>(Y21/V21)</f>
+        <f t="shared" ref="Z21:Z27" si="7">(Y21/V21)</f>
         <v>2.4247619047619047</v>
       </c>
-      <c r="AA21" s="68">
+      <c r="AA21" s="76">
         <f>SUM(Y24:Y31)</f>
         <v>152.89999999999998</v>
       </c>
@@ -2815,7 +2917,7 @@
       <c r="P22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="65"/>
+      <c r="Q22" s="78"/>
       <c r="R22" s="20">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2827,7 +2929,7 @@
         <v>0.08</v>
       </c>
       <c r="U22" s="38">
-        <f>V22*T22</f>
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
       <c r="V22" s="28">
@@ -2841,14 +2943,14 @@
         <v>1.2</v>
       </c>
       <c r="Y22" s="4">
-        <f>(I22-V22-W22-X22-U22)</f>
+        <f t="shared" si="6"/>
         <v>12.16</v>
       </c>
       <c r="Z22" s="5">
-        <f>(Y22/V22)</f>
+        <f t="shared" si="7"/>
         <v>1.52</v>
       </c>
-      <c r="AA22" s="68"/>
+      <c r="AA22" s="76"/>
     </row>
     <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
@@ -2899,7 +3001,7 @@
       <c r="P23" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="65"/>
+      <c r="Q23" s="78"/>
       <c r="R23" s="20">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2908,7 +3010,7 @@
         <v>0.08</v>
       </c>
       <c r="U23" s="38">
-        <f>V23*T23</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V23" s="28">
@@ -2922,14 +3024,14 @@
         <v>1.2</v>
       </c>
       <c r="Y23" s="4">
-        <f>(I23-V23-W23-X23-U23)</f>
+        <f t="shared" si="6"/>
         <v>42.8</v>
       </c>
       <c r="Z23" s="5" t="e">
-        <f>(Y23/V23)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="68"/>
+      <c r="AA23" s="76"/>
     </row>
     <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
@@ -2980,7 +3082,7 @@
       <c r="P24" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q24" s="65"/>
+      <c r="Q24" s="78"/>
       <c r="R24" s="20">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2992,7 +3094,7 @@
         <v>0.08</v>
       </c>
       <c r="U24" s="38">
-        <f>V24*T24</f>
+        <f t="shared" si="5"/>
         <v>1.44</v>
       </c>
       <c r="V24" s="28">
@@ -3006,14 +3108,14 @@
         <v>1.2</v>
       </c>
       <c r="Y24" s="4">
-        <f>(I24-V24-W24-X24-U24)</f>
+        <f t="shared" si="6"/>
         <v>25.36</v>
       </c>
       <c r="Z24" s="5">
-        <f>(Y24/V24)</f>
+        <f t="shared" si="7"/>
         <v>1.4088888888888889</v>
       </c>
-      <c r="AA24" s="68"/>
+      <c r="AA24" s="76"/>
     </row>
     <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30" t="s">
@@ -3064,7 +3166,7 @@
       <c r="P25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="65"/>
+      <c r="Q25" s="78"/>
       <c r="R25" s="20">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3076,7 +3178,7 @@
         <v>0.08</v>
       </c>
       <c r="U25" s="38">
-        <f>V25*T25</f>
+        <f t="shared" si="5"/>
         <v>1.28</v>
       </c>
       <c r="V25" s="28">
@@ -3090,14 +3192,14 @@
         <v>1.2</v>
       </c>
       <c r="Y25" s="4">
-        <f>(I25-V25-W25-X25-U25)</f>
+        <f t="shared" si="6"/>
         <v>15.520000000000001</v>
       </c>
       <c r="Z25" s="5">
-        <f>(Y25/V25)</f>
+        <f t="shared" si="7"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="AA25" s="68"/>
+      <c r="AA25" s="76"/>
     </row>
     <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30" t="s">
@@ -3148,7 +3250,7 @@
       <c r="P26" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="65"/>
+      <c r="Q26" s="78"/>
       <c r="R26" s="20">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -3160,7 +3262,7 @@
         <v>0.08</v>
       </c>
       <c r="U26" s="38">
-        <f>V26*T26</f>
+        <f t="shared" si="5"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="V26" s="28">
@@ -3174,14 +3276,14 @@
         <v>1.2</v>
       </c>
       <c r="Y26" s="4">
-        <f>(I26-V26-W26-X26-U26)</f>
+        <f t="shared" si="6"/>
         <v>27.68</v>
       </c>
       <c r="Z26" s="5">
-        <f>(Y26/V26)</f>
+        <f t="shared" si="7"/>
         <v>1.9771428571428571</v>
       </c>
-      <c r="AA26" s="68"/>
+      <c r="AA26" s="76"/>
     </row>
     <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30" t="s">
@@ -3232,7 +3334,7 @@
       <c r="P27" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Q27" s="65"/>
+      <c r="Q27" s="78"/>
       <c r="R27" s="20">
         <f t="shared" si="1"/>
         <v>15.9</v>
@@ -3244,7 +3346,7 @@
         <v>0.08</v>
       </c>
       <c r="U27" s="38">
-        <f>V27*T27</f>
+        <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
       <c r="V27" s="28">
@@ -3258,14 +3360,14 @@
         <v>1.2</v>
       </c>
       <c r="Y27" s="4">
-        <f>(I27-V27-W27-X27-U27)</f>
+        <f t="shared" si="6"/>
         <v>6.38</v>
       </c>
       <c r="Z27" s="5">
-        <f>(Y27/V27)</f>
+        <f t="shared" si="7"/>
         <v>1.595</v>
       </c>
-      <c r="AA27" s="68"/>
+      <c r="AA27" s="76"/>
     </row>
     <row r="28" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I28" s="19"/>
@@ -3324,7 +3426,7 @@
       <c r="P29" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q29" s="65">
+      <c r="Q29" s="78">
         <v>20170304</v>
       </c>
       <c r="R29" s="28">
@@ -3338,7 +3440,7 @@
         <v>0.05</v>
       </c>
       <c r="U29" s="38">
-        <f>V29*T29</f>
+        <f t="shared" ref="U29:U36" si="8">V29*T29</f>
         <v>1.4550000000000001</v>
       </c>
       <c r="V29" s="28">
@@ -3352,14 +3454,14 @@
         <v>1.2</v>
       </c>
       <c r="Y29" s="4">
-        <f>(I29-V29-W29-X29-U29)</f>
+        <f t="shared" ref="Y29:Y36" si="9">(I29-V29-W29-X29-U29)</f>
         <v>45.245000000000005</v>
       </c>
       <c r="Z29" s="5">
-        <f>(Y29/V29)</f>
+        <f t="shared" ref="Z29:Z36" si="10">(Y29/V29)</f>
         <v>1.5548109965635741</v>
       </c>
-      <c r="AA29" s="68">
+      <c r="AA29" s="76">
         <f>SUM(Y28:Y36)</f>
         <v>180.02000000000004</v>
       </c>
@@ -3413,7 +3515,7 @@
       <c r="P30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="65"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3425,7 +3527,7 @@
         <v>0.08</v>
       </c>
       <c r="U30" s="38">
-        <f>V30*T30</f>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="V30" s="28">
@@ -3439,14 +3541,14 @@
         <v>1.2</v>
       </c>
       <c r="Y30" s="4">
-        <f>(I30-V30-W30-X30-U30)</f>
+        <f t="shared" si="9"/>
         <v>29.2</v>
       </c>
       <c r="Z30" s="5">
-        <f>(Y30/V30)</f>
+        <f t="shared" si="10"/>
         <v>1.46</v>
       </c>
-      <c r="AA30" s="68"/>
+      <c r="AA30" s="76"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
@@ -3497,7 +3599,7 @@
       <c r="P31" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q31" s="65"/>
+      <c r="Q31" s="78"/>
       <c r="R31" s="28">
         <f t="shared" si="1"/>
         <v>18.899999999999999</v>
@@ -3509,7 +3611,7 @@
         <v>0.05</v>
       </c>
       <c r="U31" s="38">
-        <f>V31*T31</f>
+        <f t="shared" si="8"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="V31" s="28">
@@ -3523,14 +3625,14 @@
         <v>1.2</v>
       </c>
       <c r="Y31" s="4">
-        <f>(I31-V31-W31-X31-U31)</f>
+        <f t="shared" si="9"/>
         <v>3.5149999999999992</v>
       </c>
       <c r="Z31" s="5">
-        <f>(Y31/V31)</f>
+        <f t="shared" si="10"/>
         <v>0.36237113402061849</v>
       </c>
-      <c r="AA31" s="68"/>
+      <c r="AA31" s="76"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" s="30" t="s">
@@ -3581,7 +3683,7 @@
       <c r="P32" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q32" s="65"/>
+      <c r="Q32" s="78"/>
       <c r="R32" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3593,7 +3695,7 @@
         <v>0.05</v>
       </c>
       <c r="U32" s="38">
-        <f>V32*T32</f>
+        <f t="shared" si="8"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="V32" s="28">
@@ -3607,14 +3709,14 @@
         <v>1.2</v>
       </c>
       <c r="Y32" s="4">
-        <f>(I32-V32-W32-X32-U32)</f>
+        <f t="shared" si="9"/>
         <v>24.040000000000003</v>
       </c>
       <c r="Z32" s="5">
-        <f>(Y32/V32)</f>
+        <f t="shared" si="10"/>
         <v>2.1464285714285718</v>
       </c>
-      <c r="AA32" s="68"/>
+      <c r="AA32" s="76"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" s="30" t="s">
@@ -3665,7 +3767,7 @@
       <c r="P33" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q33" s="65"/>
+      <c r="Q33" s="78"/>
       <c r="R33" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -3677,7 +3779,7 @@
         <v>0.08</v>
       </c>
       <c r="U33" s="38">
-        <f>V33*T33</f>
+        <f t="shared" si="8"/>
         <v>1.52</v>
       </c>
       <c r="V33" s="28">
@@ -3691,14 +3793,14 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="4">
-        <f>(I33-V33-W33-X33-U33)</f>
+        <f t="shared" si="9"/>
         <v>16.28</v>
       </c>
       <c r="Z33" s="5">
-        <f>(Y33/V33)</f>
+        <f t="shared" si="10"/>
         <v>0.85684210526315796</v>
       </c>
-      <c r="AA33" s="68"/>
+      <c r="AA33" s="76"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" s="30" t="s">
@@ -3749,7 +3851,7 @@
       <c r="P34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" s="65"/>
+      <c r="Q34" s="78"/>
       <c r="R34" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3761,7 +3863,7 @@
         <v>0.08</v>
       </c>
       <c r="U34" s="38">
-        <f>V34*T34</f>
+        <f t="shared" si="8"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="V34" s="28">
@@ -3775,14 +3877,14 @@
         <v>1.2</v>
       </c>
       <c r="Y34" s="4">
-        <f>(I34-V34-W34-X34-U34)</f>
+        <f t="shared" si="9"/>
         <v>3.0199999999999996</v>
       </c>
       <c r="Z34" s="5">
-        <f>(Y34/V34)</f>
+        <f t="shared" si="10"/>
         <v>0.86285714285714277</v>
       </c>
-      <c r="AA34" s="68"/>
+      <c r="AA34" s="76"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="30" t="s">
@@ -3833,7 +3935,7 @@
       <c r="P35" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="Q35" s="65"/>
+      <c r="Q35" s="78"/>
       <c r="R35" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3845,7 +3947,7 @@
         <v>0.08</v>
       </c>
       <c r="U35" s="38">
-        <f>V35*T35</f>
+        <f t="shared" si="8"/>
         <v>1.44</v>
       </c>
       <c r="V35" s="28">
@@ -3859,14 +3961,14 @@
         <v>1.2</v>
       </c>
       <c r="Y35" s="4">
-        <f>(I35-V35-W35-X35-U35)</f>
+        <f t="shared" si="9"/>
         <v>24.36</v>
       </c>
       <c r="Z35" s="5">
-        <f>(Y35/V35)</f>
+        <f t="shared" si="10"/>
         <v>1.3533333333333333</v>
       </c>
-      <c r="AA35" s="68"/>
+      <c r="AA35" s="76"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
@@ -3917,7 +4019,7 @@
       <c r="P36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q36" s="65"/>
+      <c r="Q36" s="78"/>
       <c r="R36" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -3929,7 +4031,7 @@
         <v>0.08</v>
       </c>
       <c r="U36" s="38">
-        <f>V36*T36</f>
+        <f t="shared" si="8"/>
         <v>1.44</v>
       </c>
       <c r="V36" s="28">
@@ -3943,14 +4045,14 @@
         <v>1.2</v>
       </c>
       <c r="Y36" s="4">
-        <f>(I36-V36-W36-X36-U36)</f>
+        <f t="shared" si="9"/>
         <v>34.36</v>
       </c>
       <c r="Z36" s="5">
-        <f>(Y36/V36)</f>
+        <f t="shared" si="10"/>
         <v>1.9088888888888889</v>
       </c>
-      <c r="AA36" s="68"/>
+      <c r="AA36" s="76"/>
     </row>
     <row r="37" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I37" s="19"/>
@@ -4009,7 +4111,7 @@
       <c r="P38" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q38" s="65">
+      <c r="Q38" s="78">
         <v>20170305</v>
       </c>
       <c r="R38" s="28">
@@ -4023,7 +4125,7 @@
         <v>0.05</v>
       </c>
       <c r="U38" s="38">
-        <f>V38*T38</f>
+        <f t="shared" ref="U38:U46" si="11">V38*T38</f>
         <v>1.6799999999999997</v>
       </c>
       <c r="V38" s="28">
@@ -4037,14 +4139,14 @@
         <v>1.2</v>
       </c>
       <c r="Y38" s="4">
-        <f>(I38-V38-W38-X38-U38)</f>
+        <f t="shared" ref="Y38:Y46" si="12">(I38-V38-W38-X38-U38)</f>
         <v>13.520000000000007</v>
       </c>
       <c r="Z38" s="5">
-        <f>(Y38/V38)</f>
+        <f t="shared" ref="Z38:Z46" si="13">(Y38/V38)</f>
         <v>0.40238095238095267</v>
       </c>
-      <c r="AA38" s="68">
+      <c r="AA38" s="76">
         <v>455.5</v>
       </c>
     </row>
@@ -4097,7 +4199,7 @@
       <c r="P39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="65"/>
+      <c r="Q39" s="78"/>
       <c r="R39" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -4109,7 +4211,7 @@
         <v>0.08</v>
       </c>
       <c r="U39" s="38">
-        <f>V39*T39</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="V39" s="28">
@@ -4123,14 +4225,14 @@
         <v>1.2</v>
       </c>
       <c r="Y39" s="4">
-        <f>(I39-V39-W39-X39-U39)</f>
+        <f t="shared" si="12"/>
         <v>52.32</v>
       </c>
       <c r="Z39" s="5">
-        <f>(Y39/V39)</f>
+        <f t="shared" si="13"/>
         <v>8.7200000000000006</v>
       </c>
-      <c r="AA39" s="68"/>
+      <c r="AA39" s="76"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="30" t="s">
@@ -4181,7 +4283,7 @@
       <c r="P40" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="Q40" s="65"/>
+      <c r="Q40" s="78"/>
       <c r="R40" s="28">
         <f t="shared" si="1"/>
         <v>9.9</v>
@@ -4193,7 +4295,7 @@
         <v>0.08</v>
       </c>
       <c r="U40" s="38">
-        <f>V40*T40</f>
+        <f t="shared" si="11"/>
         <v>0.24</v>
       </c>
       <c r="V40" s="28">
@@ -4207,14 +4309,14 @@
         <v>1.2</v>
       </c>
       <c r="Y40" s="4">
-        <f>(I40-V40-W40-X40-U40)</f>
+        <f t="shared" si="12"/>
         <v>1.4600000000000004</v>
       </c>
       <c r="Z40" s="5">
-        <f>(Y40/V40)</f>
+        <f t="shared" si="13"/>
         <v>0.4866666666666668</v>
       </c>
-      <c r="AA40" s="68"/>
+      <c r="AA40" s="76"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
@@ -4265,7 +4367,7 @@
       <c r="P41" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q41" s="65"/>
+      <c r="Q41" s="78"/>
       <c r="R41" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4277,7 +4379,7 @@
         <v>0.05</v>
       </c>
       <c r="U41" s="38">
-        <f>V41*T41</f>
+        <f t="shared" si="11"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="V41" s="28">
@@ -4291,14 +4393,14 @@
         <v>1.2</v>
       </c>
       <c r="Y41" s="4">
-        <f>(I41-V41-W41-X41-U41)</f>
+        <f t="shared" si="12"/>
         <v>9.615000000000002</v>
       </c>
       <c r="Z41" s="5">
-        <f>(Y41/V41)</f>
+        <f t="shared" si="13"/>
         <v>0.99123711340206211</v>
       </c>
-      <c r="AA41" s="68"/>
+      <c r="AA41" s="76"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A42" s="30" t="s">
@@ -4349,7 +4451,7 @@
       <c r="P42" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q42" s="65"/>
+      <c r="Q42" s="78"/>
       <c r="R42" s="28">
         <f t="shared" si="1"/>
         <v>16.899999999999999</v>
@@ -4361,7 +4463,7 @@
         <v>0.05</v>
       </c>
       <c r="U42" s="38">
-        <f>V42*T42</f>
+        <f t="shared" si="11"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="V42" s="28">
@@ -4375,14 +4477,14 @@
         <v>1.2</v>
       </c>
       <c r="Y42" s="4">
-        <f>(I42-V42-W42-X42-U42)</f>
+        <f t="shared" si="12"/>
         <v>1.5149999999999992</v>
       </c>
       <c r="Z42" s="5">
-        <f>(Y42/V42)</f>
+        <f t="shared" si="13"/>
         <v>0.15618556701030922</v>
       </c>
-      <c r="AA42" s="68"/>
+      <c r="AA42" s="76"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
@@ -4433,7 +4535,7 @@
       <c r="P43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="65"/>
+      <c r="Q43" s="78"/>
       <c r="R43" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -4445,7 +4547,7 @@
         <v>0.08</v>
       </c>
       <c r="U43" s="38">
-        <f>V43*T43</f>
+        <f t="shared" si="11"/>
         <v>1.36</v>
       </c>
       <c r="V43" s="28">
@@ -4459,14 +4561,14 @@
         <v>1.2</v>
       </c>
       <c r="Y43" s="4">
-        <f>(I43-V43-W43-X43-U43)</f>
+        <f t="shared" si="12"/>
         <v>15.440000000000001</v>
       </c>
       <c r="Z43" s="5">
-        <f>(Y43/V43)</f>
+        <f t="shared" si="13"/>
         <v>0.90823529411764714</v>
       </c>
-      <c r="AA43" s="68"/>
+      <c r="AA43" s="76"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
@@ -4517,7 +4619,7 @@
       <c r="P44" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q44" s="65"/>
+      <c r="Q44" s="78"/>
       <c r="R44" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4529,7 +4631,7 @@
         <v>0.08</v>
       </c>
       <c r="U44" s="38">
-        <f>V44*T44</f>
+        <f t="shared" si="11"/>
         <v>0.36</v>
       </c>
       <c r="V44" s="28">
@@ -4543,14 +4645,14 @@
         <v>1.2</v>
       </c>
       <c r="Y44" s="4">
-        <f>(I44-V44-W44-X44-U44)</f>
+        <f t="shared" si="12"/>
         <v>3.94</v>
       </c>
       <c r="Z44" s="5">
-        <f>(Y44/V44)</f>
+        <f t="shared" si="13"/>
         <v>0.87555555555555553</v>
       </c>
-      <c r="AA44" s="68"/>
+      <c r="AA44" s="76"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" s="30" t="s">
@@ -4601,7 +4703,7 @@
       <c r="P45" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q45" s="65"/>
+      <c r="Q45" s="78"/>
       <c r="R45" s="28">
         <f t="shared" si="1"/>
         <v>249</v>
@@ -4613,7 +4715,7 @@
         <v>0.03</v>
       </c>
       <c r="U45" s="38">
-        <f>V45*T45</f>
+        <f t="shared" si="11"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="V45" s="28">
@@ -4627,14 +4729,14 @@
         <v>1.2</v>
       </c>
       <c r="Y45" s="4">
-        <f>(I45-V45-W45-X45-U45)</f>
+        <f t="shared" si="12"/>
         <v>58.4</v>
       </c>
       <c r="Z45" s="5">
-        <f>(Y45/V45)</f>
+        <f t="shared" si="13"/>
         <v>0.32444444444444442</v>
       </c>
-      <c r="AA45" s="68"/>
+      <c r="AA45" s="76"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" s="30" t="s">
@@ -4685,7 +4787,7 @@
       <c r="P46" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="Q46" s="65"/>
+      <c r="Q46" s="78"/>
       <c r="R46" s="28">
         <f t="shared" si="1"/>
         <v>1200</v>
@@ -4697,7 +4799,7 @@
         <v>0.03</v>
       </c>
       <c r="U46" s="38">
-        <f>V46*T46</f>
+        <f t="shared" si="11"/>
         <v>27.18</v>
       </c>
       <c r="V46" s="28">
@@ -4711,14 +4813,14 @@
         <v>1.2</v>
       </c>
       <c r="Y46" s="4">
-        <f>(I46-V46-W46-X46-U46)</f>
+        <f t="shared" si="12"/>
         <v>261.62</v>
       </c>
       <c r="Z46" s="5">
-        <f>(Y46/V46)</f>
+        <f t="shared" si="13"/>
         <v>0.28876379690949228</v>
       </c>
-      <c r="AA46" s="68"/>
+      <c r="AA46" s="76"/>
     </row>
     <row r="47" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I47" s="19"/>
@@ -4777,7 +4879,7 @@
       <c r="P48" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q48" s="62">
+      <c r="Q48" s="72">
         <v>20170306</v>
       </c>
       <c r="R48" s="28">
@@ -4791,7 +4893,7 @@
         <v>0.05</v>
       </c>
       <c r="U48" s="38">
-        <f>V48*T48</f>
+        <f t="shared" ref="U48:U60" si="14">V48*T48</f>
         <v>10.8</v>
       </c>
       <c r="V48" s="28">
@@ -4805,14 +4907,14 @@
         <v>1.2</v>
       </c>
       <c r="Y48" s="4">
-        <f>(I48-V48-W48-X48-U48)</f>
+        <f t="shared" ref="Y48:Y60" si="15">(I48-V48-W48-X48-U48)</f>
         <v>38</v>
       </c>
       <c r="Z48" s="5">
-        <f>(Y48/V48)</f>
+        <f t="shared" ref="Z48:Z60" si="16">(Y48/V48)</f>
         <v>0.17592592592592593</v>
       </c>
-      <c r="AA48" s="63">
+      <c r="AA48" s="73">
         <f>SUM(Y48:Y60)</f>
         <v>637.23650000000009</v>
       </c>
@@ -4866,7 +4968,7 @@
       <c r="P49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q49" s="62"/>
+      <c r="Q49" s="72"/>
       <c r="R49" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -4878,7 +4980,7 @@
         <v>0.08</v>
       </c>
       <c r="U49" s="38">
-        <f>V49*T49</f>
+        <f t="shared" si="14"/>
         <v>31.68</v>
       </c>
       <c r="V49" s="28">
@@ -4892,14 +4994,14 @@
         <v>1.2</v>
       </c>
       <c r="Y49" s="4">
-        <f>(I49-V49-W49-X49-U49)</f>
+        <f t="shared" si="15"/>
         <v>155.12</v>
       </c>
       <c r="Z49" s="5">
-        <f>(Y49/V49)</f>
+        <f t="shared" si="16"/>
         <v>0.39171717171717174</v>
       </c>
-      <c r="AA49" s="63"/>
+      <c r="AA49" s="73"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A50" s="30" t="s">
@@ -4950,7 +5052,7 @@
       <c r="P50" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q50" s="62"/>
+      <c r="Q50" s="72"/>
       <c r="R50" s="28">
         <f t="shared" si="1"/>
         <v>201.33333333333334</v>
@@ -4962,7 +5064,7 @@
         <v>0.08</v>
       </c>
       <c r="U50" s="38">
-        <f>V50*T50</f>
+        <f t="shared" si="14"/>
         <v>21.6</v>
       </c>
       <c r="V50" s="28">
@@ -4976,14 +5078,14 @@
         <v>1.2</v>
       </c>
       <c r="Y50" s="4">
-        <f>(I50-V50-W50-X50-U50)</f>
+        <f t="shared" si="15"/>
         <v>307.2</v>
       </c>
       <c r="Z50" s="5">
-        <f>(Y50/V50)</f>
+        <f t="shared" si="16"/>
         <v>1.1377777777777778</v>
       </c>
-      <c r="AA50" s="63"/>
+      <c r="AA50" s="73"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
@@ -5034,7 +5136,7 @@
       <c r="P51" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="62"/>
+      <c r="Q51" s="72"/>
       <c r="R51" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5046,7 +5148,7 @@
         <v>0.05</v>
       </c>
       <c r="U51" s="38">
-        <f>V51*T51</f>
+        <f t="shared" si="14"/>
         <v>0.71500000000000008</v>
       </c>
       <c r="V51" s="28">
@@ -5060,14 +5162,14 @@
         <v>1.2</v>
       </c>
       <c r="Y51" s="4">
-        <f>(I51-V51-W51-X51-U51)</f>
+        <f t="shared" si="15"/>
         <v>9.7850000000000001</v>
       </c>
       <c r="Z51" s="5">
-        <f>(Y51/V51)</f>
+        <f t="shared" si="16"/>
         <v>0.68426573426573423</v>
       </c>
-      <c r="AA51" s="63"/>
+      <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A52" s="30" t="s">
@@ -5118,7 +5220,7 @@
       <c r="P52" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q52" s="62"/>
+      <c r="Q52" s="72"/>
       <c r="R52" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5130,7 +5232,7 @@
         <v>0.08</v>
       </c>
       <c r="U52" s="38">
-        <f>V52*T52</f>
+        <f t="shared" si="14"/>
         <v>1.36</v>
       </c>
       <c r="V52" s="28">
@@ -5144,14 +5246,14 @@
         <v>1.2</v>
       </c>
       <c r="Y52" s="4">
-        <f>(I52-V52-W52-X52-U52)</f>
+        <f t="shared" si="15"/>
         <v>1.4399999999999997</v>
       </c>
       <c r="Z52" s="5">
-        <f>(Y52/V52)</f>
+        <f t="shared" si="16"/>
         <v>8.4705882352941159E-2</v>
       </c>
-      <c r="AA52" s="63"/>
+      <c r="AA52" s="73"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
@@ -5202,7 +5304,7 @@
       <c r="P53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q53" s="62"/>
+      <c r="Q53" s="72"/>
       <c r="R53" s="28">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5214,7 +5316,7 @@
         <v>0.08</v>
       </c>
       <c r="U53" s="38">
-        <f>V53*T53</f>
+        <f t="shared" si="14"/>
         <v>1.36</v>
       </c>
       <c r="V53" s="28">
@@ -5228,14 +5330,14 @@
         <v>1.2</v>
       </c>
       <c r="Y53" s="4">
-        <f>(I53-V53-W53-X53-U53)</f>
+        <f t="shared" si="15"/>
         <v>18.440000000000001</v>
       </c>
       <c r="Z53" s="5">
-        <f>(Y53/V53)</f>
+        <f t="shared" si="16"/>
         <v>1.0847058823529412</v>
       </c>
-      <c r="AA53" s="63"/>
+      <c r="AA53" s="73"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A54" s="30" t="s">
@@ -5286,7 +5388,7 @@
       <c r="P54" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q54" s="62"/>
+      <c r="Q54" s="72"/>
       <c r="R54" s="28">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5298,7 +5400,7 @@
         <v>0.05</v>
       </c>
       <c r="U54" s="38">
-        <f>V54*T54</f>
+        <f t="shared" si="14"/>
         <v>0.5585</v>
       </c>
       <c r="V54" s="28">
@@ -5312,14 +5414,14 @@
         <v>1.2</v>
       </c>
       <c r="Y54" s="4">
-        <f>(I54-V54-W54-X54-U54)</f>
+        <f t="shared" si="15"/>
         <v>24.0715</v>
       </c>
       <c r="Z54" s="5">
-        <f>(Y54/V54)</f>
+        <f t="shared" si="16"/>
         <v>2.1550134288272158</v>
       </c>
-      <c r="AA54" s="63"/>
+      <c r="AA54" s="73"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
@@ -5370,7 +5472,7 @@
       <c r="P55" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q55" s="62"/>
+      <c r="Q55" s="72"/>
       <c r="R55" s="28">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5382,7 +5484,7 @@
         <v>0.05</v>
       </c>
       <c r="U55" s="38">
-        <f>V55*T55</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="V55" s="28">
@@ -5396,14 +5498,14 @@
         <v>1.2</v>
       </c>
       <c r="Y55" s="4">
-        <f>(I55-V55-W55-X55-U55)</f>
+        <f t="shared" si="15"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="Z55" s="5">
-        <f>(Y55/V55)</f>
+        <f t="shared" si="16"/>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="AA55" s="63"/>
+      <c r="AA55" s="73"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A56" s="30" t="s">
@@ -5454,7 +5556,7 @@
       <c r="P56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q56" s="62"/>
+      <c r="Q56" s="72"/>
       <c r="R56" s="28">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5466,7 +5568,7 @@
         <v>0.08</v>
       </c>
       <c r="U56" s="38">
-        <f>V56*T56</f>
+        <f t="shared" si="14"/>
         <v>1.36</v>
       </c>
       <c r="V56" s="28">
@@ -5480,14 +5582,14 @@
         <v>1.2</v>
       </c>
       <c r="Y56" s="4">
-        <f>(I56-V56-W56-X56-U56)</f>
+        <f t="shared" si="15"/>
         <v>15.440000000000001</v>
       </c>
       <c r="Z56" s="5">
-        <f>(Y56/V56)</f>
+        <f t="shared" si="16"/>
         <v>0.90823529411764714</v>
       </c>
-      <c r="AA56" s="63"/>
+      <c r="AA56" s="73"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
@@ -5538,7 +5640,7 @@
       <c r="P57" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="Q57" s="62"/>
+      <c r="Q57" s="72"/>
       <c r="R57" s="28">
         <f t="shared" si="1"/>
         <v>9.9</v>
@@ -5550,7 +5652,7 @@
         <v>0.08</v>
       </c>
       <c r="U57" s="38">
-        <f>V57*T57</f>
+        <f t="shared" si="14"/>
         <v>0.24</v>
       </c>
       <c r="V57" s="28">
@@ -5564,14 +5666,14 @@
         <v>1.2</v>
       </c>
       <c r="Y57" s="4">
-        <f>(I57-V57-W57-X57-U57)</f>
+        <f t="shared" si="15"/>
         <v>1.4600000000000004</v>
       </c>
       <c r="Z57" s="5">
-        <f>(Y57/V57)</f>
+        <f t="shared" si="16"/>
         <v>0.4866666666666668</v>
       </c>
-      <c r="AA57" s="63"/>
+      <c r="AA57" s="73"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A58" s="30" t="s">
@@ -5622,7 +5724,7 @@
       <c r="P58" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" s="62"/>
+      <c r="Q58" s="72"/>
       <c r="R58" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5634,7 +5736,7 @@
         <v>0.08</v>
       </c>
       <c r="U58" s="38">
-        <f>V58*T58</f>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="V58" s="28">
@@ -5648,14 +5750,14 @@
         <v>1.2</v>
       </c>
       <c r="Y58" s="4">
-        <f>(I58-V58-W58-X58-U58)</f>
+        <f t="shared" si="15"/>
         <v>3.48</v>
       </c>
       <c r="Z58" s="5">
-        <f>(Y58/V58)</f>
+        <f t="shared" si="16"/>
         <v>0.87</v>
       </c>
-      <c r="AA58" s="63"/>
+      <c r="AA58" s="73"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
@@ -5706,7 +5808,7 @@
       <c r="P59" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q59" s="62"/>
+      <c r="Q59" s="72"/>
       <c r="R59" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -5718,7 +5820,7 @@
         <v>0.08</v>
       </c>
       <c r="U59" s="38">
-        <f>V59*T59</f>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="V59" s="28">
@@ -5732,14 +5834,14 @@
         <v>1.2</v>
       </c>
       <c r="Y59" s="4">
-        <f>(I59-V59-W59-X59-U59)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="Z59" s="5">
-        <f>(Y59/V59)</f>
+        <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
-      <c r="AA59" s="63"/>
+      <c r="AA59" s="73"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
@@ -5790,7 +5892,7 @@
       <c r="P60" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="Q60" s="62"/>
+      <c r="Q60" s="72"/>
       <c r="R60" s="28">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5802,7 +5904,7 @@
         <v>0.08</v>
       </c>
       <c r="U60" s="38">
-        <f>V60*T60</f>
+        <f t="shared" si="14"/>
         <v>4.8</v>
       </c>
       <c r="V60" s="28">
@@ -5816,14 +5918,14 @@
         <v>1.2</v>
       </c>
       <c r="Y60" s="4">
-        <f>(I60-V60-W60-X60-U60)</f>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="Z60" s="5">
-        <f>(Y60/V60)</f>
+        <f t="shared" si="16"/>
         <v>0.81666666666666665</v>
       </c>
-      <c r="AA60" s="63"/>
+      <c r="AA60" s="73"/>
     </row>
     <row r="61" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I61" s="19"/>
@@ -5882,7 +5984,7 @@
       <c r="P62" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q62" s="62">
+      <c r="Q62" s="72">
         <v>20170307</v>
       </c>
       <c r="R62" s="37">
@@ -5896,7 +5998,7 @@
         <v>0.08</v>
       </c>
       <c r="U62" s="38">
-        <f>V62*T62</f>
+        <f t="shared" ref="U62:U73" si="17">V62*T62</f>
         <v>0.64</v>
       </c>
       <c r="V62" s="37">
@@ -5910,14 +6012,14 @@
         <v>1.2</v>
       </c>
       <c r="Y62" s="4">
-        <f>(I62-V62-W62-X62-U62)</f>
+        <f t="shared" ref="Y62:Y73" si="18">(I62-V62-W62-X62-U62)</f>
         <v>14.16</v>
       </c>
       <c r="Z62" s="5">
-        <f>(Y62/V62)</f>
+        <f t="shared" ref="Z62:Z73" si="19">(Y62/V62)</f>
         <v>1.77</v>
       </c>
-      <c r="AA62" s="63">
+      <c r="AA62" s="73">
         <f>SUM(Y62:Y73)</f>
         <v>239.81999999999994</v>
       </c>
@@ -5971,7 +6073,7 @@
       <c r="P63" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q63" s="62"/>
+      <c r="Q63" s="72"/>
       <c r="R63" s="37">
         <f t="shared" si="1"/>
         <v>18.899999999999999</v>
@@ -5983,7 +6085,7 @@
         <v>0.05</v>
       </c>
       <c r="U63" s="38">
-        <f>V63*T63</f>
+        <f t="shared" si="17"/>
         <v>0.97</v>
       </c>
       <c r="V63" s="37">
@@ -5997,14 +6099,14 @@
         <v>1.2</v>
       </c>
       <c r="Y63" s="4">
-        <f>(I63-V63-W63-X63-U63)</f>
+        <f t="shared" si="18"/>
         <v>12.229999999999999</v>
       </c>
       <c r="Z63" s="5">
-        <f>(Y63/V63)</f>
+        <f t="shared" si="19"/>
         <v>0.6304123711340206</v>
       </c>
-      <c r="AA63" s="63"/>
+      <c r="AA63" s="73"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A64" s="30" t="s">
@@ -6055,7 +6157,7 @@
       <c r="P64" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q64" s="62"/>
+      <c r="Q64" s="72"/>
       <c r="R64" s="37">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6067,7 +6169,7 @@
         <v>0.05</v>
       </c>
       <c r="U64" s="38">
-        <f>V64*T64</f>
+        <f t="shared" si="17"/>
         <v>0.97</v>
       </c>
       <c r="V64" s="37">
@@ -6081,14 +6183,14 @@
         <v>1.2</v>
       </c>
       <c r="Y64" s="4">
-        <f>(I64-V64-W64-X64-U64)</f>
+        <f t="shared" si="18"/>
         <v>24.430000000000003</v>
       </c>
       <c r="Z64" s="5">
-        <f>(Y64/V64)</f>
+        <f t="shared" si="19"/>
         <v>1.2592783505154641</v>
       </c>
-      <c r="AA64" s="63"/>
+      <c r="AA64" s="73"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A65" s="30" t="s">
@@ -6139,7 +6241,7 @@
       <c r="P65" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q65" s="62"/>
+      <c r="Q65" s="72"/>
       <c r="R65" s="37">
         <f t="shared" si="1"/>
         <v>15.899999999999999</v>
@@ -6151,7 +6253,7 @@
         <v>0.05</v>
       </c>
       <c r="U65" s="38">
-        <f>V65*T65</f>
+        <f t="shared" si="17"/>
         <v>0.97</v>
       </c>
       <c r="V65" s="37">
@@ -6165,14 +6267,14 @@
         <v>1.2</v>
       </c>
       <c r="Y65" s="4">
-        <f>(I65-V65-W65-X65-U65)</f>
+        <f t="shared" si="18"/>
         <v>6.2299999999999986</v>
       </c>
       <c r="Z65" s="5">
-        <f>(Y65/V65)</f>
+        <f t="shared" si="19"/>
         <v>0.32113402061855667</v>
       </c>
-      <c r="AA65" s="63"/>
+      <c r="AA65" s="73"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A66" s="30" t="s">
@@ -6223,7 +6325,7 @@
       <c r="P66" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q66" s="62"/>
+      <c r="Q66" s="72"/>
       <c r="R66" s="37">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6235,7 +6337,7 @@
         <v>0.08</v>
       </c>
       <c r="U66" s="38">
-        <f>V66*T66</f>
+        <f t="shared" si="17"/>
         <v>2.72</v>
       </c>
       <c r="V66" s="37">
@@ -6249,14 +6351,14 @@
         <v>1.2</v>
       </c>
       <c r="Y66" s="4">
-        <f>(I66-V66-W66-X66-U66)</f>
+        <f t="shared" si="18"/>
         <v>36.08</v>
       </c>
       <c r="Z66" s="5">
-        <f>(Y66/V66)</f>
+        <f t="shared" si="19"/>
         <v>1.0611764705882352</v>
       </c>
-      <c r="AA66" s="63"/>
+      <c r="AA66" s="73"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A67" s="30" t="s">
@@ -6307,7 +6409,7 @@
       <c r="P67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q67" s="62"/>
+      <c r="Q67" s="72"/>
       <c r="R67" s="37">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6319,11 +6421,11 @@
         <v>0.05</v>
       </c>
       <c r="U67" s="38">
-        <f>V67*T67</f>
+        <f t="shared" si="17"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="V67" s="37">
-        <f t="shared" ref="V67:V84" si="2">H67*S67</f>
+        <f t="shared" ref="V67:V84" si="20">H67*S67</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="W67" s="37">
@@ -6333,14 +6435,14 @@
         <v>1.2</v>
       </c>
       <c r="Y67" s="4">
-        <f>(I67-V67-W67-X67-U67)</f>
+        <f t="shared" si="18"/>
         <v>11.51</v>
       </c>
       <c r="Z67" s="5">
-        <f>(Y67/V67)</f>
+        <f t="shared" si="19"/>
         <v>1.1744897959183673</v>
       </c>
-      <c r="AA67" s="63"/>
+      <c r="AA67" s="73"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
@@ -6391,7 +6493,7 @@
       <c r="P68" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Q68" s="62"/>
+      <c r="Q68" s="72"/>
       <c r="R68" s="37">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -6403,11 +6505,11 @@
         <v>0.08</v>
       </c>
       <c r="U68" s="38">
-        <f>V68*T68</f>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
       <c r="V68" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="W68" s="37">
@@ -6417,14 +6519,14 @@
         <v>1.2</v>
       </c>
       <c r="Y68" s="4">
-        <f>(I68-V68-W68-X68-U68)</f>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="Z68" s="5">
-        <f>(Y68/V68)</f>
+        <f t="shared" si="19"/>
         <v>4.3</v>
       </c>
-      <c r="AA68" s="63"/>
+      <c r="AA68" s="73"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
@@ -6475,7 +6577,7 @@
       <c r="P69" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q69" s="62"/>
+      <c r="Q69" s="72"/>
       <c r="R69" s="37">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6487,11 +6589,11 @@
         <v>0.08</v>
       </c>
       <c r="U69" s="38">
-        <f>V69*T69</f>
+        <f t="shared" si="17"/>
         <v>1.36</v>
       </c>
       <c r="V69" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="W69" s="37">
@@ -6501,14 +6603,14 @@
         <v>1.2</v>
       </c>
       <c r="Y69" s="4">
-        <f>(I69-V69-W69-X69-U69)</f>
+        <f t="shared" si="18"/>
         <v>21.44</v>
       </c>
       <c r="Z69" s="5">
-        <f>(Y69/V69)</f>
+        <f t="shared" si="19"/>
         <v>1.2611764705882353</v>
       </c>
-      <c r="AA69" s="63"/>
+      <c r="AA69" s="73"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
@@ -6559,7 +6661,7 @@
       <c r="P70" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Q70" s="62"/>
+      <c r="Q70" s="72"/>
       <c r="R70" s="37">
         <f t="shared" si="1"/>
         <v>9.9</v>
@@ -6571,11 +6673,11 @@
         <v>0.08</v>
       </c>
       <c r="U70" s="38">
-        <f>V70*T70</f>
+        <f t="shared" si="17"/>
         <v>0.16</v>
       </c>
       <c r="V70" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="W70" s="37">
@@ -6585,14 +6687,14 @@
         <v>1.2</v>
       </c>
       <c r="Y70" s="4">
-        <f>(I70-V70-W70-X70-U70)</f>
+        <f t="shared" si="18"/>
         <v>2.54</v>
       </c>
       <c r="Z70" s="5">
-        <f>(Y70/V70)</f>
+        <f t="shared" si="19"/>
         <v>1.27</v>
       </c>
-      <c r="AA70" s="63"/>
+      <c r="AA70" s="73"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A71" s="30" t="s">
@@ -6643,7 +6745,7 @@
       <c r="P71" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q71" s="62"/>
+      <c r="Q71" s="72"/>
       <c r="R71" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6655,11 +6757,11 @@
         <v>0.08</v>
       </c>
       <c r="U71" s="38">
-        <f>V71*T71</f>
+        <f t="shared" si="17"/>
         <v>0.32</v>
       </c>
       <c r="V71" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="W71" s="37">
@@ -6669,14 +6771,14 @@
         <v>1.2</v>
       </c>
       <c r="Y71" s="4">
-        <f>(I71-V71-W71-X71-U71)</f>
+        <f t="shared" si="18"/>
         <v>2.48</v>
       </c>
       <c r="Z71" s="5">
-        <f>(Y71/V71)</f>
+        <f t="shared" si="19"/>
         <v>0.62</v>
       </c>
-      <c r="AA71" s="63"/>
+      <c r="AA71" s="73"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
@@ -6727,9 +6829,9 @@
       <c r="P72" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q72" s="62"/>
+      <c r="Q72" s="72"/>
       <c r="R72" s="37">
-        <f t="shared" ref="R72:R104" si="3">I72/H72</f>
+        <f t="shared" ref="R72:R104" si="21">I72/H72</f>
         <v>56</v>
       </c>
       <c r="S72" s="15">
@@ -6739,11 +6841,11 @@
         <v>0.08</v>
       </c>
       <c r="U72" s="38">
-        <f>V72*T72</f>
+        <f t="shared" si="17"/>
         <v>1.44</v>
       </c>
       <c r="V72" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="W72" s="37">
@@ -6753,14 +6855,14 @@
         <v>1.2</v>
       </c>
       <c r="Y72" s="4">
-        <f>(I72-V72-W72-X72-U72)</f>
+        <f t="shared" si="18"/>
         <v>31.359999999999996</v>
       </c>
       <c r="Z72" s="5">
-        <f>(Y72/V72)</f>
+        <f t="shared" si="19"/>
         <v>1.7422222222222219</v>
       </c>
-      <c r="AA72" s="63"/>
+      <c r="AA72" s="73"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A73" s="30" t="s">
@@ -6811,9 +6913,9 @@
       <c r="P73" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q73" s="62"/>
+      <c r="Q73" s="72"/>
       <c r="R73" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="S73" s="15">
@@ -6823,11 +6925,11 @@
         <v>0.08</v>
       </c>
       <c r="U73" s="38">
-        <f>V73*T73</f>
+        <f t="shared" si="17"/>
         <v>1.44</v>
       </c>
       <c r="V73" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="W73" s="37">
@@ -6837,14 +6939,14 @@
         <v>1.2</v>
       </c>
       <c r="Y73" s="4">
-        <f>(I73-V73-W73-X73-U73)</f>
+        <f t="shared" si="18"/>
         <v>34.36</v>
       </c>
       <c r="Z73" s="5">
-        <f>(Y73/V73)</f>
+        <f t="shared" si="19"/>
         <v>1.9088888888888889</v>
       </c>
-      <c r="AA73" s="63"/>
+      <c r="AA73" s="73"/>
     </row>
     <row r="74" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I74" s="19"/>
@@ -6903,11 +7005,11 @@
       <c r="P75" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="Q75" s="62">
+      <c r="Q75" s="72">
         <v>20170308</v>
       </c>
       <c r="R75" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="S75" s="15">
@@ -6921,7 +7023,7 @@
         <v>0.75</v>
       </c>
       <c r="V75" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="W75" s="38">
@@ -6938,7 +7040,7 @@
         <f>(Y75/V75)</f>
         <v>1.2033333333333334</v>
       </c>
-      <c r="AA75" s="63">
+      <c r="AA75" s="73">
         <f>SUM(Y75:Y84)</f>
         <v>639.245</v>
       </c>
@@ -6992,9 +7094,9 @@
       <c r="P76" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="Q76" s="62"/>
+      <c r="Q76" s="72"/>
       <c r="R76" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>79</v>
       </c>
       <c r="T76" s="46"/>
@@ -7004,7 +7106,7 @@
       <c r="X76" s="38"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="64"/>
+      <c r="AA76" s="74"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A77" s="30" t="s">
@@ -7055,9 +7157,9 @@
       <c r="P77" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="Q77" s="62"/>
+      <c r="Q77" s="72"/>
       <c r="R77" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>138</v>
       </c>
       <c r="S77" s="15">
@@ -7067,11 +7169,11 @@
         <v>0.08</v>
       </c>
       <c r="U77" s="38">
-        <f>V77*T77</f>
+        <f t="shared" ref="U77:U84" si="22">V77*T77</f>
         <v>3.2</v>
       </c>
       <c r="V77" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="W77" s="38">
@@ -7081,14 +7183,14 @@
         <v>1.2</v>
       </c>
       <c r="Y77" s="4">
-        <f>(I77-V77-W77-X77-U77)</f>
+        <f t="shared" ref="Y77:Y84" si="23">(I77-V77-W77-X77-U77)</f>
         <v>89.6</v>
       </c>
       <c r="Z77" s="5">
-        <f>(Y77/V77)</f>
+        <f t="shared" ref="Z77:Z84" si="24">(Y77/V77)</f>
         <v>2.2399999999999998</v>
       </c>
-      <c r="AA77" s="64"/>
+      <c r="AA77" s="74"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
@@ -7139,9 +7241,9 @@
       <c r="P78" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q78" s="62"/>
+      <c r="Q78" s="72"/>
       <c r="R78" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="S78" s="15">
@@ -7151,11 +7253,11 @@
         <v>0.05</v>
       </c>
       <c r="U78" s="38">
-        <f>V78*T78</f>
+        <f t="shared" si="22"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="V78" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="W78" s="38">
@@ -7165,14 +7267,14 @@
         <v>1.2</v>
       </c>
       <c r="Y78" s="4">
-        <f>(I78-V78-W78-X78-U78)</f>
+        <f t="shared" si="23"/>
         <v>23.615000000000002</v>
       </c>
       <c r="Z78" s="5">
-        <f>(Y78/V78)</f>
+        <f t="shared" si="24"/>
         <v>2.434536082474227</v>
       </c>
-      <c r="AA78" s="64"/>
+      <c r="AA78" s="74"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A79" s="30" t="s">
@@ -7223,9 +7325,9 @@
       <c r="P79" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q79" s="62"/>
+      <c r="Q79" s="72"/>
       <c r="R79" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="S79" s="15">
@@ -7235,11 +7337,11 @@
         <v>0.05</v>
       </c>
       <c r="U79" s="38">
-        <f>V79*T79</f>
+        <f t="shared" si="22"/>
         <v>2.6500000000000004</v>
       </c>
       <c r="V79" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
       <c r="W79" s="38">
@@ -7249,14 +7351,14 @@
         <v>1.2</v>
       </c>
       <c r="Y79" s="4">
-        <f>(I79-V79-W79-X79-U79)</f>
+        <f t="shared" si="23"/>
         <v>9.15</v>
       </c>
       <c r="Z79" s="5">
-        <f>(Y79/V79)</f>
+        <f t="shared" si="24"/>
         <v>0.17264150943396228</v>
       </c>
-      <c r="AA79" s="64"/>
+      <c r="AA79" s="74"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A80" s="30" t="s">
@@ -7307,9 +7409,9 @@
       <c r="P80" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q80" s="62"/>
+      <c r="Q80" s="72"/>
       <c r="R80" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
       <c r="S80" s="15">
@@ -7319,11 +7421,11 @@
         <v>0.05</v>
       </c>
       <c r="U80" s="38">
-        <f>V80*T80</f>
+        <f t="shared" si="22"/>
         <v>1.35</v>
       </c>
       <c r="V80" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="W80" s="38">
@@ -7333,14 +7435,14 @@
         <v>1.2</v>
       </c>
       <c r="Y80" s="4">
-        <f>(I80-V80-W80-X80-U80)</f>
+        <f t="shared" si="23"/>
         <v>21.45</v>
       </c>
       <c r="Z80" s="5">
-        <f>(Y80/V80)</f>
+        <f t="shared" si="24"/>
         <v>0.7944444444444444</v>
       </c>
-      <c r="AA80" s="64"/>
+      <c r="AA80" s="74"/>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A81" s="30" t="s">
@@ -7391,9 +7493,9 @@
       <c r="P81" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q81" s="62"/>
+      <c r="Q81" s="72"/>
       <c r="R81" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>328</v>
       </c>
       <c r="S81" s="15">
@@ -7403,11 +7505,11 @@
         <v>0.08</v>
       </c>
       <c r="U81" s="38">
-        <f>V81*T81</f>
+        <f t="shared" si="22"/>
         <v>8.16</v>
       </c>
       <c r="V81" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>102</v>
       </c>
       <c r="W81" s="38">
@@ -7417,14 +7519,14 @@
         <v>1.2</v>
       </c>
       <c r="Y81" s="4">
-        <f>(I81-V81-W81-X81-U81)</f>
+        <f t="shared" si="23"/>
         <v>212.64000000000001</v>
       </c>
       <c r="Z81" s="5">
-        <f>(Y81/V81)</f>
+        <f t="shared" si="24"/>
         <v>2.0847058823529414</v>
       </c>
-      <c r="AA81" s="64"/>
+      <c r="AA81" s="74"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A82" s="30" t="s">
@@ -7475,9 +7577,9 @@
       <c r="P82" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q82" s="62"/>
+      <c r="Q82" s="72"/>
       <c r="R82" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>208</v>
       </c>
       <c r="S82" s="15">
@@ -7487,11 +7589,11 @@
         <v>0.08</v>
       </c>
       <c r="U82" s="38">
-        <f>V82*T82</f>
+        <f t="shared" si="22"/>
         <v>4.88</v>
       </c>
       <c r="V82" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
       <c r="W82" s="38">
@@ -7501,14 +7603,14 @@
         <v>1.2</v>
       </c>
       <c r="Y82" s="4">
-        <f>(I82-V82-W82-X82-U82)</f>
+        <f t="shared" si="23"/>
         <v>136.92000000000002</v>
       </c>
       <c r="Z82" s="5">
-        <f>(Y82/V82)</f>
+        <f t="shared" si="24"/>
         <v>2.2445901639344266</v>
       </c>
-      <c r="AA82" s="64"/>
+      <c r="AA82" s="74"/>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A83" s="30" t="s">
@@ -7559,9 +7661,9 @@
       <c r="P83" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="Q83" s="62"/>
+      <c r="Q83" s="72"/>
       <c r="R83" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>29.9</v>
       </c>
       <c r="S83" s="15">
@@ -7571,11 +7673,11 @@
         <v>0.08</v>
       </c>
       <c r="U83" s="38">
-        <f>V83*T83</f>
+        <f t="shared" si="22"/>
         <v>0.96</v>
       </c>
       <c r="V83" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="W83" s="38">
@@ -7585,14 +7687,14 @@
         <v>1.2</v>
       </c>
       <c r="Y83" s="4">
-        <f>(I83-V83-W83-X83-U83)</f>
+        <f t="shared" si="23"/>
         <v>11.739999999999998</v>
       </c>
       <c r="Z83" s="5">
-        <f>(Y83/V83)</f>
+        <f t="shared" si="24"/>
         <v>0.97833333333333317</v>
       </c>
-      <c r="AA83" s="64"/>
+      <c r="AA83" s="74"/>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A84" s="30" t="s">
@@ -7643,9 +7745,9 @@
       <c r="P84" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q84" s="62"/>
+      <c r="Q84" s="72"/>
       <c r="R84" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>249</v>
       </c>
       <c r="S84" s="15">
@@ -7655,11 +7757,11 @@
         <v>0.03</v>
       </c>
       <c r="U84" s="38">
-        <f>V84*T84</f>
+        <f t="shared" si="22"/>
         <v>3.7199999999999998</v>
       </c>
       <c r="V84" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>124</v>
       </c>
       <c r="W84" s="38">
@@ -7669,14 +7771,14 @@
         <v>1.2</v>
       </c>
       <c r="Y84" s="4">
-        <f>(I84-V84-W84-X84-U84)</f>
+        <f t="shared" si="23"/>
         <v>116.08</v>
       </c>
       <c r="Z84" s="5">
-        <f>(Y84/V84)</f>
+        <f t="shared" si="24"/>
         <v>0.93612903225806454</v>
       </c>
-      <c r="AA84" s="64"/>
+      <c r="AA84" s="74"/>
     </row>
     <row r="85" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I85" s="19"/>
@@ -7735,11 +7837,11 @@
       <c r="P86" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q86" s="62">
+      <c r="Q86" s="72">
         <v>20170309</v>
       </c>
       <c r="R86" s="50">
-        <f t="shared" ref="R86:R97" si="4">I86/H86</f>
+        <f t="shared" ref="R86:R97" si="25">I86/H86</f>
         <v>25</v>
       </c>
       <c r="S86" s="50">
@@ -7753,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="V86" s="50">
-        <f t="shared" ref="V86:V97" si="5">H86*S86</f>
+        <f t="shared" ref="V86:V97" si="26">H86*S86</f>
         <v>38.799999999999997</v>
       </c>
       <c r="W86" s="50">
@@ -7770,7 +7872,7 @@
         <f>(Y86/V86)</f>
         <v>1.3144329896907216</v>
       </c>
-      <c r="AA86" s="63">
+      <c r="AA86" s="73">
         <f>SUM(Y86:Y97)</f>
         <v>2576.7500000000009</v>
       </c>
@@ -7824,9 +7926,9 @@
       <c r="P87" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q87" s="62"/>
+      <c r="Q87" s="72"/>
       <c r="R87" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S87" s="50">
@@ -7840,7 +7942,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="V87" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="W87" s="50">
@@ -7857,7 +7959,7 @@
         <f>(Y87/V87)</f>
         <v>1.8949999999999998</v>
       </c>
-      <c r="AA87" s="64"/>
+      <c r="AA87" s="74"/>
     </row>
     <row r="88" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="30" t="s">
@@ -7908,9 +8010,9 @@
       <c r="P88" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="Q88" s="62"/>
+      <c r="Q88" s="72"/>
       <c r="R88" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>1200</v>
       </c>
       <c r="S88" s="50">
@@ -7924,7 +8026,7 @@
         <v>108</v>
       </c>
       <c r="V88" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="W88" s="50">
@@ -7941,7 +8043,7 @@
         <f>(Y88/V88)</f>
         <v>1.9056666666666668</v>
       </c>
-      <c r="AA88" s="64"/>
+      <c r="AA88" s="74"/>
     </row>
     <row r="89" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
@@ -7992,9 +8094,9 @@
       <c r="P89" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q89" s="62"/>
+      <c r="Q89" s="72"/>
       <c r="R89" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>15.9</v>
       </c>
       <c r="S89" s="50">
@@ -8008,7 +8110,7 @@
         <v>1.59</v>
       </c>
       <c r="V89" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>19.399999999999999</v>
       </c>
       <c r="W89" s="50">
@@ -8025,7 +8127,7 @@
         <f>(Y89/V89)</f>
         <v>0.2891752577319589</v>
       </c>
-      <c r="AA89" s="64"/>
+      <c r="AA89" s="74"/>
     </row>
     <row r="90" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="30" t="s">
@@ -8076,11 +8178,11 @@
       <c r="P90" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q90" s="62"/>
+      <c r="Q90" s="72"/>
       <c r="T90" s="46"/>
       <c r="Y90" s="49"/>
       <c r="Z90" s="5"/>
-      <c r="AA90" s="64"/>
+      <c r="AA90" s="74"/>
     </row>
     <row r="91" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
@@ -8131,9 +8233,9 @@
       <c r="P91" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="62"/>
+      <c r="Q91" s="72"/>
       <c r="R91" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>70</v>
       </c>
       <c r="S91" s="50">
@@ -8143,11 +8245,11 @@
         <v>0.05</v>
       </c>
       <c r="U91" s="50">
-        <f>I91*T91</f>
+        <f t="shared" ref="U91:U97" si="27">I91*T91</f>
         <v>7</v>
       </c>
       <c r="V91" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>106</v>
       </c>
       <c r="W91" s="50">
@@ -8157,14 +8259,14 @@
         <v>1.2</v>
       </c>
       <c r="Y91" s="49">
-        <f>(I91-V91-W91-X91-U91)</f>
+        <f t="shared" ref="Y91:Y97" si="28">(I91-V91-W91-X91-U91)</f>
         <v>21.8</v>
       </c>
       <c r="Z91" s="5">
-        <f>(Y91/V91)</f>
+        <f t="shared" ref="Z91:Z97" si="29">(Y91/V91)</f>
         <v>0.20566037735849058</v>
       </c>
-      <c r="AA91" s="64"/>
+      <c r="AA91" s="74"/>
     </row>
     <row r="92" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="30" t="s">
@@ -8215,9 +8317,9 @@
       <c r="P92" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q92" s="62"/>
+      <c r="Q92" s="72"/>
       <c r="R92" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="S92" s="50">
@@ -8227,11 +8329,11 @@
         <v>0.08</v>
       </c>
       <c r="U92" s="50">
-        <f>I92*T92</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="V92" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
       <c r="W92" s="50">
@@ -8241,14 +8343,14 @@
         <v>1.2</v>
       </c>
       <c r="Y92" s="49">
-        <f>(I92-V92-W92-X92-U92)</f>
+        <f t="shared" si="28"/>
         <v>50.8</v>
       </c>
       <c r="Z92" s="5">
-        <f>(Y92/V92)</f>
+        <f t="shared" si="29"/>
         <v>1.411111111111111</v>
       </c>
-      <c r="AA92" s="64"/>
+      <c r="AA92" s="74"/>
     </row>
     <row r="93" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="30" t="s">
@@ -8299,9 +8401,9 @@
       <c r="P93" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q93" s="62"/>
+      <c r="Q93" s="72"/>
       <c r="R93" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="S93" s="50">
@@ -8311,11 +8413,11 @@
         <v>0.08</v>
       </c>
       <c r="U93" s="50">
-        <f>I93*T93</f>
+        <f t="shared" si="27"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="V93" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="W93" s="50">
@@ -8325,14 +8427,14 @@
         <v>1.2</v>
       </c>
       <c r="Y93" s="49">
-        <f>(I93-V93-W93-X93-U93)</f>
+        <f t="shared" si="28"/>
         <v>10.56</v>
       </c>
       <c r="Z93" s="5">
-        <f>(Y93/V93)</f>
+        <f t="shared" si="29"/>
         <v>1.056</v>
       </c>
-      <c r="AA93" s="64"/>
+      <c r="AA93" s="74"/>
     </row>
     <row r="94" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="30" t="s">
@@ -8383,9 +8485,9 @@
       <c r="P94" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q94" s="62"/>
+      <c r="Q94" s="72"/>
       <c r="R94" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="S94" s="50">
@@ -8395,11 +8497,11 @@
         <v>0.08</v>
       </c>
       <c r="U94" s="50">
-        <f>I94*T94</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="V94" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="W94" s="50">
@@ -8409,14 +8511,14 @@
         <v>1.2</v>
       </c>
       <c r="Y94" s="49">
-        <f>(I94-V94-W94-X94-U94)</f>
+        <f t="shared" si="28"/>
         <v>-1.2</v>
       </c>
       <c r="Z94" s="5">
-        <f>(Y94/V94)</f>
+        <f t="shared" si="29"/>
         <v>-6.3157894736842107E-2</v>
       </c>
-      <c r="AA94" s="64"/>
+      <c r="AA94" s="74"/>
     </row>
     <row r="95" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="30" t="s">
@@ -8467,9 +8569,9 @@
       <c r="P95" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q95" s="62"/>
+      <c r="Q95" s="72"/>
       <c r="R95" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="S95" s="50">
@@ -8479,11 +8581,11 @@
         <v>0.08</v>
       </c>
       <c r="U95" s="50">
-        <f>I95*T95</f>
+        <f t="shared" si="27"/>
         <v>1.04</v>
       </c>
       <c r="V95" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="W95" s="50">
@@ -8493,14 +8595,14 @@
         <v>1.2</v>
       </c>
       <c r="Y95" s="49">
-        <f>(I95-V95-W95-X95-U95)</f>
+        <f t="shared" si="28"/>
         <v>2.76</v>
       </c>
       <c r="Z95" s="5">
-        <f>(Y95/V95)</f>
+        <f t="shared" si="29"/>
         <v>0.69</v>
       </c>
-      <c r="AA95" s="64"/>
+      <c r="AA95" s="74"/>
     </row>
     <row r="96" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
@@ -8551,9 +8653,9 @@
       <c r="P96" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q96" s="62"/>
+      <c r="Q96" s="72"/>
       <c r="R96" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="S96" s="50">
@@ -8563,11 +8665,11 @@
         <v>0.08</v>
       </c>
       <c r="U96" s="50">
-        <f>I96*T96</f>
+        <f t="shared" si="27"/>
         <v>1.76</v>
       </c>
       <c r="V96" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>3.5</v>
       </c>
       <c r="W96" s="50">
@@ -8577,14 +8679,14 @@
         <v>1.2</v>
       </c>
       <c r="Y96" s="49">
-        <f>(I96-V96-W96-X96-U96)</f>
+        <f t="shared" si="28"/>
         <v>11.540000000000001</v>
       </c>
       <c r="Z96" s="5">
-        <f>(Y96/V96)</f>
+        <f t="shared" si="29"/>
         <v>3.2971428571428576</v>
       </c>
-      <c r="AA96" s="64"/>
+      <c r="AA96" s="74"/>
     </row>
     <row r="97" spans="1:27" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30" t="s">
@@ -8635,9 +8737,9 @@
       <c r="P97" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q97" s="62"/>
+      <c r="Q97" s="72"/>
       <c r="R97" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>188</v>
       </c>
       <c r="S97" s="50">
@@ -8647,11 +8749,11 @@
         <v>0.08</v>
       </c>
       <c r="U97" s="50">
-        <f>I97*T97</f>
+        <f t="shared" si="27"/>
         <v>15.040000000000001</v>
       </c>
       <c r="V97" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
       <c r="W97" s="50">
@@ -8661,14 +8763,14 @@
         <v>1.2</v>
       </c>
       <c r="Y97" s="49">
-        <f>(I97-V97-W97-X97-U97)</f>
+        <f t="shared" si="28"/>
         <v>106.75999999999999</v>
       </c>
       <c r="Z97" s="5">
-        <f>(Y97/V97)</f>
+        <f t="shared" si="29"/>
         <v>1.7501639344262294</v>
       </c>
-      <c r="AA97" s="64"/>
+      <c r="AA97" s="74"/>
     </row>
     <row r="98" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I98" s="19"/>
@@ -8727,11 +8829,11 @@
       <c r="P99" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q99" s="62">
+      <c r="Q99" s="72">
         <v>20170310</v>
       </c>
       <c r="R99" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>79</v>
       </c>
       <c r="T99" s="46"/>
@@ -8740,7 +8842,7 @@
       <c r="W99" s="39"/>
       <c r="X99" s="39"/>
       <c r="Y99" s="48"/>
-      <c r="AA99" s="63">
+      <c r="AA99" s="73">
         <f>SUM(Y100:Y104)</f>
         <v>193.65000000000003</v>
       </c>
@@ -8794,9 +8896,9 @@
       <c r="P100" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q100" s="62"/>
+      <c r="Q100" s="72"/>
       <c r="R100" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="S100" s="15">
@@ -8810,7 +8912,7 @@
         <v>2.6500000000000004</v>
       </c>
       <c r="V100" s="39">
-        <f t="shared" ref="V100:V104" si="6">H100*S100</f>
+        <f t="shared" ref="V100:V104" si="30">H100*S100</f>
         <v>53</v>
       </c>
       <c r="W100" s="39">
@@ -8827,7 +8929,7 @@
         <f>(Y100/V100)</f>
         <v>0.17264150943396228</v>
       </c>
-      <c r="AA100" s="64"/>
+      <c r="AA100" s="74"/>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A101" s="30" t="s">
@@ -8878,9 +8980,9 @@
       <c r="P101" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q101" s="62"/>
+      <c r="Q101" s="72"/>
       <c r="R101" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="S101" s="15">
@@ -8894,7 +8996,7 @@
         <v>0.5</v>
       </c>
       <c r="V101" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="W101" s="39">
@@ -8911,7 +9013,7 @@
         <f>(Y101/V101)</f>
         <v>2.0300000000000002</v>
       </c>
-      <c r="AA101" s="64"/>
+      <c r="AA101" s="74"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A102" s="30" t="s">
@@ -8962,9 +9064,9 @@
       <c r="P102" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q102" s="62"/>
+      <c r="Q102" s="72"/>
       <c r="R102" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="S102" s="15">
@@ -8978,7 +9080,7 @@
         <v>1.36</v>
       </c>
       <c r="V102" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="W102" s="39">
@@ -8995,7 +9097,7 @@
         <f>(Y102/V102)</f>
         <v>0.90823529411764714</v>
       </c>
-      <c r="AA102" s="64"/>
+      <c r="AA102" s="74"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
@@ -9046,9 +9148,9 @@
       <c r="P103" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q103" s="62"/>
+      <c r="Q103" s="72"/>
       <c r="R103" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="S103" s="15">
@@ -9062,7 +9164,7 @@
         <v>0.96</v>
       </c>
       <c r="V103" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="W103" s="39">
@@ -9079,7 +9181,7 @@
         <f>(Y103/V103)</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="AA103" s="64"/>
+      <c r="AA103" s="74"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A104" s="30" t="s">
@@ -9130,9 +9232,9 @@
       <c r="P104" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q104" s="62"/>
+      <c r="Q104" s="72"/>
       <c r="R104" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>208</v>
       </c>
       <c r="S104" s="15">
@@ -9146,7 +9248,7 @@
         <v>4.88</v>
       </c>
       <c r="V104" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>61</v>
       </c>
       <c r="W104" s="39">
@@ -9163,7 +9265,7 @@
         <f>(Y104/V104)</f>
         <v>2.2445901639344266</v>
       </c>
-      <c r="AA104" s="64"/>
+      <c r="AA104" s="74"/>
     </row>
     <row r="105" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I105" s="54"/>
@@ -9222,11 +9324,11 @@
       <c r="P106" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q106" s="62">
+      <c r="Q106" s="72">
         <v>20170311</v>
       </c>
       <c r="R106" s="50">
-        <f t="shared" ref="R106:R114" si="7">I106/H106</f>
+        <f t="shared" ref="R106:R114" si="31">I106/H106</f>
         <v>12.9</v>
       </c>
       <c r="S106" s="50">
@@ -9240,7 +9342,7 @@
         <v>1.875</v>
       </c>
       <c r="V106" s="50">
-        <f t="shared" ref="V106:V114" si="8">H106*S106</f>
+        <f t="shared" ref="V106:V114" si="32">H106*S106</f>
         <v>37.5</v>
       </c>
       <c r="W106" s="50">
@@ -9257,7 +9359,7 @@
         <f>(Y106/V106)</f>
         <v>0.53133333333333332</v>
       </c>
-      <c r="AA106" s="63">
+      <c r="AA106" s="73">
         <f>SUM(Y106:Y114)</f>
         <v>389.14000000000004</v>
       </c>
@@ -9311,9 +9413,9 @@
       <c r="P107" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q107" s="62"/>
+      <c r="Q107" s="72"/>
       <c r="R107" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>79</v>
       </c>
       <c r="S107" s="50"/>
@@ -9323,7 +9425,7 @@
       <c r="W107" s="50"/>
       <c r="X107" s="50"/>
       <c r="Y107" s="49"/>
-      <c r="AA107" s="64"/>
+      <c r="AA107" s="74"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A108" s="30" t="s">
@@ -9374,9 +9476,9 @@
       <c r="P108" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q108" s="62"/>
+      <c r="Q108" s="72"/>
       <c r="R108" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
       <c r="S108" s="50">
@@ -9386,11 +9488,11 @@
         <v>0.05</v>
       </c>
       <c r="U108" s="50">
-        <f>V108*T108</f>
+        <f t="shared" ref="U108:U114" si="33">V108*T108</f>
         <v>0.98000000000000009</v>
       </c>
       <c r="V108" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>19.600000000000001</v>
       </c>
       <c r="W108" s="50">
@@ -9400,14 +9502,14 @@
         <v>1.2</v>
       </c>
       <c r="Y108" s="49">
-        <f>(I108-V108-W108-X108-U108)</f>
+        <f t="shared" ref="Y108:Y114" si="34">(I108-V108-W108-X108-U108)</f>
         <v>52.22</v>
       </c>
       <c r="Z108" s="5">
-        <f>(Y108/V108)</f>
+        <f t="shared" ref="Z108:Z114" si="35">(Y108/V108)</f>
         <v>2.6642857142857141</v>
       </c>
-      <c r="AA108" s="64"/>
+      <c r="AA108" s="74"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A109" s="30" t="s">
@@ -9458,9 +9560,9 @@
       <c r="P109" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q109" s="62"/>
+      <c r="Q109" s="72"/>
       <c r="R109" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>70</v>
       </c>
       <c r="S109" s="50">
@@ -9470,11 +9572,11 @@
         <v>0.05</v>
       </c>
       <c r="U109" s="50">
-        <f>V109*T109</f>
+        <f t="shared" si="33"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="V109" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>106</v>
       </c>
       <c r="W109" s="50">
@@ -9484,14 +9586,14 @@
         <v>1.2</v>
       </c>
       <c r="Y109" s="49">
-        <f>(I109-V109-W109-X109-U109)</f>
+        <f t="shared" si="34"/>
         <v>23.5</v>
       </c>
       <c r="Z109" s="5">
-        <f>(Y109/V109)</f>
+        <f t="shared" si="35"/>
         <v>0.22169811320754718</v>
       </c>
-      <c r="AA109" s="64"/>
+      <c r="AA109" s="74"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A110" s="30" t="s">
@@ -9542,9 +9644,9 @@
       <c r="P110" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q110" s="62"/>
+      <c r="Q110" s="72"/>
       <c r="R110" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>18.899999999999999</v>
       </c>
       <c r="S110" s="50">
@@ -9554,11 +9656,11 @@
         <v>0.05</v>
       </c>
       <c r="U110" s="50">
-        <f>V110*T110</f>
+        <f t="shared" si="33"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="V110" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="W110" s="50">
@@ -9568,14 +9670,14 @@
         <v>1.2</v>
       </c>
       <c r="Y110" s="49">
-        <f>(I110-V110-W110-X110-U110)</f>
+        <f t="shared" si="34"/>
         <v>3.5149999999999992</v>
       </c>
       <c r="Z110" s="5">
-        <f>(Y110/V110)</f>
+        <f t="shared" si="35"/>
         <v>0.36237113402061849</v>
       </c>
-      <c r="AA110" s="64"/>
+      <c r="AA110" s="74"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A111" s="30" t="s">
@@ -9626,9 +9728,9 @@
       <c r="P111" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q111" s="62"/>
+      <c r="Q111" s="72"/>
       <c r="R111" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="S111" s="50">
@@ -9638,11 +9740,11 @@
         <v>0.08</v>
       </c>
       <c r="U111" s="50">
-        <f>V111*T111</f>
+        <f t="shared" si="33"/>
         <v>0.96</v>
       </c>
       <c r="V111" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="W111" s="50">
@@ -9652,14 +9754,14 @@
         <v>1.2</v>
       </c>
       <c r="Y111" s="49">
-        <f>(I111-V111-W111-X111-U111)</f>
+        <f t="shared" si="34"/>
         <v>11.84</v>
       </c>
       <c r="Z111" s="5">
-        <f>(Y111/V111)</f>
+        <f t="shared" si="35"/>
         <v>0.98666666666666669</v>
       </c>
-      <c r="AA111" s="64"/>
+      <c r="AA111" s="74"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A112" s="30" t="s">
@@ -9710,9 +9812,9 @@
       <c r="P112" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q112" s="62"/>
+      <c r="Q112" s="72"/>
       <c r="R112" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="S112" s="50">
@@ -9722,11 +9824,11 @@
         <v>0.08</v>
       </c>
       <c r="U112" s="50">
-        <f>V112*T112</f>
+        <f t="shared" si="33"/>
         <v>0.32</v>
       </c>
       <c r="V112" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="W112" s="50">
@@ -9736,14 +9838,14 @@
         <v>1.2</v>
       </c>
       <c r="Y112" s="49">
-        <f>(I112-V112-W112-X112-U112)</f>
+        <f t="shared" si="34"/>
         <v>2.48</v>
       </c>
       <c r="Z112" s="5">
-        <f>(Y112/V112)</f>
+        <f t="shared" si="35"/>
         <v>0.62</v>
       </c>
-      <c r="AA112" s="64"/>
+      <c r="AA112" s="74"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A113" s="30" t="s">
@@ -9794,9 +9896,9 @@
       <c r="P113" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q113" s="62"/>
+      <c r="Q113" s="72"/>
       <c r="R113" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>208</v>
       </c>
       <c r="S113" s="50">
@@ -9806,11 +9908,11 @@
         <v>0.08</v>
       </c>
       <c r="U113" s="50">
-        <f>V113*T113</f>
+        <f t="shared" si="33"/>
         <v>4.88</v>
       </c>
       <c r="V113" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>61</v>
       </c>
       <c r="W113" s="50">
@@ -9820,14 +9922,14 @@
         <v>1.2</v>
       </c>
       <c r="Y113" s="49">
-        <f>(I113-V113-W113-X113-U113)</f>
+        <f t="shared" si="34"/>
         <v>136.92000000000002</v>
       </c>
       <c r="Z113" s="5">
-        <f>(Y113/V113)</f>
+        <f t="shared" si="35"/>
         <v>2.2445901639344266</v>
       </c>
-      <c r="AA113" s="64"/>
+      <c r="AA113" s="74"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A114" s="30" t="s">
@@ -9878,9 +9980,9 @@
       <c r="P114" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q114" s="62"/>
+      <c r="Q114" s="72"/>
       <c r="R114" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>249</v>
       </c>
       <c r="S114" s="50">
@@ -9890,11 +9992,11 @@
         <v>0.03</v>
       </c>
       <c r="U114" s="50">
-        <f>V114*T114</f>
+        <f t="shared" si="33"/>
         <v>3.06</v>
       </c>
       <c r="V114" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="W114" s="50">
@@ -9904,14 +10006,14 @@
         <v>1.2</v>
       </c>
       <c r="Y114" s="49">
-        <f>(I114-V114-W114-X114-U114)</f>
+        <f t="shared" si="34"/>
         <v>138.74</v>
       </c>
       <c r="Z114" s="5">
-        <f>(Y114/V114)</f>
+        <f t="shared" si="35"/>
         <v>1.3601960784313727</v>
       </c>
-      <c r="AA114" s="64"/>
+      <c r="AA114" s="74"/>
     </row>
     <row r="115" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I115" s="54"/>
@@ -9976,11 +10078,11 @@
       <c r="P116" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q116" s="62">
+      <c r="Q116" s="72">
         <v>20170312</v>
       </c>
       <c r="R116" s="50">
-        <f t="shared" ref="R116:R129" si="9">I116/H116</f>
+        <f t="shared" ref="R116:R129" si="36">I116/H116</f>
         <v>39</v>
       </c>
       <c r="S116" s="50">
@@ -9990,11 +10092,11 @@
         <v>0.05</v>
       </c>
       <c r="U116" s="50">
-        <f>V116*T116</f>
+        <f t="shared" ref="U116:U129" si="37">V116*T116</f>
         <v>1.4700000000000002</v>
       </c>
       <c r="V116" s="50">
-        <f t="shared" ref="V116:V129" si="10">H116*S116</f>
+        <f t="shared" ref="V116:V129" si="38">H116*S116</f>
         <v>29.400000000000002</v>
       </c>
       <c r="W116" s="50">
@@ -10004,14 +10106,14 @@
         <v>1.2</v>
       </c>
       <c r="Y116" s="49">
-        <f>(I116-V116-W116-X116-U116)</f>
+        <f t="shared" ref="Y116:Y129" si="39">(I116-V116-W116-X116-U116)</f>
         <v>80.929999999999993</v>
       </c>
       <c r="Z116" s="5">
-        <f>(Y116/V116)</f>
+        <f t="shared" ref="Z116:Z129" si="40">(Y116/V116)</f>
         <v>2.7527210884353739</v>
       </c>
-      <c r="AA116" s="63">
+      <c r="AA116" s="73">
         <f>SUM(Y116:Y129)</f>
         <v>501.40000000000003</v>
       </c>
@@ -10065,9 +10167,9 @@
       <c r="P117" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q117" s="62"/>
+      <c r="Q117" s="72"/>
       <c r="R117" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>28</v>
       </c>
       <c r="S117" s="50">
@@ -10077,11 +10179,11 @@
         <v>0.08</v>
       </c>
       <c r="U117" s="50">
-        <f>V117*T117</f>
+        <f t="shared" si="37"/>
         <v>2.88</v>
       </c>
       <c r="V117" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>36</v>
       </c>
       <c r="W117" s="50">
@@ -10091,14 +10193,14 @@
         <v>1.2</v>
       </c>
       <c r="Y117" s="49">
-        <f>(I117-V117-W117-X117-U117)</f>
+        <f t="shared" si="39"/>
         <v>39.919999999999995</v>
       </c>
       <c r="Z117" s="5">
-        <f>(Y117/V117)</f>
+        <f t="shared" si="40"/>
         <v>1.1088888888888888</v>
       </c>
-      <c r="AA117" s="64"/>
+      <c r="AA117" s="74"/>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A118" s="30" t="s">
@@ -10149,9 +10251,9 @@
       <c r="P118" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q118" s="62"/>
+      <c r="Q118" s="72"/>
       <c r="R118" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="S118" s="50">
@@ -10161,11 +10263,11 @@
         <v>0.08</v>
       </c>
       <c r="U118" s="50">
-        <f>V118*T118</f>
+        <f t="shared" si="37"/>
         <v>0.64</v>
       </c>
       <c r="V118" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="W118" s="50">
@@ -10175,14 +10277,14 @@
         <v>1.2</v>
       </c>
       <c r="Y118" s="49">
-        <f>(I118-V118-W118-X118-U118)</f>
+        <f t="shared" si="39"/>
         <v>14.16</v>
       </c>
       <c r="Z118" s="5">
-        <f>(Y118/V118)</f>
+        <f t="shared" si="40"/>
         <v>1.77</v>
       </c>
-      <c r="AA118" s="64"/>
+      <c r="AA118" s="74"/>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A119" s="30" t="s">
@@ -10233,9 +10335,9 @@
       <c r="P119" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q119" s="62"/>
+      <c r="Q119" s="72"/>
       <c r="R119" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>35</v>
       </c>
       <c r="S119" s="50">
@@ -10245,11 +10347,11 @@
         <v>0.05</v>
       </c>
       <c r="U119" s="50">
-        <f>V119*T119</f>
+        <f t="shared" si="37"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="V119" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>46</v>
       </c>
       <c r="W119" s="50">
@@ -10259,14 +10361,14 @@
         <v>1.2</v>
       </c>
       <c r="Y119" s="49">
-        <f>(I119-V119-W119-X119-U119)</f>
+        <f t="shared" si="39"/>
         <v>16.5</v>
       </c>
       <c r="Z119" s="5">
-        <f>(Y119/V119)</f>
+        <f t="shared" si="40"/>
         <v>0.35869565217391303</v>
       </c>
-      <c r="AA119" s="64"/>
+      <c r="AA119" s="74"/>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A120" s="30" t="s">
@@ -10317,9 +10419,9 @@
       <c r="P120" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q120" s="62"/>
+      <c r="Q120" s="72"/>
       <c r="R120" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>15.9</v>
       </c>
       <c r="S120" s="50">
@@ -10329,11 +10431,11 @@
         <v>0.05</v>
       </c>
       <c r="U120" s="50">
-        <f>V120*T120</f>
+        <f t="shared" si="37"/>
         <v>0.97</v>
       </c>
       <c r="V120" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>19.399999999999999</v>
       </c>
       <c r="W120" s="50">
@@ -10343,14 +10445,14 @@
         <v>1.2</v>
       </c>
       <c r="Y120" s="49">
-        <f>(I120-V120-W120-X120-U120)</f>
+        <f t="shared" si="39"/>
         <v>6.2300000000000022</v>
       </c>
       <c r="Z120" s="5">
-        <f>(Y120/V120)</f>
+        <f t="shared" si="40"/>
         <v>0.32113402061855684</v>
       </c>
-      <c r="AA120" s="64"/>
+      <c r="AA120" s="74"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A121" s="30" t="s">
@@ -10401,9 +10503,9 @@
       <c r="P121" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q121" s="62"/>
+      <c r="Q121" s="72"/>
       <c r="R121" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>55</v>
       </c>
       <c r="S121" s="50">
@@ -10413,11 +10515,11 @@
         <v>0.05</v>
       </c>
       <c r="U121" s="50">
-        <f>V121*T121</f>
+        <f t="shared" si="37"/>
         <v>2.6500000000000004</v>
       </c>
       <c r="V121" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>53</v>
       </c>
       <c r="W121" s="50">
@@ -10427,14 +10529,14 @@
         <v>1.2</v>
       </c>
       <c r="Y121" s="49">
-        <f>(I121-V121-W121-X121-U121)</f>
+        <f t="shared" si="39"/>
         <v>49.15</v>
       </c>
       <c r="Z121" s="5">
-        <f>(Y121/V121)</f>
+        <f t="shared" si="40"/>
         <v>0.9273584905660377</v>
       </c>
-      <c r="AA121" s="64"/>
+      <c r="AA121" s="74"/>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A122" s="30" t="s">
@@ -10485,9 +10587,9 @@
       <c r="P122" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q122" s="62"/>
+      <c r="Q122" s="72"/>
       <c r="R122" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="S122" s="50">
@@ -10497,11 +10599,11 @@
         <v>0.08</v>
       </c>
       <c r="U122" s="50">
-        <f>V122*T122</f>
+        <f t="shared" si="37"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="V122" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>3.5</v>
       </c>
       <c r="W122" s="50">
@@ -10511,14 +10613,14 @@
         <v>1.2</v>
       </c>
       <c r="Y122" s="49">
-        <f>(I122-V122-W122-X122-U122)</f>
+        <f t="shared" si="39"/>
         <v>4.0199999999999996</v>
       </c>
       <c r="Z122" s="5">
-        <f>(Y122/V122)</f>
+        <f t="shared" si="40"/>
         <v>1.1485714285714284</v>
       </c>
-      <c r="AA122" s="64"/>
+      <c r="AA122" s="74"/>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A123" s="30" t="s">
@@ -10569,9 +10671,9 @@
       <c r="P123" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q123" s="62"/>
+      <c r="Q123" s="72"/>
       <c r="R123" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>39</v>
       </c>
       <c r="S123" s="50">
@@ -10581,11 +10683,11 @@
         <v>0.08</v>
       </c>
       <c r="U123" s="50">
-        <f>V123*T123</f>
+        <f t="shared" si="37"/>
         <v>1.36</v>
       </c>
       <c r="V123" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="W123" s="50">
@@ -10595,14 +10697,14 @@
         <v>1.2</v>
       </c>
       <c r="Y123" s="49">
-        <f>(I123-V123-W123-X123-U123)</f>
+        <f t="shared" si="39"/>
         <v>15.440000000000001</v>
       </c>
       <c r="Z123" s="5">
-        <f>(Y123/V123)</f>
+        <f t="shared" si="40"/>
         <v>0.90823529411764714</v>
       </c>
-      <c r="AA123" s="64"/>
+      <c r="AA123" s="74"/>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A124" s="30" t="s">
@@ -10653,9 +10755,9 @@
       <c r="P124" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="Q124" s="62"/>
+      <c r="Q124" s="72"/>
       <c r="R124" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>9.9</v>
       </c>
       <c r="S124" s="50">
@@ -10665,11 +10767,11 @@
         <v>0.08</v>
       </c>
       <c r="U124" s="50">
-        <f>V124*T124</f>
+        <f t="shared" si="37"/>
         <v>0.24</v>
       </c>
       <c r="V124" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="W124" s="50">
@@ -10679,14 +10781,14 @@
         <v>1.2</v>
       </c>
       <c r="Y124" s="49">
-        <f>(I124-V124-W124-X124-U124)</f>
+        <f t="shared" si="39"/>
         <v>1.4600000000000004</v>
       </c>
       <c r="Z124" s="5">
-        <f>(Y124/V124)</f>
+        <f t="shared" si="40"/>
         <v>0.4866666666666668</v>
       </c>
-      <c r="AA124" s="64"/>
+      <c r="AA124" s="74"/>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A125" s="30" t="s">
@@ -10737,9 +10839,9 @@
       <c r="P125" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q125" s="62"/>
+      <c r="Q125" s="72"/>
       <c r="R125" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>70</v>
       </c>
       <c r="S125" s="50">
@@ -10749,11 +10851,11 @@
         <v>0.05</v>
       </c>
       <c r="U125" s="50">
-        <f>V125*T125</f>
+        <f t="shared" si="37"/>
         <v>2.6500000000000004</v>
       </c>
       <c r="V125" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>53</v>
       </c>
       <c r="W125" s="50">
@@ -10763,14 +10865,14 @@
         <v>1.2</v>
       </c>
       <c r="Y125" s="49">
-        <f>(I125-V125-W125-X125-U125)</f>
+        <f t="shared" si="39"/>
         <v>9.15</v>
       </c>
       <c r="Z125" s="5">
-        <f>(Y125/V125)</f>
+        <f t="shared" si="40"/>
         <v>0.17264150943396228</v>
       </c>
-      <c r="AA125" s="64"/>
+      <c r="AA125" s="74"/>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A126" s="30" t="s">
@@ -10821,9 +10923,9 @@
       <c r="P126" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q126" s="62"/>
+      <c r="Q126" s="72"/>
       <c r="R126" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
       <c r="S126" s="50">
@@ -10833,11 +10935,11 @@
         <v>0.08</v>
       </c>
       <c r="U126" s="50">
-        <f>V126*T126</f>
+        <f t="shared" si="37"/>
         <v>1.44</v>
       </c>
       <c r="V126" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
       <c r="W126" s="50">
@@ -10847,14 +10949,14 @@
         <v>1.2</v>
       </c>
       <c r="Y126" s="49">
-        <f>(I126-V126-W126-X126-U126)</f>
+        <f t="shared" si="39"/>
         <v>7.3600000000000012</v>
       </c>
       <c r="Z126" s="5">
-        <f>(Y126/V126)</f>
+        <f t="shared" si="40"/>
         <v>0.40888888888888897</v>
       </c>
-      <c r="AA126" s="64"/>
+      <c r="AA126" s="74"/>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A127" s="30" t="s">
@@ -10905,9 +11007,9 @@
       <c r="P127" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q127" s="62"/>
+      <c r="Q127" s="72"/>
       <c r="R127" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>328</v>
       </c>
       <c r="S127" s="50">
@@ -10917,11 +11019,11 @@
         <v>0.08</v>
       </c>
       <c r="U127" s="50">
-        <f>V127*T127</f>
+        <f t="shared" si="37"/>
         <v>7.92</v>
       </c>
       <c r="V127" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>99</v>
       </c>
       <c r="W127" s="50">
@@ -10931,14 +11033,14 @@
         <v>1.2</v>
       </c>
       <c r="Y127" s="49">
-        <f>(I127-V127-W127-X127-U127)</f>
+        <f t="shared" si="39"/>
         <v>215.88000000000002</v>
       </c>
       <c r="Z127" s="5">
-        <f>(Y127/V127)</f>
+        <f t="shared" si="40"/>
         <v>2.1806060606060607</v>
       </c>
-      <c r="AA127" s="64"/>
+      <c r="AA127" s="74"/>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A128" s="30" t="s">
@@ -10989,9 +11091,9 @@
       <c r="P128" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="Q128" s="62"/>
+      <c r="Q128" s="72"/>
       <c r="R128" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="S128" s="50">
@@ -11001,11 +11103,11 @@
         <v>0.08</v>
       </c>
       <c r="U128" s="50">
-        <f>V128*T128</f>
+        <f t="shared" si="37"/>
         <v>0.96</v>
       </c>
       <c r="V128" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="W128" s="50">
@@ -11015,14 +11117,14 @@
         <v>1.2</v>
       </c>
       <c r="Y128" s="49">
-        <f>(I128-V128-W128-X128-U128)</f>
+        <f t="shared" si="39"/>
         <v>6.84</v>
       </c>
       <c r="Z128" s="5">
-        <f>(Y128/V128)</f>
+        <f t="shared" si="40"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA128" s="64"/>
+      <c r="AA128" s="74"/>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A129" s="30" t="s">
@@ -11073,9 +11175,9 @@
       <c r="P129" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q129" s="62"/>
+      <c r="Q129" s="72"/>
       <c r="R129" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>59</v>
       </c>
       <c r="S129" s="50">
@@ -11085,11 +11187,11 @@
         <v>0.08</v>
       </c>
       <c r="U129" s="50">
-        <f>V129*T129</f>
+        <f t="shared" si="37"/>
         <v>1.44</v>
       </c>
       <c r="V129" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
       <c r="W129" s="50">
@@ -11099,14 +11201,14 @@
         <v>1.2</v>
       </c>
       <c r="Y129" s="49">
-        <f>(I129-V129-W129-X129-U129)</f>
+        <f t="shared" si="39"/>
         <v>34.36</v>
       </c>
       <c r="Z129" s="5">
-        <f>(Y129/V129)</f>
+        <f t="shared" si="40"/>
         <v>1.9088888888888889</v>
       </c>
-      <c r="AA129" s="64"/>
+      <c r="AA129" s="74"/>
     </row>
     <row r="130" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I130" s="54"/>
@@ -11165,11 +11267,11 @@
       <c r="P131" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q131" s="62">
+      <c r="Q131" s="72">
         <v>20170313</v>
       </c>
       <c r="R131" s="52">
-        <f t="shared" ref="R131:R143" si="11">I131/H131</f>
+        <f t="shared" ref="R131:R143" si="41">I131/H131</f>
         <v>18</v>
       </c>
       <c r="S131" s="52">
@@ -11179,7 +11281,7 @@
         <v>0.05</v>
       </c>
       <c r="U131" s="52">
-        <f>V131*T131</f>
+        <f t="shared" ref="U131:U152" si="42">V131*T131</f>
         <v>3.5250000000000004</v>
       </c>
       <c r="V131" s="52">
@@ -11193,14 +11295,14 @@
         <v>1.2</v>
       </c>
       <c r="Y131" s="51">
-        <f>(I131-V131-W131-X131-U131)</f>
+        <f t="shared" ref="Y131:Y143" si="43">(I131-V131-W131-X131-U131)</f>
         <v>10.775</v>
       </c>
       <c r="Z131" s="5">
-        <f>(Y131/V131)</f>
+        <f t="shared" ref="Z131:Z143" si="44">(Y131/V131)</f>
         <v>0.15283687943262411</v>
       </c>
-      <c r="AA131" s="63">
+      <c r="AA131" s="73">
         <f>SUM(Y131:Y143)</f>
         <v>384.541</v>
       </c>
@@ -11254,9 +11356,9 @@
       <c r="P132" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q132" s="62"/>
+      <c r="Q132" s="72"/>
       <c r="R132" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>18.399999999999999</v>
       </c>
       <c r="S132" s="52">
@@ -11266,7 +11368,7 @@
         <v>0.05</v>
       </c>
       <c r="U132" s="52">
-        <f>V132*T132</f>
+        <f t="shared" si="42"/>
         <v>1.94</v>
       </c>
       <c r="V132" s="52">
@@ -11280,14 +11382,14 @@
         <v>1.2</v>
       </c>
       <c r="Y132" s="51">
-        <f>(I132-V132-W132-X132-U132)</f>
+        <f t="shared" si="43"/>
         <v>27.659999999999997</v>
       </c>
       <c r="Z132" s="5">
-        <f>(Y132/V132)</f>
+        <f t="shared" si="44"/>
         <v>0.71288659793814424</v>
       </c>
-      <c r="AA132" s="64"/>
+      <c r="AA132" s="74"/>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A133" s="30" t="s">
@@ -11338,9 +11440,9 @@
       <c r="P133" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="Q133" s="62"/>
+      <c r="Q133" s="72"/>
       <c r="R133" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="S133" s="52">
@@ -11350,11 +11452,11 @@
         <v>0.05</v>
       </c>
       <c r="U133" s="52">
-        <f>V133*T133</f>
+        <f t="shared" si="42"/>
         <v>7.95</v>
       </c>
       <c r="V133" s="52">
-        <f t="shared" ref="V133" si="12">H133*S133</f>
+        <f t="shared" ref="V133" si="45">H133*S133</f>
         <v>159</v>
       </c>
       <c r="W133" s="52">
@@ -11364,14 +11466,14 @@
         <v>1.2</v>
       </c>
       <c r="Y133" s="51">
-        <f>(I133-V133-W133-X133-U133)</f>
+        <f t="shared" si="43"/>
         <v>37.849999999999994</v>
       </c>
       <c r="Z133" s="5">
-        <f>(Y133/V133)</f>
+        <f t="shared" si="44"/>
         <v>0.23805031446540878</v>
       </c>
-      <c r="AA133" s="64"/>
+      <c r="AA133" s="74"/>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A134" s="30" t="s">
@@ -11422,9 +11524,9 @@
       <c r="P134" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q134" s="62"/>
+      <c r="Q134" s="72"/>
       <c r="R134" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>56</v>
       </c>
       <c r="S134" s="52">
@@ -11434,11 +11536,11 @@
         <v>0.08</v>
       </c>
       <c r="U134" s="52">
-        <f>V134*T134</f>
+        <f t="shared" si="42"/>
         <v>2.88</v>
       </c>
       <c r="V134" s="52">
-        <f>H134*S134</f>
+        <f t="shared" ref="V134:V143" si="46">H134*S134</f>
         <v>36</v>
       </c>
       <c r="W134" s="52">
@@ -11448,14 +11550,14 @@
         <v>1.2</v>
       </c>
       <c r="Y134" s="51">
-        <f>(I134-V134-W134-X134-U134)</f>
+        <f t="shared" si="43"/>
         <v>67.92</v>
       </c>
       <c r="Z134" s="5">
-        <f>(Y134/V134)</f>
+        <f t="shared" si="44"/>
         <v>1.8866666666666667</v>
       </c>
-      <c r="AA134" s="64"/>
+      <c r="AA134" s="74"/>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A135" s="30" t="s">
@@ -11506,9 +11608,9 @@
       <c r="P135" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q135" s="62"/>
+      <c r="Q135" s="72"/>
       <c r="R135" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>79</v>
       </c>
       <c r="S135" s="52">
@@ -11518,11 +11620,11 @@
         <v>0.08</v>
       </c>
       <c r="U135" s="52">
-        <f>V135*T135</f>
+        <f t="shared" si="42"/>
         <v>6.08</v>
       </c>
       <c r="V135" s="52">
-        <f>H135*S135</f>
+        <f t="shared" si="46"/>
         <v>76</v>
       </c>
       <c r="W135" s="52">
@@ -11532,14 +11634,14 @@
         <v>1.2</v>
       </c>
       <c r="Y135" s="51">
-        <f>(I135-V135-W135-X135-U135)</f>
+        <f t="shared" si="43"/>
         <v>70.72</v>
       </c>
       <c r="Z135" s="5">
-        <f>(Y135/V135)</f>
+        <f t="shared" si="44"/>
         <v>0.93052631578947365</v>
       </c>
-      <c r="AA135" s="64"/>
+      <c r="AA135" s="74"/>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A136" s="30" t="s">
@@ -11590,9 +11692,9 @@
       <c r="P136" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q136" s="62"/>
+      <c r="Q136" s="72"/>
       <c r="R136" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="S136" s="52">
@@ -11602,11 +11704,11 @@
         <v>0.08</v>
       </c>
       <c r="U136" s="52">
-        <f>V136*T136</f>
+        <f t="shared" si="42"/>
         <v>0.78400000000000003</v>
       </c>
       <c r="V136" s="52">
-        <f>H136*S136</f>
+        <f t="shared" si="46"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="W136" s="52">
@@ -11616,14 +11718,14 @@
         <v>1.2</v>
       </c>
       <c r="Y136" s="51">
-        <f>(I136-V136-W136-X136-U136)</f>
+        <f t="shared" si="43"/>
         <v>-0.7840000000000007</v>
       </c>
       <c r="Z136" s="5">
-        <f>(Y136/V136)</f>
+        <f t="shared" si="44"/>
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="AA136" s="64"/>
+      <c r="AA136" s="74"/>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A137" s="30" t="s">
@@ -11674,9 +11776,9 @@
       <c r="P137" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Q137" s="62"/>
+      <c r="Q137" s="72"/>
       <c r="R137" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>77</v>
       </c>
       <c r="S137" s="52">
@@ -11686,11 +11788,11 @@
         <v>0.08</v>
       </c>
       <c r="U137" s="52">
-        <f>V137*T137</f>
+        <f t="shared" si="42"/>
         <v>0.8</v>
       </c>
       <c r="V137" s="52">
-        <f>H137*S137</f>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="W137" s="52">
@@ -11700,14 +11802,14 @@
         <v>1.2</v>
       </c>
       <c r="Y137" s="51">
-        <f>(I137-V137-W137-X137-U137)</f>
+        <f t="shared" si="43"/>
         <v>61</v>
       </c>
       <c r="Z137" s="5">
-        <f>(Y137/V137)</f>
+        <f t="shared" si="44"/>
         <v>6.1</v>
       </c>
-      <c r="AA137" s="64"/>
+      <c r="AA137" s="74"/>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A138" s="30" t="s">
@@ -11758,9 +11860,9 @@
       <c r="P138" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q138" s="62"/>
+      <c r="Q138" s="72"/>
       <c r="R138" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>39</v>
       </c>
       <c r="S138" s="52">
@@ -11770,11 +11872,11 @@
         <v>0.08</v>
       </c>
       <c r="U138" s="52">
-        <f>V138*T138</f>
+        <f t="shared" si="42"/>
         <v>1.36</v>
       </c>
       <c r="V138" s="52">
-        <f>H138*S138</f>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="W138" s="52">
@@ -11784,14 +11886,14 @@
         <v>1.2</v>
       </c>
       <c r="Y138" s="51">
-        <f>(I138-V138-W138-X138-U138)</f>
+        <f t="shared" si="43"/>
         <v>15.440000000000001</v>
       </c>
       <c r="Z138" s="5">
-        <f>(Y138/V138)</f>
+        <f t="shared" si="44"/>
         <v>0.90823529411764714</v>
       </c>
-      <c r="AA138" s="64"/>
+      <c r="AA138" s="74"/>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A139" s="30" t="s">
@@ -11842,9 +11944,9 @@
       <c r="P139" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q139" s="62"/>
+      <c r="Q139" s="72"/>
       <c r="R139" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>85</v>
       </c>
       <c r="S139" s="52">
@@ -11854,11 +11956,11 @@
         <v>0.08</v>
       </c>
       <c r="U139" s="52">
-        <f>V139*T139</f>
+        <f t="shared" si="42"/>
         <v>3.36</v>
       </c>
       <c r="V139" s="52">
-        <f>H139*S139</f>
+        <f t="shared" si="46"/>
         <v>42</v>
       </c>
       <c r="W139" s="52">
@@ -11868,14 +11970,14 @@
         <v>1.2</v>
       </c>
       <c r="Y139" s="51">
-        <f>(I139-V139-W139-X139-U139)</f>
+        <f t="shared" si="43"/>
         <v>34.44</v>
       </c>
       <c r="Z139" s="5">
-        <f>(Y139/V139)</f>
+        <f t="shared" si="44"/>
         <v>0.82</v>
       </c>
-      <c r="AA139" s="64"/>
+      <c r="AA139" s="74"/>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A140" s="30" t="s">
@@ -11926,9 +12028,9 @@
       <c r="P140" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q140" s="62"/>
+      <c r="Q140" s="72"/>
       <c r="R140" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="S140" s="52">
@@ -11938,11 +12040,11 @@
         <v>0.08</v>
       </c>
       <c r="U140" s="52">
-        <f>V140*T140</f>
+        <f t="shared" si="42"/>
         <v>0.32</v>
       </c>
       <c r="V140" s="52">
-        <f>H140*S140</f>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="W140" s="52">
@@ -11952,14 +12054,14 @@
         <v>1.2</v>
       </c>
       <c r="Y140" s="51">
-        <f>(I140-V140-W140-X140-U140)</f>
+        <f t="shared" si="43"/>
         <v>2.48</v>
       </c>
       <c r="Z140" s="5">
-        <f>(Y140/V140)</f>
+        <f t="shared" si="44"/>
         <v>0.62</v>
       </c>
-      <c r="AA140" s="64"/>
+      <c r="AA140" s="74"/>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A141" s="30" t="s">
@@ -12010,9 +12112,9 @@
       <c r="P141" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q141" s="62"/>
+      <c r="Q141" s="72"/>
       <c r="R141" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="S141" s="52">
@@ -12022,11 +12124,11 @@
         <v>0.08</v>
       </c>
       <c r="U141" s="52">
-        <f>V141*T141</f>
+        <f t="shared" si="42"/>
         <v>0.32</v>
       </c>
       <c r="V141" s="52">
-        <f>H141*S141</f>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="W141" s="52">
@@ -12036,14 +12138,14 @@
         <v>1.2</v>
       </c>
       <c r="Y141" s="51">
-        <f>(I141-V141-W141-X141-U141)</f>
+        <f t="shared" si="43"/>
         <v>4.4799999999999995</v>
       </c>
       <c r="Z141" s="5">
-        <f>(Y141/V141)</f>
+        <f t="shared" si="44"/>
         <v>1.1199999999999999</v>
       </c>
-      <c r="AA141" s="64"/>
+      <c r="AA141" s="74"/>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A142" s="30" t="s">
@@ -12094,9 +12196,9 @@
       <c r="P142" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Q142" s="62"/>
+      <c r="Q142" s="72"/>
       <c r="R142" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>45</v>
       </c>
       <c r="S142" s="52">
@@ -12106,11 +12208,11 @@
         <v>0.08</v>
       </c>
       <c r="U142" s="52">
-        <f>V142*T142</f>
+        <f t="shared" si="42"/>
         <v>1.6</v>
       </c>
       <c r="V142" s="52">
-        <f>H142*S142</f>
+        <f t="shared" si="46"/>
         <v>20</v>
       </c>
       <c r="W142" s="52">
@@ -12120,14 +12222,14 @@
         <v>1.2</v>
       </c>
       <c r="Y142" s="51">
-        <f>(I142-V142-W142-X142-U142)</f>
+        <f t="shared" si="43"/>
         <v>18.2</v>
       </c>
       <c r="Z142" s="5">
-        <f>(Y142/V142)</f>
+        <f t="shared" si="44"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="AA142" s="64"/>
+      <c r="AA142" s="74"/>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A143" s="30" t="s">
@@ -12178,9 +12280,9 @@
       <c r="P143" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q143" s="62"/>
+      <c r="Q143" s="72"/>
       <c r="R143" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="41"/>
         <v>59</v>
       </c>
       <c r="S143" s="52">
@@ -12190,11 +12292,11 @@
         <v>0.08</v>
       </c>
       <c r="U143" s="52">
-        <f>V143*T143</f>
+        <f t="shared" si="42"/>
         <v>1.44</v>
       </c>
       <c r="V143" s="52">
-        <f>H143*S143</f>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="W143" s="52">
@@ -12204,20 +12306,4684 @@
         <v>1.2</v>
       </c>
       <c r="Y143" s="51">
-        <f>(I143-V143-W143-X143-U143)</f>
+        <f t="shared" si="43"/>
         <v>34.36</v>
       </c>
       <c r="Z143" s="5">
-        <f>(Y143/V143)</f>
+        <f t="shared" si="44"/>
         <v>1.9088888888888889</v>
       </c>
-      <c r="AA143" s="64"/>
+      <c r="AA143" s="74"/>
+    </row>
+    <row r="144" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I144" s="54"/>
+      <c r="P144" s="55"/>
+      <c r="Q144" s="56"/>
+      <c r="R144" s="63"/>
+      <c r="S144" s="63"/>
+      <c r="T144" s="46"/>
+      <c r="U144" s="63"/>
+      <c r="V144" s="63"/>
+      <c r="W144" s="63"/>
+      <c r="X144" s="63"/>
+      <c r="Y144" s="62"/>
+      <c r="Z144" s="5"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A145" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="31">
+        <v>12</v>
+      </c>
+      <c r="E145" s="31">
+        <v>6</v>
+      </c>
+      <c r="F145" s="31">
+        <v>1</v>
+      </c>
+      <c r="G145" s="31">
+        <v>1</v>
+      </c>
+      <c r="H145" s="31">
+        <v>100</v>
+      </c>
+      <c r="I145" s="32">
+        <v>5500</v>
+      </c>
+      <c r="J145" s="33">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" s="32">
+        <v>916.67</v>
+      </c>
+      <c r="M145" s="33">
+        <v>0</v>
+      </c>
+      <c r="N145" s="31">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q145" s="75">
+        <v>20170314</v>
+      </c>
+      <c r="R145" s="63">
+        <f t="shared" ref="R145:R152" si="47">I145/H145</f>
+        <v>55</v>
+      </c>
+      <c r="S145" s="63">
+        <v>22</v>
+      </c>
+      <c r="T145" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U145" s="63">
+        <f t="shared" si="42"/>
+        <v>176</v>
+      </c>
+      <c r="V145" s="63">
+        <f t="shared" ref="V145:V152" si="48">H145*S145</f>
+        <v>2200</v>
+      </c>
+      <c r="W145" s="63">
+        <v>700</v>
+      </c>
+      <c r="X145" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y145" s="62">
+        <f t="shared" ref="Y145:Y152" si="49">(I145-V145-W145-X145-U145)</f>
+        <v>2422.8000000000002</v>
+      </c>
+      <c r="Z145" s="5">
+        <f t="shared" ref="Z145:Z152" si="50">(Y145/V145)</f>
+        <v>1.1012727272727274</v>
+      </c>
+      <c r="AA145" s="73">
+        <f>SUM(Y145:Y152)</f>
+        <v>2544.1500000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A146" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="31">
+        <v>5</v>
+      </c>
+      <c r="E146" s="31">
+        <v>4</v>
+      </c>
+      <c r="F146" s="31">
+        <v>2</v>
+      </c>
+      <c r="G146" s="31">
+        <v>2</v>
+      </c>
+      <c r="H146" s="31">
+        <v>3</v>
+      </c>
+      <c r="I146" s="32">
+        <v>42</v>
+      </c>
+      <c r="J146" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="M146" s="34">
+        <v>1</v>
+      </c>
+      <c r="N146" s="31">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q146" s="75"/>
+      <c r="R146" s="63">
+        <f t="shared" si="47"/>
+        <v>14</v>
+      </c>
+      <c r="S146" s="63">
+        <v>4</v>
+      </c>
+      <c r="T146" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U146" s="63">
+        <f t="shared" si="42"/>
+        <v>0.96</v>
+      </c>
+      <c r="V146" s="63">
+        <f t="shared" si="48"/>
+        <v>12</v>
+      </c>
+      <c r="W146" s="63">
+        <v>4</v>
+      </c>
+      <c r="X146" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y146" s="62">
+        <f t="shared" si="49"/>
+        <v>23.84</v>
+      </c>
+      <c r="Z146" s="5">
+        <f t="shared" si="50"/>
+        <v>1.9866666666666666</v>
+      </c>
+      <c r="AA146" s="74"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A147" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="31">
+        <v>4</v>
+      </c>
+      <c r="E147" s="31">
+        <v>2</v>
+      </c>
+      <c r="F147" s="31">
+        <v>1</v>
+      </c>
+      <c r="G147" s="31">
+        <v>1</v>
+      </c>
+      <c r="H147" s="31">
+        <v>2</v>
+      </c>
+      <c r="I147" s="32">
+        <v>78</v>
+      </c>
+      <c r="J147" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" s="32">
+        <v>39</v>
+      </c>
+      <c r="M147" s="34">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q147" s="75"/>
+      <c r="R147" s="63">
+        <f t="shared" si="47"/>
+        <v>39</v>
+      </c>
+      <c r="S147" s="63">
+        <v>17</v>
+      </c>
+      <c r="T147" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U147" s="63">
+        <f t="shared" si="42"/>
+        <v>2.72</v>
+      </c>
+      <c r="V147" s="63">
+        <f t="shared" si="48"/>
+        <v>34</v>
+      </c>
+      <c r="W147" s="63">
+        <v>4</v>
+      </c>
+      <c r="X147" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y147" s="62">
+        <f t="shared" si="49"/>
+        <v>36.08</v>
+      </c>
+      <c r="Z147" s="5">
+        <f t="shared" si="50"/>
+        <v>1.0611764705882352</v>
+      </c>
+      <c r="AA147" s="74"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A148" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="31">
+        <v>19</v>
+      </c>
+      <c r="E148" s="31">
+        <v>4</v>
+      </c>
+      <c r="F148" s="31">
+        <v>1</v>
+      </c>
+      <c r="G148" s="31">
+        <v>1</v>
+      </c>
+      <c r="H148" s="31">
+        <v>1</v>
+      </c>
+      <c r="I148" s="32">
+        <v>39</v>
+      </c>
+      <c r="J148" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" s="32">
+        <v>9.75</v>
+      </c>
+      <c r="M148" s="33">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q148" s="75"/>
+      <c r="R148" s="63">
+        <f t="shared" si="47"/>
+        <v>39</v>
+      </c>
+      <c r="S148" s="63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T148" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U148" s="63">
+        <f t="shared" si="42"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="V148" s="63">
+        <f t="shared" si="48"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="W148" s="63">
+        <v>4</v>
+      </c>
+      <c r="X148" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y148" s="62">
+        <f t="shared" si="49"/>
+        <v>23.51</v>
+      </c>
+      <c r="Z148" s="5">
+        <f t="shared" si="50"/>
+        <v>2.3989795918367345</v>
+      </c>
+      <c r="AA148" s="74"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A149" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="31">
+        <v>37</v>
+      </c>
+      <c r="E149" s="31">
+        <v>11</v>
+      </c>
+      <c r="F149" s="31">
+        <v>1</v>
+      </c>
+      <c r="G149" s="31">
+        <v>1</v>
+      </c>
+      <c r="H149" s="31">
+        <v>1</v>
+      </c>
+      <c r="I149" s="32">
+        <v>45</v>
+      </c>
+      <c r="J149" s="33">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K149" s="31">
+        <v>1</v>
+      </c>
+      <c r="L149" s="32">
+        <v>4.09</v>
+      </c>
+      <c r="M149" s="33">
+        <v>0</v>
+      </c>
+      <c r="N149" s="31">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q149" s="75"/>
+      <c r="R149" s="63">
+        <f t="shared" si="47"/>
+        <v>45</v>
+      </c>
+      <c r="S149" s="63">
+        <v>27</v>
+      </c>
+      <c r="T149" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U149" s="63">
+        <f t="shared" si="42"/>
+        <v>1.35</v>
+      </c>
+      <c r="V149" s="63">
+        <f t="shared" si="48"/>
+        <v>27</v>
+      </c>
+      <c r="W149" s="63">
+        <v>4</v>
+      </c>
+      <c r="X149" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y149" s="62">
+        <f t="shared" si="49"/>
+        <v>11.450000000000001</v>
+      </c>
+      <c r="Z149" s="5">
+        <f t="shared" si="50"/>
+        <v>0.4240740740740741</v>
+      </c>
+      <c r="AA149" s="74"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A150" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="31">
+        <v>33</v>
+      </c>
+      <c r="E150" s="31">
+        <v>16</v>
+      </c>
+      <c r="F150" s="31">
+        <v>1</v>
+      </c>
+      <c r="G150" s="31">
+        <v>1</v>
+      </c>
+      <c r="H150" s="31">
+        <v>1</v>
+      </c>
+      <c r="I150" s="32">
+        <v>70</v>
+      </c>
+      <c r="J150" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K150" s="31">
+        <v>2</v>
+      </c>
+      <c r="L150" s="32">
+        <v>4.38</v>
+      </c>
+      <c r="M150" s="34">
+        <v>1</v>
+      </c>
+      <c r="N150" s="31">
+        <v>1</v>
+      </c>
+      <c r="O150" s="31">
+        <v>1</v>
+      </c>
+      <c r="P150" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q150" s="75"/>
+      <c r="R150" s="63">
+        <f t="shared" si="47"/>
+        <v>70</v>
+      </c>
+      <c r="S150" s="63">
+        <v>53</v>
+      </c>
+      <c r="T150" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U150" s="63">
+        <f t="shared" si="42"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="V150" s="63">
+        <f t="shared" si="48"/>
+        <v>53</v>
+      </c>
+      <c r="W150" s="63">
+        <v>4</v>
+      </c>
+      <c r="X150" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y150" s="62">
+        <f t="shared" si="49"/>
+        <v>9.15</v>
+      </c>
+      <c r="Z150" s="5">
+        <f t="shared" si="50"/>
+        <v>0.17264150943396228</v>
+      </c>
+      <c r="AA150" s="74"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A151" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="31">
+        <v>5</v>
+      </c>
+      <c r="E151" s="31">
+        <v>2</v>
+      </c>
+      <c r="F151" s="31">
+        <v>1</v>
+      </c>
+      <c r="G151" s="31">
+        <v>1</v>
+      </c>
+      <c r="H151" s="31">
+        <v>1</v>
+      </c>
+      <c r="I151" s="32">
+        <v>13</v>
+      </c>
+      <c r="J151" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="M151" s="34">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q151" s="75"/>
+      <c r="R151" s="63">
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="S151" s="63">
+        <v>4</v>
+      </c>
+      <c r="T151" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U151" s="63">
+        <f t="shared" si="42"/>
+        <v>0.32</v>
+      </c>
+      <c r="V151" s="63">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="W151" s="63">
+        <v>4</v>
+      </c>
+      <c r="X151" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y151" s="62">
+        <f t="shared" si="49"/>
+        <v>3.48</v>
+      </c>
+      <c r="Z151" s="5">
+        <f t="shared" si="50"/>
+        <v>0.87</v>
+      </c>
+      <c r="AA151" s="74"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A152" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="31">
+        <v>5</v>
+      </c>
+      <c r="E152" s="31">
+        <v>1</v>
+      </c>
+      <c r="F152" s="31">
+        <v>1</v>
+      </c>
+      <c r="G152" s="31">
+        <v>1</v>
+      </c>
+      <c r="H152" s="31">
+        <v>1</v>
+      </c>
+      <c r="I152" s="32">
+        <v>32</v>
+      </c>
+      <c r="J152" s="34">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" s="32">
+        <v>32</v>
+      </c>
+      <c r="M152" s="34">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q152" s="75"/>
+      <c r="R152" s="63">
+        <f t="shared" si="47"/>
+        <v>32</v>
+      </c>
+      <c r="S152" s="63">
+        <v>12</v>
+      </c>
+      <c r="T152" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U152" s="63">
+        <f t="shared" si="42"/>
+        <v>0.96</v>
+      </c>
+      <c r="V152" s="63">
+        <f t="shared" si="48"/>
+        <v>12</v>
+      </c>
+      <c r="W152" s="63">
+        <v>4</v>
+      </c>
+      <c r="X152" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="Y152" s="62">
+        <f t="shared" si="49"/>
+        <v>13.84</v>
+      </c>
+      <c r="Z152" s="5">
+        <f t="shared" si="50"/>
+        <v>1.1533333333333333</v>
+      </c>
+      <c r="AA152" s="74"/>
+    </row>
+    <row r="153" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I153" s="54"/>
+      <c r="P153" s="55"/>
+      <c r="Q153" s="56"/>
+      <c r="T153" s="57"/>
+      <c r="Y153" s="58"/>
+      <c r="Z153" s="59"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A154" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="31">
+        <v>21</v>
+      </c>
+      <c r="E154" s="31">
+        <v>6</v>
+      </c>
+      <c r="F154" s="31">
+        <v>1</v>
+      </c>
+      <c r="G154" s="31">
+        <v>1</v>
+      </c>
+      <c r="H154" s="31">
+        <v>10</v>
+      </c>
+      <c r="I154" s="32">
+        <v>500</v>
+      </c>
+      <c r="J154" s="33">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" s="32">
+        <v>83.33</v>
+      </c>
+      <c r="M154" s="34">
+        <v>1</v>
+      </c>
+      <c r="N154" s="31">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q154" s="75">
+        <v>20170315</v>
+      </c>
+      <c r="R154" s="65">
+        <f t="shared" ref="R154:R164" si="51">I154/H154</f>
+        <v>50</v>
+      </c>
+      <c r="S154" s="65">
+        <v>18</v>
+      </c>
+      <c r="T154" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U154" s="65">
+        <f t="shared" ref="U154:U164" si="52">V154*T154</f>
+        <v>14.4</v>
+      </c>
+      <c r="V154" s="65">
+        <f t="shared" ref="V154:V164" si="53">H154*S154</f>
+        <v>180</v>
+      </c>
+      <c r="W154" s="65">
+        <v>150</v>
+      </c>
+      <c r="X154" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y154" s="64">
+        <f t="shared" ref="Y154:Y164" si="54">(I154-V154-W154-X154-U154)</f>
+        <v>154.4</v>
+      </c>
+      <c r="Z154" s="5">
+        <f t="shared" ref="Z154:Z164" si="55">(Y154/V154)</f>
+        <v>0.85777777777777786</v>
+      </c>
+      <c r="AA154" s="73">
+        <f>SUM(Y154:Y164)</f>
+        <v>374.11999999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A155" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="31">
+        <v>2</v>
+      </c>
+      <c r="E155" s="31">
+        <v>2</v>
+      </c>
+      <c r="F155" s="31">
+        <v>1</v>
+      </c>
+      <c r="G155" s="31">
+        <v>1</v>
+      </c>
+      <c r="H155" s="31">
+        <v>5</v>
+      </c>
+      <c r="I155" s="32">
+        <v>64.5</v>
+      </c>
+      <c r="J155" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" s="32">
+        <v>32.25</v>
+      </c>
+      <c r="M155" s="34">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q155" s="75"/>
+      <c r="R155" s="65">
+        <f t="shared" si="51"/>
+        <v>12.9</v>
+      </c>
+      <c r="S155" s="65">
+        <v>6.5</v>
+      </c>
+      <c r="T155" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U155" s="65">
+        <f t="shared" si="52"/>
+        <v>1.625</v>
+      </c>
+      <c r="V155" s="65">
+        <f t="shared" si="53"/>
+        <v>32.5</v>
+      </c>
+      <c r="W155" s="65">
+        <v>4</v>
+      </c>
+      <c r="X155" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y155" s="64">
+        <f t="shared" si="54"/>
+        <v>25.175000000000001</v>
+      </c>
+      <c r="Z155" s="5">
+        <f t="shared" si="55"/>
+        <v>0.77461538461538459</v>
+      </c>
+      <c r="AA155" s="74"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A156" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="31">
+        <v>25</v>
+      </c>
+      <c r="E156" s="31">
+        <v>4</v>
+      </c>
+      <c r="F156" s="31">
+        <v>2</v>
+      </c>
+      <c r="G156" s="31">
+        <v>2</v>
+      </c>
+      <c r="H156" s="31">
+        <v>3</v>
+      </c>
+      <c r="I156" s="32">
+        <v>48</v>
+      </c>
+      <c r="J156" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" s="32">
+        <v>12</v>
+      </c>
+      <c r="M156" s="34">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q156" s="75"/>
+      <c r="R156" s="65">
+        <f t="shared" si="51"/>
+        <v>16</v>
+      </c>
+      <c r="S156" s="65">
+        <v>4</v>
+      </c>
+      <c r="T156" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U156" s="65">
+        <f t="shared" si="52"/>
+        <v>0.96</v>
+      </c>
+      <c r="V156" s="65">
+        <f t="shared" si="53"/>
+        <v>12</v>
+      </c>
+      <c r="W156" s="65">
+        <v>4</v>
+      </c>
+      <c r="X156" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y156" s="64">
+        <f t="shared" si="54"/>
+        <v>29.84</v>
+      </c>
+      <c r="Z156" s="5">
+        <f t="shared" si="55"/>
+        <v>2.4866666666666668</v>
+      </c>
+      <c r="AA156" s="74"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A157" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" s="31">
+        <v>1</v>
+      </c>
+      <c r="G157" s="31">
+        <v>1</v>
+      </c>
+      <c r="H157" s="31">
+        <v>2</v>
+      </c>
+      <c r="I157" s="32">
+        <v>25.8</v>
+      </c>
+      <c r="J157" s="33">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" s="60">
+        <v>0</v>
+      </c>
+      <c r="M157" s="34">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q157" s="75"/>
+      <c r="R157" s="65">
+        <f t="shared" si="51"/>
+        <v>12.9</v>
+      </c>
+      <c r="S157" s="65">
+        <v>6.5</v>
+      </c>
+      <c r="T157" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U157" s="65">
+        <f t="shared" si="52"/>
+        <v>0.65</v>
+      </c>
+      <c r="V157" s="65">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="W157" s="65">
+        <v>4</v>
+      </c>
+      <c r="X157" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y157" s="64">
+        <f t="shared" si="54"/>
+        <v>6.95</v>
+      </c>
+      <c r="Z157" s="5">
+        <f t="shared" si="55"/>
+        <v>0.5346153846153846</v>
+      </c>
+      <c r="AA157" s="74"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A158" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="31">
+        <v>9</v>
+      </c>
+      <c r="E158" s="31">
+        <v>7</v>
+      </c>
+      <c r="F158" s="31">
+        <v>1</v>
+      </c>
+      <c r="G158" s="31">
+        <v>1</v>
+      </c>
+      <c r="H158" s="31">
+        <v>1</v>
+      </c>
+      <c r="I158" s="32">
+        <v>28</v>
+      </c>
+      <c r="J158" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" s="32">
+        <v>4</v>
+      </c>
+      <c r="M158" s="34">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q158" s="75"/>
+      <c r="R158" s="65">
+        <f t="shared" si="51"/>
+        <v>28</v>
+      </c>
+      <c r="S158" s="65">
+        <v>12</v>
+      </c>
+      <c r="T158" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U158" s="65">
+        <f t="shared" si="52"/>
+        <v>0.96</v>
+      </c>
+      <c r="V158" s="65">
+        <f t="shared" si="53"/>
+        <v>12</v>
+      </c>
+      <c r="W158" s="65">
+        <v>4</v>
+      </c>
+      <c r="X158" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y158" s="64">
+        <f t="shared" si="54"/>
+        <v>9.84</v>
+      </c>
+      <c r="Z158" s="5">
+        <f t="shared" si="55"/>
+        <v>0.82</v>
+      </c>
+      <c r="AA158" s="74"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A159" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="31">
+        <v>1</v>
+      </c>
+      <c r="E159" s="31">
+        <v>1</v>
+      </c>
+      <c r="F159" s="31">
+        <v>1</v>
+      </c>
+      <c r="G159" s="31">
+        <v>1</v>
+      </c>
+      <c r="H159" s="31">
+        <v>1</v>
+      </c>
+      <c r="I159" s="32">
+        <v>45</v>
+      </c>
+      <c r="J159" s="34">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" s="32">
+        <v>45</v>
+      </c>
+      <c r="M159" s="33">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" s="31">
+        <v>1</v>
+      </c>
+      <c r="P159" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q159" s="75"/>
+      <c r="R159" s="65">
+        <f t="shared" si="51"/>
+        <v>45</v>
+      </c>
+      <c r="S159" s="65">
+        <v>17</v>
+      </c>
+      <c r="T159" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U159" s="65">
+        <f t="shared" si="52"/>
+        <v>1.36</v>
+      </c>
+      <c r="V159" s="65">
+        <f t="shared" si="53"/>
+        <v>17</v>
+      </c>
+      <c r="W159" s="65">
+        <v>4</v>
+      </c>
+      <c r="X159" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y159" s="64">
+        <f t="shared" si="54"/>
+        <v>21.44</v>
+      </c>
+      <c r="Z159" s="5">
+        <f t="shared" si="55"/>
+        <v>1.2611764705882353</v>
+      </c>
+      <c r="AA159" s="74"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A160" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="31">
+        <v>5</v>
+      </c>
+      <c r="E160" s="31">
+        <v>5</v>
+      </c>
+      <c r="F160" s="31">
+        <v>1</v>
+      </c>
+      <c r="G160" s="31">
+        <v>1</v>
+      </c>
+      <c r="H160" s="31">
+        <v>1</v>
+      </c>
+      <c r="I160" s="32">
+        <v>22.9</v>
+      </c>
+      <c r="J160" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" s="32">
+        <v>4.58</v>
+      </c>
+      <c r="M160" s="33">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q160" s="75"/>
+      <c r="R160" s="65">
+        <f t="shared" si="51"/>
+        <v>22.9</v>
+      </c>
+      <c r="S160" s="65">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="T160" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U160" s="65">
+        <f t="shared" si="52"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="V160" s="65">
+        <f t="shared" si="53"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W160" s="65">
+        <v>4</v>
+      </c>
+      <c r="X160" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y160" s="64">
+        <f t="shared" si="54"/>
+        <v>7.5149999999999988</v>
+      </c>
+      <c r="Z160" s="5">
+        <f t="shared" si="55"/>
+        <v>0.77474226804123703</v>
+      </c>
+      <c r="AA160" s="74"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A161" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" s="31">
+        <v>1</v>
+      </c>
+      <c r="G161" s="31">
+        <v>1</v>
+      </c>
+      <c r="H161" s="31">
+        <v>1</v>
+      </c>
+      <c r="I161" s="32">
+        <v>175</v>
+      </c>
+      <c r="J161" s="33">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" s="60">
+        <v>0</v>
+      </c>
+      <c r="M161" s="33">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q161" s="75"/>
+      <c r="R161" s="65">
+        <f t="shared" si="51"/>
+        <v>175</v>
+      </c>
+      <c r="S161" s="65">
+        <v>100</v>
+      </c>
+      <c r="T161" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U161" s="65">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="V161" s="65">
+        <f t="shared" si="53"/>
+        <v>100</v>
+      </c>
+      <c r="W161" s="65">
+        <v>4</v>
+      </c>
+      <c r="X161" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y161" s="64">
+        <f t="shared" si="54"/>
+        <v>61.8</v>
+      </c>
+      <c r="Z161" s="5">
+        <f t="shared" si="55"/>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="AA161" s="74"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A162" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="31">
+        <v>1</v>
+      </c>
+      <c r="E162" s="31">
+        <v>1</v>
+      </c>
+      <c r="F162" s="31">
+        <v>1</v>
+      </c>
+      <c r="G162" s="31">
+        <v>1</v>
+      </c>
+      <c r="H162" s="31">
+        <v>1</v>
+      </c>
+      <c r="I162" s="32">
+        <v>25</v>
+      </c>
+      <c r="J162" s="34">
+        <v>1</v>
+      </c>
+      <c r="K162" s="31">
+        <v>1</v>
+      </c>
+      <c r="L162" s="32">
+        <v>25</v>
+      </c>
+      <c r="M162" s="34">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q162" s="75"/>
+      <c r="R162" s="65">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="S162" s="65">
+        <v>12</v>
+      </c>
+      <c r="T162" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U162" s="65">
+        <f t="shared" si="52"/>
+        <v>0.96</v>
+      </c>
+      <c r="V162" s="65">
+        <f t="shared" si="53"/>
+        <v>12</v>
+      </c>
+      <c r="W162" s="65">
+        <v>4</v>
+      </c>
+      <c r="X162" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y162" s="64">
+        <f t="shared" si="54"/>
+        <v>6.84</v>
+      </c>
+      <c r="Z162" s="5">
+        <f t="shared" si="55"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA162" s="74"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A163" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="31">
+        <v>1</v>
+      </c>
+      <c r="E163" s="31">
+        <v>1</v>
+      </c>
+      <c r="F163" s="31">
+        <v>1</v>
+      </c>
+      <c r="G163" s="31">
+        <v>1</v>
+      </c>
+      <c r="H163" s="31">
+        <v>1</v>
+      </c>
+      <c r="I163" s="32">
+        <v>49</v>
+      </c>
+      <c r="J163" s="34">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" s="32">
+        <v>49</v>
+      </c>
+      <c r="M163" s="33">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q163" s="75"/>
+      <c r="R163" s="65">
+        <f t="shared" si="51"/>
+        <v>49</v>
+      </c>
+      <c r="S163" s="65">
+        <v>23</v>
+      </c>
+      <c r="T163" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U163" s="65">
+        <f t="shared" si="52"/>
+        <v>1.84</v>
+      </c>
+      <c r="V163" s="65">
+        <f t="shared" si="53"/>
+        <v>23</v>
+      </c>
+      <c r="W163" s="65">
+        <v>4</v>
+      </c>
+      <c r="X163" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y163" s="64">
+        <f t="shared" si="54"/>
+        <v>18.96</v>
+      </c>
+      <c r="Z163" s="5">
+        <f t="shared" si="55"/>
+        <v>0.82434782608695656</v>
+      </c>
+      <c r="AA163" s="74"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A164" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="31">
+        <v>9</v>
+      </c>
+      <c r="E164" s="31">
+        <v>3</v>
+      </c>
+      <c r="F164" s="31">
+        <v>1</v>
+      </c>
+      <c r="G164" s="31">
+        <v>1</v>
+      </c>
+      <c r="H164" s="31">
+        <v>1</v>
+      </c>
+      <c r="I164" s="32">
+        <v>56</v>
+      </c>
+      <c r="J164" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" s="32">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="M164" s="34">
+        <v>1</v>
+      </c>
+      <c r="N164" s="31">
+        <v>7</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q164" s="75"/>
+      <c r="R164" s="65">
+        <f t="shared" si="51"/>
+        <v>56</v>
+      </c>
+      <c r="S164" s="65">
+        <v>18</v>
+      </c>
+      <c r="T164" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U164" s="65">
+        <f t="shared" si="52"/>
+        <v>1.44</v>
+      </c>
+      <c r="V164" s="65">
+        <f t="shared" si="53"/>
+        <v>18</v>
+      </c>
+      <c r="W164" s="65">
+        <v>4</v>
+      </c>
+      <c r="X164" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y164" s="64">
+        <f t="shared" si="54"/>
+        <v>31.359999999999996</v>
+      </c>
+      <c r="Z164" s="5">
+        <f t="shared" si="55"/>
+        <v>1.7422222222222219</v>
+      </c>
+      <c r="AA164" s="74"/>
+    </row>
+    <row r="165" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I165" s="54"/>
+      <c r="P165" s="55"/>
+      <c r="Q165" s="56"/>
+      <c r="R165" s="67"/>
+      <c r="S165" s="67"/>
+      <c r="T165" s="46"/>
+      <c r="U165" s="67"/>
+      <c r="V165" s="67"/>
+      <c r="W165" s="67"/>
+      <c r="X165" s="67"/>
+      <c r="Y165" s="66"/>
+      <c r="Z165" s="5"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A166" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="31">
+        <v>13</v>
+      </c>
+      <c r="E166" s="31">
+        <v>6</v>
+      </c>
+      <c r="F166" s="31">
+        <v>1</v>
+      </c>
+      <c r="G166" s="31">
+        <v>1</v>
+      </c>
+      <c r="H166" s="31">
+        <v>2</v>
+      </c>
+      <c r="I166" s="32">
+        <v>31.8</v>
+      </c>
+      <c r="J166" s="33">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" s="32">
+        <v>5.3</v>
+      </c>
+      <c r="M166" s="34">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q166" s="75">
+        <v>20170316</v>
+      </c>
+      <c r="R166" s="67">
+        <f t="shared" ref="R166:R170" si="56">I166/H166</f>
+        <v>15.9</v>
+      </c>
+      <c r="S166" s="67">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T166" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U166" s="67">
+        <f t="shared" ref="U166:U170" si="57">V166*T166</f>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="V166" s="67">
+        <f t="shared" ref="V166:V170" si="58">H166*S166</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="W166" s="67">
+        <v>4</v>
+      </c>
+      <c r="X166" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="Y166" s="66">
+        <f t="shared" ref="Y166:Y170" si="59">(I166-V166-W166-X166-U166)</f>
+        <v>6.0199999999999987</v>
+      </c>
+      <c r="Z166" s="5">
+        <f t="shared" ref="Z166:Z170" si="60">(Y166/V166)</f>
+        <v>0.30714285714285705</v>
+      </c>
+      <c r="AA166" s="73">
+        <f>SUM(Y166:Y170)</f>
+        <v>116.21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A167" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="31">
+        <v>34</v>
+      </c>
+      <c r="E167" s="31">
+        <v>10</v>
+      </c>
+      <c r="F167" s="31">
+        <v>2</v>
+      </c>
+      <c r="G167" s="31">
+        <v>2</v>
+      </c>
+      <c r="H167" s="31">
+        <v>2</v>
+      </c>
+      <c r="I167" s="32">
+        <v>158</v>
+      </c>
+      <c r="J167" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K167" s="31">
+        <v>2</v>
+      </c>
+      <c r="L167" s="32">
+        <v>15.8</v>
+      </c>
+      <c r="M167" s="34">
+        <v>1</v>
+      </c>
+      <c r="N167" s="31">
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q167" s="75"/>
+      <c r="R167" s="67">
+        <f t="shared" si="56"/>
+        <v>79</v>
+      </c>
+      <c r="S167" s="67"/>
+      <c r="T167" s="46"/>
+      <c r="U167" s="67"/>
+      <c r="V167" s="67"/>
+      <c r="W167" s="67"/>
+      <c r="X167" s="67"/>
+      <c r="Y167" s="66"/>
+      <c r="AA167" s="74"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A168" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="31">
+        <v>41</v>
+      </c>
+      <c r="E168" s="31">
+        <v>23</v>
+      </c>
+      <c r="F168" s="31">
+        <v>1</v>
+      </c>
+      <c r="G168" s="31">
+        <v>1</v>
+      </c>
+      <c r="H168" s="31">
+        <v>1</v>
+      </c>
+      <c r="I168" s="32">
+        <v>70</v>
+      </c>
+      <c r="J168" s="33">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" s="32">
+        <v>3.04</v>
+      </c>
+      <c r="M168" s="34">
+        <v>1</v>
+      </c>
+      <c r="N168" s="31">
+        <v>2</v>
+      </c>
+      <c r="O168" s="31">
+        <v>2</v>
+      </c>
+      <c r="P168" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q168" s="75"/>
+      <c r="R168" s="67">
+        <f t="shared" si="56"/>
+        <v>70</v>
+      </c>
+      <c r="S168" s="67">
+        <v>53</v>
+      </c>
+      <c r="T168" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U168" s="67">
+        <f t="shared" si="57"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="V168" s="67">
+        <f t="shared" si="58"/>
+        <v>53</v>
+      </c>
+      <c r="W168" s="67">
+        <v>4</v>
+      </c>
+      <c r="X168" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="Y168" s="66">
+        <f t="shared" si="59"/>
+        <v>9.15</v>
+      </c>
+      <c r="Z168" s="5">
+        <f t="shared" si="60"/>
+        <v>0.17264150943396228</v>
+      </c>
+      <c r="AA168" s="74"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A169" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="31">
+        <v>7</v>
+      </c>
+      <c r="E169" s="31">
+        <v>2</v>
+      </c>
+      <c r="F169" s="31">
+        <v>1</v>
+      </c>
+      <c r="G169" s="31">
+        <v>1</v>
+      </c>
+      <c r="H169" s="31">
+        <v>1</v>
+      </c>
+      <c r="I169" s="32">
+        <v>39</v>
+      </c>
+      <c r="J169" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" s="32">
+        <v>19.5</v>
+      </c>
+      <c r="M169" s="34">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="67">
+        <f t="shared" si="56"/>
+        <v>39</v>
+      </c>
+      <c r="S169" s="67">
+        <v>17</v>
+      </c>
+      <c r="T169" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U169" s="67">
+        <f t="shared" si="57"/>
+        <v>1.36</v>
+      </c>
+      <c r="V169" s="67">
+        <f t="shared" si="58"/>
+        <v>17</v>
+      </c>
+      <c r="W169" s="67">
+        <v>4</v>
+      </c>
+      <c r="X169" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="Y169" s="66">
+        <f t="shared" si="59"/>
+        <v>15.440000000000001</v>
+      </c>
+      <c r="Z169" s="5">
+        <f t="shared" si="60"/>
+        <v>0.90823529411764714</v>
+      </c>
+      <c r="AA169" s="74"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A170" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="31">
+        <v>6</v>
+      </c>
+      <c r="E170" s="31">
+        <v>1</v>
+      </c>
+      <c r="F170" s="31">
+        <v>1</v>
+      </c>
+      <c r="G170" s="31">
+        <v>1</v>
+      </c>
+      <c r="H170" s="31">
+        <v>1</v>
+      </c>
+      <c r="I170" s="32">
+        <v>188</v>
+      </c>
+      <c r="J170" s="34">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" s="32">
+        <v>188</v>
+      </c>
+      <c r="M170" s="34">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="67">
+        <f t="shared" si="56"/>
+        <v>188</v>
+      </c>
+      <c r="S170" s="67">
+        <v>90</v>
+      </c>
+      <c r="T170" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U170" s="67">
+        <f t="shared" si="57"/>
+        <v>7.2</v>
+      </c>
+      <c r="V170" s="67">
+        <f t="shared" si="58"/>
+        <v>90</v>
+      </c>
+      <c r="W170" s="67">
+        <v>4</v>
+      </c>
+      <c r="X170" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="Y170" s="66">
+        <f t="shared" si="59"/>
+        <v>85.6</v>
+      </c>
+      <c r="Z170" s="5">
+        <f t="shared" si="60"/>
+        <v>0.95111111111111102</v>
+      </c>
+      <c r="AA170" s="74"/>
+    </row>
+    <row r="171" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I171" s="54"/>
+      <c r="P171" s="55"/>
+      <c r="Q171" s="56"/>
+      <c r="T171" s="57"/>
+      <c r="Y171" s="58"/>
+      <c r="Z171" s="59"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A172" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="31">
+        <v>16</v>
+      </c>
+      <c r="E172" s="31">
+        <v>9</v>
+      </c>
+      <c r="F172" s="31">
+        <v>2</v>
+      </c>
+      <c r="G172" s="31">
+        <v>2</v>
+      </c>
+      <c r="H172" s="31">
+        <v>4</v>
+      </c>
+      <c r="I172" s="32">
+        <v>84</v>
+      </c>
+      <c r="J172" s="33">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K172" s="61">
+        <v>0</v>
+      </c>
+      <c r="L172" s="32">
+        <v>9.33</v>
+      </c>
+      <c r="M172" s="33">
+        <v>0</v>
+      </c>
+      <c r="N172" s="31">
+        <v>1</v>
+      </c>
+      <c r="O172" s="61">
+        <v>0</v>
+      </c>
+      <c r="P172" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q172" s="72">
+        <v>20170317</v>
+      </c>
+      <c r="R172" s="69">
+        <f t="shared" ref="R172:R183" si="61">I172/H172</f>
+        <v>21</v>
+      </c>
+      <c r="S172" s="69">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T172" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U172" s="69">
+        <f t="shared" ref="U172:U183" si="62">V172*T172</f>
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="V172" s="69">
+        <f t="shared" ref="V172:V183" si="63">H172*S172</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="W172" s="69">
+        <v>4</v>
+      </c>
+      <c r="X172" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y172" s="68">
+        <f t="shared" ref="Y172:Y183" si="64">(I172-V172-W172-X172-U172)</f>
+        <v>37.639999999999993</v>
+      </c>
+      <c r="Z172" s="5">
+        <f t="shared" ref="Z172:Z183" si="65">(Y172/V172)</f>
+        <v>0.96020408163265281</v>
+      </c>
+      <c r="AA172" s="73">
+        <f>SUM(Y172:Y183)</f>
+        <v>437.73499999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A173" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="31">
+        <v>4</v>
+      </c>
+      <c r="E173" s="31">
+        <v>3</v>
+      </c>
+      <c r="F173" s="31">
+        <v>1</v>
+      </c>
+      <c r="G173" s="31">
+        <v>1</v>
+      </c>
+      <c r="H173" s="31">
+        <v>3</v>
+      </c>
+      <c r="I173" s="32">
+        <v>75</v>
+      </c>
+      <c r="J173" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K173" s="61">
+        <v>0</v>
+      </c>
+      <c r="L173" s="32">
+        <v>25</v>
+      </c>
+      <c r="M173" s="34">
+        <v>1</v>
+      </c>
+      <c r="N173" s="31">
+        <v>2</v>
+      </c>
+      <c r="O173" s="61">
+        <v>0</v>
+      </c>
+      <c r="P173" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q173" s="72"/>
+      <c r="R173" s="69">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="S173" s="69">
+        <v>18</v>
+      </c>
+      <c r="T173" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U173" s="69">
+        <f t="shared" si="62"/>
+        <v>2.7</v>
+      </c>
+      <c r="V173" s="69">
+        <f t="shared" si="63"/>
+        <v>54</v>
+      </c>
+      <c r="W173" s="69">
+        <v>4</v>
+      </c>
+      <c r="X173" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y173" s="68">
+        <f t="shared" si="64"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="Z173" s="5">
+        <f t="shared" si="65"/>
+        <v>0.24259259259259261</v>
+      </c>
+      <c r="AA173" s="74"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A174" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="31">
+        <v>12</v>
+      </c>
+      <c r="E174" s="31">
+        <v>9</v>
+      </c>
+      <c r="F174" s="31">
+        <v>1</v>
+      </c>
+      <c r="G174" s="31">
+        <v>1</v>
+      </c>
+      <c r="H174" s="31">
+        <v>3</v>
+      </c>
+      <c r="I174" s="32">
+        <v>56.7</v>
+      </c>
+      <c r="J174" s="33">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K174" s="61">
+        <v>0</v>
+      </c>
+      <c r="L174" s="32">
+        <v>6.3</v>
+      </c>
+      <c r="M174" s="33">
+        <v>0</v>
+      </c>
+      <c r="N174" s="61">
+        <v>0</v>
+      </c>
+      <c r="O174" s="61">
+        <v>0</v>
+      </c>
+      <c r="P174" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q174" s="72"/>
+      <c r="R174" s="69">
+        <f t="shared" si="61"/>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="S174" s="69">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="T174" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U174" s="69">
+        <f t="shared" si="62"/>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="V174" s="69">
+        <f t="shared" si="63"/>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="W174" s="69">
+        <v>4</v>
+      </c>
+      <c r="X174" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y174" s="68">
+        <f t="shared" si="64"/>
+        <v>20.945000000000007</v>
+      </c>
+      <c r="Z174" s="5">
+        <f t="shared" si="65"/>
+        <v>0.71975945017182164</v>
+      </c>
+      <c r="AA174" s="74"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A175" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="31">
+        <v>29</v>
+      </c>
+      <c r="E175" s="31">
+        <v>16</v>
+      </c>
+      <c r="F175" s="31">
+        <v>1</v>
+      </c>
+      <c r="G175" s="31">
+        <v>1</v>
+      </c>
+      <c r="H175" s="31">
+        <v>2</v>
+      </c>
+      <c r="I175" s="32">
+        <v>78</v>
+      </c>
+      <c r="J175" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K175" s="31">
+        <v>1</v>
+      </c>
+      <c r="L175" s="32">
+        <v>4.88</v>
+      </c>
+      <c r="M175" s="33">
+        <v>0</v>
+      </c>
+      <c r="N175" s="61">
+        <v>0</v>
+      </c>
+      <c r="O175" s="31">
+        <v>3</v>
+      </c>
+      <c r="P175" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q175" s="72"/>
+      <c r="R175" s="69">
+        <f t="shared" si="61"/>
+        <v>39</v>
+      </c>
+      <c r="S175" s="69">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T175" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U175" s="69">
+        <f t="shared" si="62"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="V175" s="69">
+        <f t="shared" si="63"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="W175" s="69">
+        <v>4</v>
+      </c>
+      <c r="X175" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y175" s="68">
+        <f t="shared" si="64"/>
+        <v>52.22</v>
+      </c>
+      <c r="Z175" s="5">
+        <f t="shared" si="65"/>
+        <v>2.6642857142857141</v>
+      </c>
+      <c r="AA175" s="74"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A176" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="31">
+        <v>17</v>
+      </c>
+      <c r="E176" s="31">
+        <v>9</v>
+      </c>
+      <c r="F176" s="31">
+        <v>1</v>
+      </c>
+      <c r="G176" s="31">
+        <v>1</v>
+      </c>
+      <c r="H176" s="31">
+        <v>2</v>
+      </c>
+      <c r="I176" s="32">
+        <v>31.8</v>
+      </c>
+      <c r="J176" s="33">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K176" s="61">
+        <v>0</v>
+      </c>
+      <c r="L176" s="32">
+        <v>3.53</v>
+      </c>
+      <c r="M176" s="34">
+        <v>1</v>
+      </c>
+      <c r="N176" s="61">
+        <v>0</v>
+      </c>
+      <c r="O176" s="61">
+        <v>0</v>
+      </c>
+      <c r="P176" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176" s="72"/>
+      <c r="R176" s="69">
+        <f t="shared" si="61"/>
+        <v>15.9</v>
+      </c>
+      <c r="S176" s="69">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="T176" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U176" s="69">
+        <f t="shared" si="62"/>
+        <v>0.97</v>
+      </c>
+      <c r="V176" s="69">
+        <f t="shared" si="63"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="W176" s="69">
+        <v>4</v>
+      </c>
+      <c r="X176" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y176" s="68">
+        <f t="shared" si="64"/>
+        <v>6.2300000000000022</v>
+      </c>
+      <c r="Z176" s="5">
+        <f t="shared" si="65"/>
+        <v>0.32113402061855684</v>
+      </c>
+      <c r="AA176" s="74"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A177" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="31">
+        <v>9</v>
+      </c>
+      <c r="E177" s="31">
+        <v>4</v>
+      </c>
+      <c r="F177" s="31">
+        <v>2</v>
+      </c>
+      <c r="G177" s="31">
+        <v>2</v>
+      </c>
+      <c r="H177" s="31">
+        <v>2</v>
+      </c>
+      <c r="I177" s="32">
+        <v>158</v>
+      </c>
+      <c r="J177" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K177" s="31">
+        <v>2</v>
+      </c>
+      <c r="L177" s="32">
+        <v>39.5</v>
+      </c>
+      <c r="M177" s="34">
+        <v>1</v>
+      </c>
+      <c r="N177" s="31">
+        <v>1</v>
+      </c>
+      <c r="O177" s="61">
+        <v>0</v>
+      </c>
+      <c r="P177" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q177" s="72"/>
+      <c r="R177" s="69">
+        <f t="shared" si="61"/>
+        <v>79</v>
+      </c>
+      <c r="S177" s="69"/>
+      <c r="T177" s="46"/>
+      <c r="U177" s="69"/>
+      <c r="V177" s="69"/>
+      <c r="W177" s="69"/>
+      <c r="X177" s="69"/>
+      <c r="Y177" s="68"/>
+      <c r="AA177" s="74"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A178" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="31">
+        <v>37</v>
+      </c>
+      <c r="E178" s="31">
+        <v>17</v>
+      </c>
+      <c r="F178" s="31">
+        <v>1</v>
+      </c>
+      <c r="G178" s="31">
+        <v>1</v>
+      </c>
+      <c r="H178" s="31">
+        <v>1</v>
+      </c>
+      <c r="I178" s="32">
+        <v>70</v>
+      </c>
+      <c r="J178" s="33">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K178" s="31">
+        <v>1</v>
+      </c>
+      <c r="L178" s="32">
+        <v>4.12</v>
+      </c>
+      <c r="M178" s="34">
+        <v>1</v>
+      </c>
+      <c r="N178" s="61">
+        <v>0</v>
+      </c>
+      <c r="O178" s="61">
+        <v>0</v>
+      </c>
+      <c r="P178" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q178" s="72"/>
+      <c r="R178" s="69">
+        <f t="shared" si="61"/>
+        <v>70</v>
+      </c>
+      <c r="S178" s="69">
+        <v>53</v>
+      </c>
+      <c r="T178" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U178" s="69">
+        <f t="shared" si="62"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="V178" s="69">
+        <f t="shared" si="63"/>
+        <v>53</v>
+      </c>
+      <c r="W178" s="69">
+        <v>4</v>
+      </c>
+      <c r="X178" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y178" s="68">
+        <f t="shared" si="64"/>
+        <v>9.15</v>
+      </c>
+      <c r="Z178" s="5">
+        <f t="shared" si="65"/>
+        <v>0.17264150943396228</v>
+      </c>
+      <c r="AA178" s="74"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A179" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="31">
+        <v>2</v>
+      </c>
+      <c r="E179" s="31">
+        <v>2</v>
+      </c>
+      <c r="F179" s="31">
+        <v>1</v>
+      </c>
+      <c r="G179" s="31">
+        <v>1</v>
+      </c>
+      <c r="H179" s="31">
+        <v>1</v>
+      </c>
+      <c r="I179" s="32">
+        <v>189</v>
+      </c>
+      <c r="J179" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K179" s="61">
+        <v>0</v>
+      </c>
+      <c r="L179" s="32">
+        <v>94.5</v>
+      </c>
+      <c r="M179" s="33">
+        <v>0</v>
+      </c>
+      <c r="N179" s="61">
+        <v>0</v>
+      </c>
+      <c r="O179" s="61">
+        <v>0</v>
+      </c>
+      <c r="P179" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q179" s="72"/>
+      <c r="R179" s="69">
+        <f t="shared" si="61"/>
+        <v>189</v>
+      </c>
+      <c r="S179" s="69">
+        <v>55</v>
+      </c>
+      <c r="T179" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U179" s="69">
+        <f t="shared" si="62"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V179" s="69">
+        <f t="shared" si="63"/>
+        <v>55</v>
+      </c>
+      <c r="W179" s="69">
+        <v>4</v>
+      </c>
+      <c r="X179" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y179" s="68">
+        <f t="shared" si="64"/>
+        <v>124.4</v>
+      </c>
+      <c r="Z179" s="5">
+        <f t="shared" si="65"/>
+        <v>2.2618181818181817</v>
+      </c>
+      <c r="AA179" s="74"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A180" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="31">
+        <v>26</v>
+      </c>
+      <c r="E180" s="31">
+        <v>16</v>
+      </c>
+      <c r="F180" s="31">
+        <v>1</v>
+      </c>
+      <c r="G180" s="31">
+        <v>1</v>
+      </c>
+      <c r="H180" s="31">
+        <v>1</v>
+      </c>
+      <c r="I180" s="32">
+        <v>49</v>
+      </c>
+      <c r="J180" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K180" s="61">
+        <v>0</v>
+      </c>
+      <c r="L180" s="32">
+        <v>3.06</v>
+      </c>
+      <c r="M180" s="33">
+        <v>0</v>
+      </c>
+      <c r="N180" s="61">
+        <v>0</v>
+      </c>
+      <c r="O180" s="31">
+        <v>1</v>
+      </c>
+      <c r="P180" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q180" s="72"/>
+      <c r="R180" s="69">
+        <f t="shared" si="61"/>
+        <v>49</v>
+      </c>
+      <c r="S180" s="69">
+        <v>27</v>
+      </c>
+      <c r="T180" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U180" s="69">
+        <f t="shared" si="62"/>
+        <v>1.35</v>
+      </c>
+      <c r="V180" s="69">
+        <f t="shared" si="63"/>
+        <v>27</v>
+      </c>
+      <c r="W180" s="69">
+        <v>4</v>
+      </c>
+      <c r="X180" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y180" s="68">
+        <f t="shared" si="64"/>
+        <v>15.450000000000001</v>
+      </c>
+      <c r="Z180" s="5">
+        <f t="shared" si="65"/>
+        <v>0.5722222222222223</v>
+      </c>
+      <c r="AA180" s="74"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A181" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="31">
+        <v>3</v>
+      </c>
+      <c r="E181" s="31">
+        <v>3</v>
+      </c>
+      <c r="F181" s="31">
+        <v>1</v>
+      </c>
+      <c r="G181" s="31">
+        <v>1</v>
+      </c>
+      <c r="H181" s="31">
+        <v>1</v>
+      </c>
+      <c r="I181" s="32">
+        <v>30</v>
+      </c>
+      <c r="J181" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K181" s="61">
+        <v>0</v>
+      </c>
+      <c r="L181" s="32">
+        <v>10</v>
+      </c>
+      <c r="M181" s="33">
+        <v>0</v>
+      </c>
+      <c r="N181" s="61">
+        <v>0</v>
+      </c>
+      <c r="O181" s="61">
+        <v>0</v>
+      </c>
+      <c r="P181" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q181" s="72"/>
+      <c r="R181" s="69">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="S181" s="69">
+        <v>12</v>
+      </c>
+      <c r="T181" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U181" s="69">
+        <f t="shared" si="62"/>
+        <v>0.96</v>
+      </c>
+      <c r="V181" s="69">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="W181" s="69">
+        <v>4</v>
+      </c>
+      <c r="X181" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y181" s="68">
+        <f t="shared" si="64"/>
+        <v>11.84</v>
+      </c>
+      <c r="Z181" s="5">
+        <f t="shared" si="65"/>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="AA181" s="74"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A182" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="31">
+        <v>5</v>
+      </c>
+      <c r="E182" s="31">
+        <v>2</v>
+      </c>
+      <c r="F182" s="31">
+        <v>1</v>
+      </c>
+      <c r="G182" s="31">
+        <v>1</v>
+      </c>
+      <c r="H182" s="31">
+        <v>1</v>
+      </c>
+      <c r="I182" s="32">
+        <v>28</v>
+      </c>
+      <c r="J182" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K182" s="61">
+        <v>0</v>
+      </c>
+      <c r="L182" s="32">
+        <v>14</v>
+      </c>
+      <c r="M182" s="34">
+        <v>1</v>
+      </c>
+      <c r="N182" s="61">
+        <v>0</v>
+      </c>
+      <c r="O182" s="61">
+        <v>0</v>
+      </c>
+      <c r="P182" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q182" s="72"/>
+      <c r="R182" s="69">
+        <f t="shared" si="61"/>
+        <v>28</v>
+      </c>
+      <c r="S182" s="69">
+        <v>12</v>
+      </c>
+      <c r="T182" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U182" s="69">
+        <f t="shared" si="62"/>
+        <v>0.96</v>
+      </c>
+      <c r="V182" s="69">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="W182" s="69">
+        <v>4</v>
+      </c>
+      <c r="X182" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y182" s="68">
+        <f t="shared" si="64"/>
+        <v>9.84</v>
+      </c>
+      <c r="Z182" s="5">
+        <f t="shared" si="65"/>
+        <v>0.82</v>
+      </c>
+      <c r="AA182" s="74"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A183" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="31">
+        <v>40</v>
+      </c>
+      <c r="E183" s="31">
+        <v>27</v>
+      </c>
+      <c r="F183" s="31">
+        <v>1</v>
+      </c>
+      <c r="G183" s="31">
+        <v>1</v>
+      </c>
+      <c r="H183" s="31">
+        <v>1</v>
+      </c>
+      <c r="I183" s="32">
+        <v>208</v>
+      </c>
+      <c r="J183" s="33">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="K183" s="31">
+        <v>1</v>
+      </c>
+      <c r="L183" s="32">
+        <v>7.7</v>
+      </c>
+      <c r="M183" s="34">
+        <v>1</v>
+      </c>
+      <c r="N183" s="31">
+        <v>2</v>
+      </c>
+      <c r="O183" s="31">
+        <v>4</v>
+      </c>
+      <c r="P183" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q183" s="72"/>
+      <c r="R183" s="69">
+        <f t="shared" si="61"/>
+        <v>208</v>
+      </c>
+      <c r="S183" s="69">
+        <v>61</v>
+      </c>
+      <c r="T183" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U183" s="69">
+        <f t="shared" si="62"/>
+        <v>4.88</v>
+      </c>
+      <c r="V183" s="69">
+        <f t="shared" si="63"/>
+        <v>61</v>
+      </c>
+      <c r="W183" s="69">
+        <v>4</v>
+      </c>
+      <c r="X183" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="Y183" s="68">
+        <f t="shared" si="64"/>
+        <v>136.92000000000002</v>
+      </c>
+      <c r="Z183" s="5">
+        <f t="shared" si="65"/>
+        <v>2.2445901639344266</v>
+      </c>
+      <c r="AA183" s="74"/>
+    </row>
+    <row r="184" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I184" s="54"/>
+      <c r="P184" s="55"/>
+      <c r="Q184" s="56"/>
+      <c r="R184" s="71"/>
+      <c r="S184" s="71"/>
+      <c r="T184" s="46"/>
+      <c r="U184" s="71"/>
+      <c r="V184" s="71"/>
+      <c r="W184" s="71"/>
+      <c r="X184" s="71"/>
+      <c r="Y184" s="70"/>
+      <c r="Z184" s="5"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A185" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="31">
+        <v>6</v>
+      </c>
+      <c r="E185" s="31">
+        <v>4</v>
+      </c>
+      <c r="F185" s="31">
+        <v>4</v>
+      </c>
+      <c r="G185" s="31">
+        <v>4</v>
+      </c>
+      <c r="H185" s="31">
+        <v>5</v>
+      </c>
+      <c r="I185" s="32">
+        <v>19.8</v>
+      </c>
+      <c r="J185" s="34">
+        <v>1</v>
+      </c>
+      <c r="K185" s="61">
+        <v>0</v>
+      </c>
+      <c r="L185" s="32">
+        <v>4.95</v>
+      </c>
+      <c r="M185" s="34">
+        <v>1</v>
+      </c>
+      <c r="N185" s="61">
+        <v>0</v>
+      </c>
+      <c r="O185" s="61">
+        <v>0</v>
+      </c>
+      <c r="P185" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q185" s="77">
+        <v>20170318</v>
+      </c>
+      <c r="R185" s="71">
+        <f t="shared" ref="R184:R191" si="66">I185/H185</f>
+        <v>3.96</v>
+      </c>
+      <c r="S185" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="T185" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U185" s="71">
+        <f t="shared" ref="U184:U191" si="67">V185*T185</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="V185" s="71">
+        <f t="shared" ref="V184:V191" si="68">H185*S185</f>
+        <v>17.5</v>
+      </c>
+      <c r="W185" s="71">
+        <v>4</v>
+      </c>
+      <c r="X185" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y185" s="70">
+        <f t="shared" ref="Y184:Y191" si="69">(I185-V185-W185-X185-U185)</f>
+        <v>-4.3</v>
+      </c>
+      <c r="Z185" s="5">
+        <f t="shared" ref="Z184:Z191" si="70">(Y185/V185)</f>
+        <v>-0.24571428571428569</v>
+      </c>
+      <c r="AA185" s="73">
+        <f>SUM(Y185:Y191)</f>
+        <v>158.95499999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A186" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="31">
+        <v>38</v>
+      </c>
+      <c r="E186" s="31">
+        <v>14</v>
+      </c>
+      <c r="F186" s="31">
+        <v>2</v>
+      </c>
+      <c r="G186" s="31">
+        <v>2</v>
+      </c>
+      <c r="H186" s="31">
+        <v>3</v>
+      </c>
+      <c r="I186" s="32">
+        <v>207</v>
+      </c>
+      <c r="J186" s="33">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K186" s="31">
+        <v>1</v>
+      </c>
+      <c r="L186" s="32">
+        <v>14.79</v>
+      </c>
+      <c r="M186" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="N186" s="61">
+        <v>0</v>
+      </c>
+      <c r="O186" s="61">
+        <v>0</v>
+      </c>
+      <c r="P186" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q186" s="77"/>
+      <c r="R186" s="71">
+        <f t="shared" si="66"/>
+        <v>69</v>
+      </c>
+      <c r="S186" s="71">
+        <v>22</v>
+      </c>
+      <c r="T186" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U186" s="71">
+        <f t="shared" si="67"/>
+        <v>5.28</v>
+      </c>
+      <c r="V186" s="71">
+        <f t="shared" si="68"/>
+        <v>66</v>
+      </c>
+      <c r="W186" s="71">
+        <v>4</v>
+      </c>
+      <c r="X186" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y186" s="70">
+        <f t="shared" si="69"/>
+        <v>130.52000000000001</v>
+      </c>
+      <c r="Z186" s="5">
+        <f t="shared" si="70"/>
+        <v>1.9775757575757578</v>
+      </c>
+      <c r="AA186" s="74"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A187" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="31">
+        <v>19</v>
+      </c>
+      <c r="E187" s="31">
+        <v>6</v>
+      </c>
+      <c r="F187" s="31">
+        <v>2</v>
+      </c>
+      <c r="G187" s="31">
+        <v>2</v>
+      </c>
+      <c r="H187" s="31">
+        <v>2</v>
+      </c>
+      <c r="I187" s="32">
+        <v>158</v>
+      </c>
+      <c r="J187" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K187" s="31">
+        <v>2</v>
+      </c>
+      <c r="L187" s="32">
+        <v>26.33</v>
+      </c>
+      <c r="M187" s="34">
+        <v>1</v>
+      </c>
+      <c r="N187" s="61">
+        <v>0</v>
+      </c>
+      <c r="O187" s="61">
+        <v>0</v>
+      </c>
+      <c r="P187" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q187" s="77"/>
+      <c r="R187" s="71">
+        <f t="shared" si="66"/>
+        <v>79</v>
+      </c>
+      <c r="S187" s="71"/>
+      <c r="T187" s="46"/>
+      <c r="U187" s="71"/>
+      <c r="V187" s="71"/>
+      <c r="W187" s="71"/>
+      <c r="X187" s="71"/>
+      <c r="Y187" s="70"/>
+      <c r="AA187" s="74"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A188" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="31">
+        <v>34</v>
+      </c>
+      <c r="E188" s="31">
+        <v>16</v>
+      </c>
+      <c r="F188" s="31">
+        <v>1</v>
+      </c>
+      <c r="G188" s="31">
+        <v>1</v>
+      </c>
+      <c r="H188" s="31">
+        <v>1</v>
+      </c>
+      <c r="I188" s="32">
+        <v>70</v>
+      </c>
+      <c r="J188" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K188" s="61">
+        <v>0</v>
+      </c>
+      <c r="L188" s="32">
+        <v>4.38</v>
+      </c>
+      <c r="M188" s="34">
+        <v>1</v>
+      </c>
+      <c r="N188" s="61">
+        <v>0</v>
+      </c>
+      <c r="O188" s="31">
+        <v>2</v>
+      </c>
+      <c r="P188" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q188" s="77"/>
+      <c r="R188" s="71">
+        <f t="shared" si="66"/>
+        <v>70</v>
+      </c>
+      <c r="S188" s="71">
+        <v>53</v>
+      </c>
+      <c r="T188" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U188" s="71">
+        <f t="shared" si="67"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="V188" s="71">
+        <f t="shared" si="68"/>
+        <v>53</v>
+      </c>
+      <c r="W188" s="71">
+        <v>4</v>
+      </c>
+      <c r="X188" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y188" s="70">
+        <f t="shared" si="69"/>
+        <v>9.15</v>
+      </c>
+      <c r="Z188" s="5">
+        <f t="shared" si="70"/>
+        <v>0.17264150943396228</v>
+      </c>
+      <c r="AA188" s="74"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A189" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="31">
+        <v>8</v>
+      </c>
+      <c r="E189" s="31">
+        <v>5</v>
+      </c>
+      <c r="F189" s="31">
+        <v>1</v>
+      </c>
+      <c r="G189" s="31">
+        <v>1</v>
+      </c>
+      <c r="H189" s="31">
+        <v>1</v>
+      </c>
+      <c r="I189" s="32">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J189" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K189" s="61">
+        <v>0</v>
+      </c>
+      <c r="L189" s="32">
+        <v>3.78</v>
+      </c>
+      <c r="M189" s="34">
+        <v>1</v>
+      </c>
+      <c r="N189" s="61">
+        <v>0</v>
+      </c>
+      <c r="O189" s="31">
+        <v>1</v>
+      </c>
+      <c r="P189" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q189" s="77"/>
+      <c r="R189" s="71">
+        <f t="shared" si="66"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="S189" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="T189" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U189" s="71">
+        <f t="shared" si="67"/>
+        <v>0.375</v>
+      </c>
+      <c r="V189" s="71">
+        <f t="shared" si="68"/>
+        <v>7.5</v>
+      </c>
+      <c r="W189" s="71">
+        <v>4</v>
+      </c>
+      <c r="X189" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y189" s="70">
+        <f t="shared" si="69"/>
+        <v>5.8249999999999984</v>
+      </c>
+      <c r="Z189" s="5">
+        <f t="shared" si="70"/>
+        <v>0.77666666666666651</v>
+      </c>
+      <c r="AA189" s="74"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A190" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="31">
+        <v>3</v>
+      </c>
+      <c r="E190" s="31">
+        <v>2</v>
+      </c>
+      <c r="F190" s="31">
+        <v>1</v>
+      </c>
+      <c r="G190" s="31">
+        <v>1</v>
+      </c>
+      <c r="H190" s="31">
+        <v>1</v>
+      </c>
+      <c r="I190" s="32">
+        <v>9.9</v>
+      </c>
+      <c r="J190" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K190" s="61">
+        <v>0</v>
+      </c>
+      <c r="L190" s="32">
+        <v>4.95</v>
+      </c>
+      <c r="M190" s="34">
+        <v>1</v>
+      </c>
+      <c r="N190" s="61">
+        <v>0</v>
+      </c>
+      <c r="O190" s="61">
+        <v>0</v>
+      </c>
+      <c r="P190" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q190" s="77"/>
+      <c r="R190" s="71">
+        <f t="shared" si="66"/>
+        <v>9.9</v>
+      </c>
+      <c r="S190" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="T190" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U190" s="71">
+        <f t="shared" si="67"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V190" s="71">
+        <f t="shared" si="68"/>
+        <v>3.5</v>
+      </c>
+      <c r="W190" s="71">
+        <v>4</v>
+      </c>
+      <c r="X190" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y190" s="70">
+        <f t="shared" si="69"/>
+        <v>0.92000000000000037</v>
+      </c>
+      <c r="Z190" s="5">
+        <f t="shared" si="70"/>
+        <v>0.26285714285714296</v>
+      </c>
+      <c r="AA190" s="74"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A191" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="61">
+        <v>0</v>
+      </c>
+      <c r="E191" s="61">
+        <v>0</v>
+      </c>
+      <c r="F191" s="31">
+        <v>1</v>
+      </c>
+      <c r="G191" s="31">
+        <v>1</v>
+      </c>
+      <c r="H191" s="31">
+        <v>1</v>
+      </c>
+      <c r="I191" s="32">
+        <v>35</v>
+      </c>
+      <c r="J191" s="33">
+        <v>0</v>
+      </c>
+      <c r="K191" s="61">
+        <v>0</v>
+      </c>
+      <c r="L191" s="60">
+        <v>0</v>
+      </c>
+      <c r="M191" s="34">
+        <v>1</v>
+      </c>
+      <c r="N191" s="61">
+        <v>0</v>
+      </c>
+      <c r="O191" s="61">
+        <v>0</v>
+      </c>
+      <c r="P191" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q191" s="77"/>
+      <c r="R191" s="71">
+        <f t="shared" si="66"/>
+        <v>35</v>
+      </c>
+      <c r="S191" s="71">
+        <v>12</v>
+      </c>
+      <c r="T191" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U191" s="71">
+        <f t="shared" si="67"/>
+        <v>0.96</v>
+      </c>
+      <c r="V191" s="71">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+      <c r="W191" s="71">
+        <v>4</v>
+      </c>
+      <c r="X191" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y191" s="70">
+        <f t="shared" si="69"/>
+        <v>16.84</v>
+      </c>
+      <c r="Z191" s="5">
+        <f t="shared" si="70"/>
+        <v>1.4033333333333333</v>
+      </c>
+      <c r="AA191" s="74"/>
+    </row>
+    <row r="192" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I192" s="54"/>
+      <c r="P192" s="55"/>
+      <c r="Q192" s="56"/>
+      <c r="R192" s="71"/>
+      <c r="S192" s="71"/>
+      <c r="T192" s="46"/>
+      <c r="U192" s="71"/>
+      <c r="V192" s="71"/>
+      <c r="W192" s="71"/>
+      <c r="X192" s="71"/>
+      <c r="Y192" s="70"/>
+      <c r="Z192" s="5"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A193" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="31">
+        <v>40</v>
+      </c>
+      <c r="E193" s="31">
+        <v>22</v>
+      </c>
+      <c r="F193" s="31">
+        <v>2</v>
+      </c>
+      <c r="G193" s="31">
+        <v>2</v>
+      </c>
+      <c r="H193" s="31">
+        <v>5</v>
+      </c>
+      <c r="I193" s="32">
+        <v>350</v>
+      </c>
+      <c r="J193" s="33">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K193" s="61">
+        <v>0</v>
+      </c>
+      <c r="L193" s="32">
+        <v>15.91</v>
+      </c>
+      <c r="M193" s="34">
+        <v>1</v>
+      </c>
+      <c r="N193" s="31">
+        <v>2</v>
+      </c>
+      <c r="O193" s="31">
+        <v>1</v>
+      </c>
+      <c r="P193" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q193" s="75">
+        <v>20170319</v>
+      </c>
+      <c r="R193" s="71">
+        <f t="shared" ref="R192:R204" si="71">I193/H193</f>
+        <v>70</v>
+      </c>
+      <c r="S193" s="71">
+        <v>53</v>
+      </c>
+      <c r="T193" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U193" s="71">
+        <f t="shared" ref="U192:U204" si="72">V193*T193</f>
+        <v>13.25</v>
+      </c>
+      <c r="V193" s="71">
+        <f t="shared" ref="V192:V204" si="73">H193*S193</f>
+        <v>265</v>
+      </c>
+      <c r="W193" s="71">
+        <v>4</v>
+      </c>
+      <c r="X193" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y193" s="70">
+        <f t="shared" ref="Y192:Y204" si="74">(I193-V193-W193-X193-U193)</f>
+        <v>66.55</v>
+      </c>
+      <c r="Z193" s="5">
+        <f t="shared" ref="Z192:Z204" si="75">(Y193/V193)</f>
+        <v>0.25113207547169808</v>
+      </c>
+      <c r="AA193" s="73">
+        <f>SUM(Y193:Y204)</f>
+        <v>403.62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A194" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="31">
+        <v>14</v>
+      </c>
+      <c r="E194" s="31">
+        <v>5</v>
+      </c>
+      <c r="F194" s="31">
+        <v>1</v>
+      </c>
+      <c r="G194" s="31">
+        <v>1</v>
+      </c>
+      <c r="H194" s="31">
+        <v>4</v>
+      </c>
+      <c r="I194" s="32">
+        <v>51.6</v>
+      </c>
+      <c r="J194" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K194" s="61">
+        <v>0</v>
+      </c>
+      <c r="L194" s="32">
+        <v>10.32</v>
+      </c>
+      <c r="M194" s="34">
+        <v>1</v>
+      </c>
+      <c r="N194" s="61">
+        <v>0</v>
+      </c>
+      <c r="O194" s="61">
+        <v>0</v>
+      </c>
+      <c r="P194" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q194" s="75"/>
+      <c r="R194" s="71">
+        <f t="shared" si="71"/>
+        <v>12.9</v>
+      </c>
+      <c r="S194" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="T194" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U194" s="71">
+        <f t="shared" si="72"/>
+        <v>1.5</v>
+      </c>
+      <c r="V194" s="71">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="W194" s="71">
+        <v>4</v>
+      </c>
+      <c r="X194" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y194" s="70">
+        <f t="shared" si="74"/>
+        <v>14.900000000000002</v>
+      </c>
+      <c r="Z194" s="5">
+        <f t="shared" si="75"/>
+        <v>0.49666666666666676</v>
+      </c>
+      <c r="AA194" s="74"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A195" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C195" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="31">
+        <v>4</v>
+      </c>
+      <c r="E195" s="31">
+        <v>3</v>
+      </c>
+      <c r="F195" s="31">
+        <v>2</v>
+      </c>
+      <c r="G195" s="31">
+        <v>2</v>
+      </c>
+      <c r="H195" s="31">
+        <v>3</v>
+      </c>
+      <c r="I195" s="60">
+        <v>0</v>
+      </c>
+      <c r="J195" s="33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K195" s="61">
+        <v>0</v>
+      </c>
+      <c r="L195" s="60">
+        <v>0</v>
+      </c>
+      <c r="M195" s="34">
+        <v>1</v>
+      </c>
+      <c r="N195" s="31">
+        <v>1</v>
+      </c>
+      <c r="O195" s="61">
+        <v>0</v>
+      </c>
+      <c r="P195" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q195" s="75"/>
+      <c r="R195" s="71">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="S195" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="T195" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U195" s="71">
+        <f t="shared" si="72"/>
+        <v>0.84</v>
+      </c>
+      <c r="V195" s="71">
+        <f t="shared" si="73"/>
+        <v>10.5</v>
+      </c>
+      <c r="W195" s="71">
+        <v>4</v>
+      </c>
+      <c r="X195" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y195" s="70">
+        <f t="shared" si="74"/>
+        <v>-16.54</v>
+      </c>
+      <c r="Z195" s="5">
+        <f t="shared" si="75"/>
+        <v>-1.5752380952380951</v>
+      </c>
+      <c r="AA195" s="74"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A196" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="31">
+        <v>4</v>
+      </c>
+      <c r="E196" s="31">
+        <v>3</v>
+      </c>
+      <c r="F196" s="31">
+        <v>1</v>
+      </c>
+      <c r="G196" s="31">
+        <v>1</v>
+      </c>
+      <c r="H196" s="31">
+        <v>2</v>
+      </c>
+      <c r="I196" s="32">
+        <v>112</v>
+      </c>
+      <c r="J196" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K196" s="61">
+        <v>0</v>
+      </c>
+      <c r="L196" s="32">
+        <v>37.33</v>
+      </c>
+      <c r="M196" s="33">
+        <v>0.89</v>
+      </c>
+      <c r="N196" s="31">
+        <v>2</v>
+      </c>
+      <c r="O196" s="61">
+        <v>0</v>
+      </c>
+      <c r="P196" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q196" s="75"/>
+      <c r="R196" s="71">
+        <f t="shared" si="71"/>
+        <v>56</v>
+      </c>
+      <c r="S196" s="71">
+        <v>18</v>
+      </c>
+      <c r="T196" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U196" s="71">
+        <f t="shared" si="72"/>
+        <v>2.88</v>
+      </c>
+      <c r="V196" s="71">
+        <f t="shared" si="73"/>
+        <v>36</v>
+      </c>
+      <c r="W196" s="71">
+        <v>4</v>
+      </c>
+      <c r="X196" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y196" s="70">
+        <f t="shared" si="74"/>
+        <v>67.92</v>
+      </c>
+      <c r="Z196" s="5">
+        <f t="shared" si="75"/>
+        <v>1.8866666666666667</v>
+      </c>
+      <c r="AA196" s="74"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A197" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="31">
+        <v>26</v>
+      </c>
+      <c r="E197" s="31">
+        <v>15</v>
+      </c>
+      <c r="F197" s="31">
+        <v>2</v>
+      </c>
+      <c r="G197" s="31">
+        <v>2</v>
+      </c>
+      <c r="H197" s="31">
+        <v>2</v>
+      </c>
+      <c r="I197" s="32">
+        <v>98</v>
+      </c>
+      <c r="J197" s="33">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K197" s="31">
+        <v>1</v>
+      </c>
+      <c r="L197" s="32">
+        <v>6.53</v>
+      </c>
+      <c r="M197" s="33">
+        <v>0</v>
+      </c>
+      <c r="N197" s="31">
+        <v>1</v>
+      </c>
+      <c r="O197" s="31">
+        <v>1</v>
+      </c>
+      <c r="P197" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q197" s="75"/>
+      <c r="R197" s="71">
+        <f t="shared" si="71"/>
+        <v>49</v>
+      </c>
+      <c r="S197" s="71">
+        <v>27</v>
+      </c>
+      <c r="T197" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U197" s="71">
+        <f t="shared" si="72"/>
+        <v>2.7</v>
+      </c>
+      <c r="V197" s="71">
+        <f t="shared" si="73"/>
+        <v>54</v>
+      </c>
+      <c r="W197" s="71">
+        <v>4</v>
+      </c>
+      <c r="X197" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y197" s="70">
+        <f t="shared" si="74"/>
+        <v>36.099999999999994</v>
+      </c>
+      <c r="Z197" s="5">
+        <f t="shared" si="75"/>
+        <v>0.6685185185185184</v>
+      </c>
+      <c r="AA197" s="74"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A198" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="31">
+        <v>23</v>
+      </c>
+      <c r="E198" s="31">
+        <v>4</v>
+      </c>
+      <c r="F198" s="31">
+        <v>2</v>
+      </c>
+      <c r="G198" s="31">
+        <v>2</v>
+      </c>
+      <c r="H198" s="31">
+        <v>2</v>
+      </c>
+      <c r="I198" s="32">
+        <v>56</v>
+      </c>
+      <c r="J198" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K198" s="61">
+        <v>0</v>
+      </c>
+      <c r="L198" s="32">
+        <v>14</v>
+      </c>
+      <c r="M198" s="34">
+        <v>1</v>
+      </c>
+      <c r="N198" s="61">
+        <v>0</v>
+      </c>
+      <c r="O198" s="61">
+        <v>0</v>
+      </c>
+      <c r="P198" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q198" s="75"/>
+      <c r="R198" s="71">
+        <f t="shared" si="71"/>
+        <v>28</v>
+      </c>
+      <c r="S198" s="71">
+        <v>12</v>
+      </c>
+      <c r="T198" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U198" s="71">
+        <f t="shared" si="72"/>
+        <v>1.92</v>
+      </c>
+      <c r="V198" s="71">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="W198" s="71">
+        <v>4</v>
+      </c>
+      <c r="X198" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y198" s="70">
+        <f t="shared" si="74"/>
+        <v>24.880000000000003</v>
+      </c>
+      <c r="Z198" s="5">
+        <f t="shared" si="75"/>
+        <v>1.0366666666666668</v>
+      </c>
+      <c r="AA198" s="74"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A199" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B199" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="31">
+        <v>14</v>
+      </c>
+      <c r="E199" s="31">
+        <v>3</v>
+      </c>
+      <c r="F199" s="31">
+        <v>1</v>
+      </c>
+      <c r="G199" s="31">
+        <v>1</v>
+      </c>
+      <c r="H199" s="31">
+        <v>1</v>
+      </c>
+      <c r="I199" s="32">
+        <v>45</v>
+      </c>
+      <c r="J199" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K199" s="61">
+        <v>0</v>
+      </c>
+      <c r="L199" s="32">
+        <v>15</v>
+      </c>
+      <c r="M199" s="33">
+        <v>0</v>
+      </c>
+      <c r="N199" s="61">
+        <v>0</v>
+      </c>
+      <c r="O199" s="61">
+        <v>0</v>
+      </c>
+      <c r="P199" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q199" s="75"/>
+      <c r="R199" s="71">
+        <f t="shared" si="71"/>
+        <v>45</v>
+      </c>
+      <c r="S199" s="71">
+        <v>17</v>
+      </c>
+      <c r="T199" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U199" s="71">
+        <f t="shared" si="72"/>
+        <v>1.36</v>
+      </c>
+      <c r="V199" s="71">
+        <f t="shared" si="73"/>
+        <v>17</v>
+      </c>
+      <c r="W199" s="71">
+        <v>4</v>
+      </c>
+      <c r="X199" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y199" s="70">
+        <f t="shared" si="74"/>
+        <v>21.44</v>
+      </c>
+      <c r="Z199" s="5">
+        <f t="shared" si="75"/>
+        <v>1.2611764705882353</v>
+      </c>
+      <c r="AA199" s="74"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A200" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="31">
+        <v>1</v>
+      </c>
+      <c r="E200" s="31">
+        <v>1</v>
+      </c>
+      <c r="F200" s="31">
+        <v>1</v>
+      </c>
+      <c r="G200" s="31">
+        <v>1</v>
+      </c>
+      <c r="H200" s="31">
+        <v>1</v>
+      </c>
+      <c r="I200" s="32">
+        <v>158</v>
+      </c>
+      <c r="J200" s="34">
+        <v>1</v>
+      </c>
+      <c r="K200" s="61">
+        <v>0</v>
+      </c>
+      <c r="L200" s="32">
+        <v>158</v>
+      </c>
+      <c r="M200" s="34">
+        <v>1</v>
+      </c>
+      <c r="N200" s="61">
+        <v>0</v>
+      </c>
+      <c r="O200" s="61">
+        <v>0</v>
+      </c>
+      <c r="P200" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q200" s="75"/>
+      <c r="R200" s="71">
+        <f t="shared" si="71"/>
+        <v>158</v>
+      </c>
+      <c r="S200" s="71">
+        <v>40</v>
+      </c>
+      <c r="T200" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U200" s="71">
+        <f t="shared" si="72"/>
+        <v>3.2</v>
+      </c>
+      <c r="V200" s="71">
+        <f t="shared" si="73"/>
+        <v>40</v>
+      </c>
+      <c r="W200" s="71">
+        <v>4</v>
+      </c>
+      <c r="X200" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y200" s="70">
+        <f t="shared" si="74"/>
+        <v>109.6</v>
+      </c>
+      <c r="Z200" s="5">
+        <f t="shared" si="75"/>
+        <v>2.7399999999999998</v>
+      </c>
+      <c r="AA200" s="74"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A201" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="31">
+        <v>2</v>
+      </c>
+      <c r="E201" s="31">
+        <v>2</v>
+      </c>
+      <c r="F201" s="31">
+        <v>1</v>
+      </c>
+      <c r="G201" s="31">
+        <v>1</v>
+      </c>
+      <c r="H201" s="31">
+        <v>1</v>
+      </c>
+      <c r="I201" s="32">
+        <v>24</v>
+      </c>
+      <c r="J201" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K201" s="61">
+        <v>0</v>
+      </c>
+      <c r="L201" s="32">
+        <v>12</v>
+      </c>
+      <c r="M201" s="33">
+        <v>0</v>
+      </c>
+      <c r="N201" s="31">
+        <v>1</v>
+      </c>
+      <c r="O201" s="61">
+        <v>0</v>
+      </c>
+      <c r="P201" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q201" s="75"/>
+      <c r="R201" s="71">
+        <f t="shared" si="71"/>
+        <v>24</v>
+      </c>
+      <c r="S201" s="71">
+        <v>11</v>
+      </c>
+      <c r="T201" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U201" s="71">
+        <f t="shared" si="72"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V201" s="71">
+        <f t="shared" si="73"/>
+        <v>11</v>
+      </c>
+      <c r="W201" s="71">
+        <v>4</v>
+      </c>
+      <c r="X201" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y201" s="70">
+        <f t="shared" si="74"/>
+        <v>7.25</v>
+      </c>
+      <c r="Z201" s="5">
+        <f t="shared" si="75"/>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="AA201" s="74"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A202" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="31">
+        <v>24</v>
+      </c>
+      <c r="E202" s="31">
+        <v>13</v>
+      </c>
+      <c r="F202" s="31">
+        <v>1</v>
+      </c>
+      <c r="G202" s="31">
+        <v>1</v>
+      </c>
+      <c r="H202" s="31">
+        <v>1</v>
+      </c>
+      <c r="I202" s="32">
+        <v>39</v>
+      </c>
+      <c r="J202" s="33">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K202" s="61">
+        <v>0</v>
+      </c>
+      <c r="L202" s="32">
+        <v>3</v>
+      </c>
+      <c r="M202" s="34">
+        <v>1</v>
+      </c>
+      <c r="N202" s="61">
+        <v>0</v>
+      </c>
+      <c r="O202" s="61">
+        <v>0</v>
+      </c>
+      <c r="P202" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q202" s="75"/>
+      <c r="R202" s="71">
+        <f t="shared" si="71"/>
+        <v>39</v>
+      </c>
+      <c r="S202" s="71">
+        <v>17</v>
+      </c>
+      <c r="T202" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U202" s="71">
+        <f t="shared" si="72"/>
+        <v>1.36</v>
+      </c>
+      <c r="V202" s="71">
+        <f t="shared" si="73"/>
+        <v>17</v>
+      </c>
+      <c r="W202" s="71">
+        <v>4</v>
+      </c>
+      <c r="X202" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y202" s="70">
+        <f t="shared" si="74"/>
+        <v>15.440000000000001</v>
+      </c>
+      <c r="Z202" s="5">
+        <f t="shared" si="75"/>
+        <v>0.90823529411764714</v>
+      </c>
+      <c r="AA202" s="74"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A203" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B203" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="31">
+        <v>6</v>
+      </c>
+      <c r="E203" s="31">
+        <v>3</v>
+      </c>
+      <c r="F203" s="31">
+        <v>1</v>
+      </c>
+      <c r="G203" s="31">
+        <v>1</v>
+      </c>
+      <c r="H203" s="31">
+        <v>1</v>
+      </c>
+      <c r="I203" s="32">
+        <v>45</v>
+      </c>
+      <c r="J203" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K203" s="61">
+        <v>0</v>
+      </c>
+      <c r="L203" s="32">
+        <v>15</v>
+      </c>
+      <c r="M203" s="34">
+        <v>1</v>
+      </c>
+      <c r="N203" s="61">
+        <v>0</v>
+      </c>
+      <c r="O203" s="61">
+        <v>0</v>
+      </c>
+      <c r="P203" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q203" s="75"/>
+      <c r="R203" s="71">
+        <f t="shared" si="71"/>
+        <v>45</v>
+      </c>
+      <c r="S203" s="71">
+        <v>22</v>
+      </c>
+      <c r="T203" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U203" s="71">
+        <f t="shared" si="72"/>
+        <v>1.76</v>
+      </c>
+      <c r="V203" s="71">
+        <f t="shared" si="73"/>
+        <v>22</v>
+      </c>
+      <c r="W203" s="71">
+        <v>4</v>
+      </c>
+      <c r="X203" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y203" s="70">
+        <f t="shared" si="74"/>
+        <v>16.04</v>
+      </c>
+      <c r="Z203" s="5">
+        <f t="shared" si="75"/>
+        <v>0.72909090909090901</v>
+      </c>
+      <c r="AA203" s="74"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A204" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B204" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="31">
+        <v>19</v>
+      </c>
+      <c r="E204" s="31">
+        <v>13</v>
+      </c>
+      <c r="F204" s="31">
+        <v>1</v>
+      </c>
+      <c r="G204" s="31">
+        <v>1</v>
+      </c>
+      <c r="H204" s="31">
+        <v>1</v>
+      </c>
+      <c r="I204" s="32">
+        <v>69</v>
+      </c>
+      <c r="J204" s="33">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K204" s="61">
+        <v>0</v>
+      </c>
+      <c r="L204" s="32">
+        <v>5.31</v>
+      </c>
+      <c r="M204" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="N204" s="31">
+        <v>2</v>
+      </c>
+      <c r="O204" s="61">
+        <v>0</v>
+      </c>
+      <c r="P204" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q204" s="75"/>
+      <c r="R204" s="71">
+        <f t="shared" si="71"/>
+        <v>69</v>
+      </c>
+      <c r="S204" s="71">
+        <v>22</v>
+      </c>
+      <c r="T204" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="U204" s="71">
+        <f t="shared" si="72"/>
+        <v>1.76</v>
+      </c>
+      <c r="V204" s="71">
+        <f t="shared" si="73"/>
+        <v>22</v>
+      </c>
+      <c r="W204" s="71">
+        <v>4</v>
+      </c>
+      <c r="X204" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="Y204" s="70">
+        <f t="shared" si="74"/>
+        <v>40.04</v>
+      </c>
+      <c r="Z204" s="5">
+        <f t="shared" si="75"/>
+        <v>1.82</v>
+      </c>
+      <c r="AA204" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
-  <mergeCells count="28">
-    <mergeCell ref="Q131:Q143"/>
-    <mergeCell ref="AA131:AA143"/>
+  <mergeCells count="40">
+    <mergeCell ref="Q193:Q204"/>
+    <mergeCell ref="AA193:AA204"/>
+    <mergeCell ref="Q86:Q97"/>
+    <mergeCell ref="Q99:Q104"/>
+    <mergeCell ref="Q106:Q114"/>
+    <mergeCell ref="Q185:Q191"/>
+    <mergeCell ref="AA185:AA191"/>
     <mergeCell ref="AA29:AA36"/>
     <mergeCell ref="AA21:AA27"/>
     <mergeCell ref="Q75:Q84"/>
@@ -12225,25 +16991,32 @@
     <mergeCell ref="AA75:AA84"/>
     <mergeCell ref="AA62:AA73"/>
     <mergeCell ref="AA48:AA60"/>
-    <mergeCell ref="AA38:AA46"/>
+    <mergeCell ref="Q21:Q27"/>
+    <mergeCell ref="Q62:Q73"/>
+    <mergeCell ref="Q29:Q36"/>
+    <mergeCell ref="Q48:Q60"/>
     <mergeCell ref="Q2:Q6"/>
     <mergeCell ref="AA2:AA6"/>
     <mergeCell ref="AA8:AA13"/>
     <mergeCell ref="Q8:Q13"/>
     <mergeCell ref="AA14:AA19"/>
     <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="Q21:Q27"/>
-    <mergeCell ref="Q62:Q73"/>
-    <mergeCell ref="Q29:Q36"/>
-    <mergeCell ref="Q48:Q60"/>
-    <mergeCell ref="Q99:Q104"/>
-    <mergeCell ref="Q106:Q114"/>
+    <mergeCell ref="Q172:Q183"/>
+    <mergeCell ref="AA172:AA183"/>
+    <mergeCell ref="Q154:Q164"/>
+    <mergeCell ref="AA154:AA164"/>
+    <mergeCell ref="AA38:AA46"/>
+    <mergeCell ref="AA86:AA97"/>
+    <mergeCell ref="AA99:AA104"/>
+    <mergeCell ref="Q145:Q152"/>
+    <mergeCell ref="AA145:AA152"/>
     <mergeCell ref="AA106:AA114"/>
     <mergeCell ref="Q116:Q129"/>
     <mergeCell ref="AA116:AA129"/>
-    <mergeCell ref="Q86:Q97"/>
-    <mergeCell ref="AA86:AA97"/>
-    <mergeCell ref="AA99:AA104"/>
+    <mergeCell ref="Q131:Q143"/>
+    <mergeCell ref="AA131:AA143"/>
+    <mergeCell ref="Q166:Q170"/>
+    <mergeCell ref="AA166:AA170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A75:A84">
